--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1103700</v>
+        <v>1237300</v>
       </c>
       <c r="E8" s="3">
-        <v>685200</v>
+        <v>1076600</v>
       </c>
       <c r="F8" s="3">
-        <v>207000</v>
+        <v>668400</v>
       </c>
       <c r="G8" s="3">
-        <v>33700</v>
+        <v>201900</v>
       </c>
       <c r="H8" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>32900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -738,20 +741,23 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>287500</v>
+        <v>51200</v>
       </c>
       <c r="E9" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>280400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3300</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -768,20 +774,23 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>816200</v>
+        <v>1186000</v>
       </c>
       <c r="E10" s="3">
-        <v>681700</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>796200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>665000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="E12" s="3">
-        <v>22000</v>
+        <v>27900</v>
       </c>
       <c r="F12" s="3">
-        <v>7500</v>
+        <v>21400</v>
       </c>
       <c r="G12" s="3">
-        <v>5400</v>
+        <v>7300</v>
       </c>
       <c r="H12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,28 +969,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>717800</v>
+        <v>698600</v>
       </c>
       <c r="E17" s="3">
-        <v>337800</v>
+        <v>700200</v>
       </c>
       <c r="F17" s="3">
-        <v>104700</v>
+        <v>329500</v>
       </c>
       <c r="G17" s="3">
-        <v>66900</v>
+        <v>102100</v>
       </c>
       <c r="H17" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>65200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -973,29 +999,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>385900</v>
+        <v>538700</v>
       </c>
       <c r="E18" s="3">
-        <v>347400</v>
+        <v>376400</v>
       </c>
       <c r="F18" s="3">
-        <v>102300</v>
+        <v>338900</v>
       </c>
       <c r="G18" s="3">
-        <v>-33200</v>
+        <v>99800</v>
       </c>
       <c r="H18" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-32300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-5700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,28 +1050,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5800</v>
+        <v>9200</v>
       </c>
       <c r="E20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
-      </c>
       <c r="G20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1047,29 +1080,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>381800</v>
+        <v>551000</v>
       </c>
       <c r="E21" s="3">
-        <v>348100</v>
+        <v>372400</v>
       </c>
       <c r="F21" s="3">
-        <v>101200</v>
+        <v>339500</v>
       </c>
       <c r="G21" s="3">
-        <v>-33400</v>
+        <v>98700</v>
       </c>
       <c r="H21" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-32500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-5700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1077,59 +1113,65 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>380100</v>
+        <v>544500</v>
       </c>
       <c r="E23" s="3">
-        <v>347200</v>
+        <v>370800</v>
       </c>
       <c r="F23" s="3">
-        <v>100900</v>
+        <v>338700</v>
       </c>
       <c r="G23" s="3">
-        <v>-33500</v>
+        <v>98500</v>
       </c>
       <c r="H23" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-32600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1179,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22600</v>
+        <v>87600</v>
       </c>
       <c r="E24" s="3">
-        <v>36700</v>
+        <v>22100</v>
       </c>
       <c r="F24" s="3">
-        <v>18200</v>
+        <v>35800</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>17800</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,29 +1245,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>357500</v>
+        <v>456900</v>
       </c>
       <c r="E26" s="3">
-        <v>310600</v>
+        <v>348700</v>
       </c>
       <c r="F26" s="3">
-        <v>82700</v>
+        <v>302900</v>
       </c>
       <c r="G26" s="3">
-        <v>-33500</v>
+        <v>80700</v>
       </c>
       <c r="H26" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-32600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-5700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1278,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>357500</v>
+        <v>456900</v>
       </c>
       <c r="E27" s="3">
-        <v>310600</v>
+        <v>348700</v>
       </c>
       <c r="F27" s="3">
-        <v>82700</v>
+        <v>302900</v>
       </c>
       <c r="G27" s="3">
-        <v>-33500</v>
+        <v>80700</v>
       </c>
       <c r="H27" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-32600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-5700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,29 +1443,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5800</v>
+        <v>-9200</v>
       </c>
       <c r="E32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>1400</v>
-      </c>
       <c r="G32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1407,29 +1476,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>357500</v>
+        <v>456900</v>
       </c>
       <c r="E33" s="3">
-        <v>310600</v>
+        <v>348700</v>
       </c>
       <c r="F33" s="3">
-        <v>82700</v>
+        <v>302900</v>
       </c>
       <c r="G33" s="3">
-        <v>-33500</v>
+        <v>80700</v>
       </c>
       <c r="H33" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-32600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-5700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,29 +1542,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>357500</v>
+        <v>456900</v>
       </c>
       <c r="E35" s="3">
-        <v>310600</v>
+        <v>348700</v>
       </c>
       <c r="F35" s="3">
-        <v>82700</v>
+        <v>302900</v>
       </c>
       <c r="G35" s="3">
-        <v>-33500</v>
+        <v>80700</v>
       </c>
       <c r="H35" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-32600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-5700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1497,44 +1575,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>358900</v>
+        <v>401000</v>
       </c>
       <c r="E41" s="3">
-        <v>980300</v>
+        <v>350600</v>
       </c>
       <c r="F41" s="3">
-        <v>112700</v>
+        <v>957600</v>
       </c>
       <c r="G41" s="3">
-        <v>30100</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>110100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>29400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,26 +1676,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>32400</v>
       </c>
       <c r="E42" s="3">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>61700</v>
+        <v>42000</v>
       </c>
       <c r="G42" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>60300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1638600</v>
+        <v>1770500</v>
       </c>
       <c r="E43" s="3">
-        <v>1288900</v>
+        <v>1600700</v>
       </c>
       <c r="F43" s="3">
-        <v>735600</v>
+        <v>1259000</v>
       </c>
       <c r="G43" s="3">
-        <v>308600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>718600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>301400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,20 +1742,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18400</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>17900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1677,29 +1772,32 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63100</v>
+        <v>180900</v>
       </c>
       <c r="E45" s="3">
-        <v>430100</v>
+        <v>61600</v>
       </c>
       <c r="F45" s="3">
-        <v>84100</v>
+        <v>420200</v>
       </c>
       <c r="G45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>82100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2078900</v>
+        <v>2386000</v>
       </c>
       <c r="E46" s="3">
-        <v>2752700</v>
+        <v>2030800</v>
       </c>
       <c r="F46" s="3">
-        <v>994200</v>
+        <v>2689000</v>
       </c>
       <c r="G46" s="3">
-        <v>350700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>971200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>342600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>195700</v>
+        <v>109600</v>
       </c>
       <c r="E47" s="3">
-        <v>9000</v>
+        <v>191100</v>
       </c>
       <c r="F47" s="3">
-        <v>22100</v>
+        <v>8700</v>
       </c>
       <c r="G47" s="3">
-        <v>25700</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>21600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>25100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,27 +1874,30 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19000</v>
+        <v>33900</v>
       </c>
       <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
-        <v>700</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1810,16 +1920,16 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37400</v>
+        <v>43200</v>
       </c>
       <c r="E52" s="3">
-        <v>17500</v>
+        <v>36500</v>
       </c>
       <c r="F52" s="3">
-        <v>4300</v>
+        <v>17100</v>
       </c>
       <c r="G52" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>7000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2332000</v>
+        <v>2573600</v>
       </c>
       <c r="E54" s="3">
-        <v>2780700</v>
+        <v>2278100</v>
       </c>
       <c r="F54" s="3">
-        <v>1021200</v>
+        <v>2716400</v>
       </c>
       <c r="G54" s="3">
-        <v>383900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>997600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>375000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,8 +2138,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2038,26 +2168,29 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>553900</v>
+        <v>147100</v>
       </c>
       <c r="E58" s="3">
-        <v>1144900</v>
+        <v>541100</v>
       </c>
       <c r="F58" s="3">
-        <v>600200</v>
+        <v>1118400</v>
       </c>
       <c r="G58" s="3">
-        <v>224200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>586300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>219100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166300</v>
+        <v>399100</v>
       </c>
       <c r="E59" s="3">
-        <v>193800</v>
+        <v>162400</v>
       </c>
       <c r="F59" s="3">
-        <v>49500</v>
+        <v>189300</v>
       </c>
       <c r="G59" s="3">
-        <v>237400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>48300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>231900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>720200</v>
+        <v>546200</v>
       </c>
       <c r="E60" s="3">
-        <v>1338700</v>
+        <v>703500</v>
       </c>
       <c r="F60" s="3">
-        <v>649700</v>
+        <v>1307700</v>
       </c>
       <c r="G60" s="3">
-        <v>461700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>634600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>451000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,26 +2267,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59300</v>
+        <v>327900</v>
       </c>
       <c r="E61" s="3">
-        <v>73200</v>
+        <v>57900</v>
       </c>
       <c r="F61" s="3">
-        <v>10900</v>
+        <v>71500</v>
       </c>
       <c r="G61" s="3">
-        <v>12800</v>
+        <v>10700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>28100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>779500</v>
+        <v>902300</v>
       </c>
       <c r="E66" s="3">
-        <v>1411900</v>
+        <v>761500</v>
       </c>
       <c r="F66" s="3">
-        <v>660600</v>
+        <v>1379200</v>
       </c>
       <c r="G66" s="3">
-        <v>474500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>645300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>463500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2395,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>852800</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>852800</v>
+        <v>833100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>833100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>727000</v>
+        <v>1167700</v>
       </c>
       <c r="E72" s="3">
-        <v>354000</v>
+        <v>710200</v>
       </c>
       <c r="F72" s="3">
-        <v>-503700</v>
+        <v>345900</v>
       </c>
       <c r="G72" s="3">
-        <v>-951800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-492100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-929800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1552500</v>
+        <v>1671300</v>
       </c>
       <c r="E76" s="3">
-        <v>1368900</v>
+        <v>1516600</v>
       </c>
       <c r="F76" s="3">
-        <v>-492200</v>
+        <v>1337200</v>
       </c>
       <c r="G76" s="3">
-        <v>-943400</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-480800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-921600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,64 +2810,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>357500</v>
+        <v>456900</v>
       </c>
       <c r="E81" s="3">
-        <v>310600</v>
+        <v>348700</v>
       </c>
       <c r="F81" s="3">
-        <v>82700</v>
+        <v>302900</v>
       </c>
       <c r="G81" s="3">
-        <v>-33500</v>
+        <v>80700</v>
       </c>
       <c r="H81" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-32600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-5700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,28 +2899,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,29 +3094,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>478100</v>
+        <v>770300</v>
       </c>
       <c r="E89" s="3">
-        <v>401400</v>
+        <v>466400</v>
       </c>
       <c r="F89" s="3">
-        <v>113900</v>
+        <v>391600</v>
       </c>
       <c r="G89" s="3">
-        <v>-14700</v>
+        <v>111100</v>
       </c>
       <c r="H89" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-14300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,28 +3145,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20100</v>
+        <v>-10700</v>
       </c>
       <c r="E91" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-700</v>
-      </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,29 +3241,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400400</v>
+        <v>-130100</v>
       </c>
       <c r="E94" s="3">
-        <v>-634500</v>
+        <v>-390600</v>
       </c>
       <c r="F94" s="3">
-        <v>-516300</v>
+        <v>-618900</v>
       </c>
       <c r="G94" s="3">
-        <v>-267600</v>
+        <v>-503600</v>
       </c>
       <c r="H94" s="3">
-        <v>-74500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-261000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-72700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,29 +3421,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-965300</v>
+        <v>-472000</v>
       </c>
       <c r="E100" s="3">
-        <v>1435000</v>
+        <v>-941600</v>
       </c>
       <c r="F100" s="3">
-        <v>484900</v>
+        <v>1399800</v>
       </c>
       <c r="G100" s="3">
-        <v>312100</v>
+        <v>473000</v>
       </c>
       <c r="H100" s="3">
-        <v>79200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>304500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>77200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3209,20 +3454,23 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8300</v>
+        <v>10600</v>
       </c>
       <c r="E101" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>-8100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-10900</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3239,37 +3487,43 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-895900</v>
+        <v>178800</v>
       </c>
       <c r="E102" s="3">
-        <v>1190800</v>
+        <v>-873900</v>
       </c>
       <c r="F102" s="3">
-        <v>82600</v>
+        <v>1161600</v>
       </c>
       <c r="G102" s="3">
-        <v>29900</v>
+        <v>80600</v>
       </c>
       <c r="H102" s="3">
+        <v>29100</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1237300</v>
+        <v>1283800</v>
       </c>
       <c r="E8" s="3">
-        <v>1076600</v>
+        <v>1117200</v>
       </c>
       <c r="F8" s="3">
-        <v>668400</v>
+        <v>693500</v>
       </c>
       <c r="G8" s="3">
-        <v>201900</v>
+        <v>209500</v>
       </c>
       <c r="H8" s="3">
-        <v>32900</v>
+        <v>34100</v>
       </c>
       <c r="I8" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>51200</v>
+        <v>53200</v>
       </c>
       <c r="E9" s="3">
-        <v>280400</v>
+        <v>291000</v>
       </c>
       <c r="F9" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -784,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1186000</v>
+        <v>1230700</v>
       </c>
       <c r="E10" s="3">
-        <v>796200</v>
+        <v>826200</v>
       </c>
       <c r="F10" s="3">
-        <v>665000</v>
+        <v>690100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>28700</v>
+        <v>29700</v>
       </c>
       <c r="E12" s="3">
-        <v>27900</v>
+        <v>29000</v>
       </c>
       <c r="F12" s="3">
-        <v>21400</v>
+        <v>22300</v>
       </c>
       <c r="G12" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="H12" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="I12" s="3">
         <v>600</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>698600</v>
+        <v>724900</v>
       </c>
       <c r="E17" s="3">
-        <v>700200</v>
+        <v>726600</v>
       </c>
       <c r="F17" s="3">
-        <v>329500</v>
+        <v>341900</v>
       </c>
       <c r="G17" s="3">
-        <v>102100</v>
+        <v>106000</v>
       </c>
       <c r="H17" s="3">
-        <v>65200</v>
+        <v>67700</v>
       </c>
       <c r="I17" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>538700</v>
+        <v>559000</v>
       </c>
       <c r="E18" s="3">
-        <v>376400</v>
+        <v>390600</v>
       </c>
       <c r="F18" s="3">
-        <v>338900</v>
+        <v>351600</v>
       </c>
       <c r="G18" s="3">
-        <v>99800</v>
+        <v>103600</v>
       </c>
       <c r="H18" s="3">
-        <v>-32300</v>
+        <v>-33600</v>
       </c>
       <c r="I18" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="E20" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="F20" s="3">
         <v>-200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>551000</v>
+        <v>571700</v>
       </c>
       <c r="E21" s="3">
-        <v>372400</v>
+        <v>386500</v>
       </c>
       <c r="F21" s="3">
-        <v>339500</v>
+        <v>352300</v>
       </c>
       <c r="G21" s="3">
-        <v>98700</v>
+        <v>102400</v>
       </c>
       <c r="H21" s="3">
-        <v>-32500</v>
+        <v>-33800</v>
       </c>
       <c r="I21" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>544500</v>
+        <v>565000</v>
       </c>
       <c r="E23" s="3">
-        <v>370800</v>
+        <v>384700</v>
       </c>
       <c r="F23" s="3">
-        <v>338700</v>
+        <v>351500</v>
       </c>
       <c r="G23" s="3">
-        <v>98500</v>
+        <v>102200</v>
       </c>
       <c r="H23" s="3">
-        <v>-32600</v>
+        <v>-33900</v>
       </c>
       <c r="I23" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>87600</v>
+        <v>90900</v>
       </c>
       <c r="E24" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="F24" s="3">
-        <v>35800</v>
+        <v>37100</v>
       </c>
       <c r="G24" s="3">
-        <v>17800</v>
+        <v>18400</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>456900</v>
+        <v>474100</v>
       </c>
       <c r="E26" s="3">
-        <v>348700</v>
+        <v>361800</v>
       </c>
       <c r="F26" s="3">
-        <v>302900</v>
+        <v>314300</v>
       </c>
       <c r="G26" s="3">
-        <v>80700</v>
+        <v>83700</v>
       </c>
       <c r="H26" s="3">
-        <v>-32600</v>
+        <v>-33900</v>
       </c>
       <c r="I26" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>456900</v>
+        <v>474100</v>
       </c>
       <c r="E27" s="3">
-        <v>348700</v>
+        <v>361800</v>
       </c>
       <c r="F27" s="3">
-        <v>302900</v>
+        <v>314300</v>
       </c>
       <c r="G27" s="3">
-        <v>80700</v>
+        <v>83700</v>
       </c>
       <c r="H27" s="3">
-        <v>-32600</v>
+        <v>-33900</v>
       </c>
       <c r="I27" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="E32" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="F32" s="3">
         <v>200</v>
       </c>
       <c r="G32" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>456900</v>
+        <v>474100</v>
       </c>
       <c r="E33" s="3">
-        <v>348700</v>
+        <v>361800</v>
       </c>
       <c r="F33" s="3">
-        <v>302900</v>
+        <v>314300</v>
       </c>
       <c r="G33" s="3">
-        <v>80700</v>
+        <v>83700</v>
       </c>
       <c r="H33" s="3">
-        <v>-32600</v>
+        <v>-33900</v>
       </c>
       <c r="I33" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>456900</v>
+        <v>474100</v>
       </c>
       <c r="E35" s="3">
-        <v>348700</v>
+        <v>361800</v>
       </c>
       <c r="F35" s="3">
-        <v>302900</v>
+        <v>314300</v>
       </c>
       <c r="G35" s="3">
-        <v>80700</v>
+        <v>83700</v>
       </c>
       <c r="H35" s="3">
-        <v>-32600</v>
+        <v>-33900</v>
       </c>
       <c r="I35" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>401000</v>
+        <v>415500</v>
       </c>
       <c r="E41" s="3">
-        <v>350600</v>
+        <v>363200</v>
       </c>
       <c r="F41" s="3">
-        <v>957600</v>
+        <v>992300</v>
       </c>
       <c r="G41" s="3">
-        <v>110100</v>
+        <v>114100</v>
       </c>
       <c r="H41" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>42000</v>
+        <v>43600</v>
       </c>
       <c r="G42" s="3">
-        <v>60300</v>
+        <v>62500</v>
       </c>
       <c r="H42" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1770500</v>
+        <v>1834500</v>
       </c>
       <c r="E43" s="3">
-        <v>1600700</v>
+        <v>1658600</v>
       </c>
       <c r="F43" s="3">
-        <v>1259000</v>
+        <v>1304600</v>
       </c>
       <c r="G43" s="3">
-        <v>718600</v>
+        <v>744600</v>
       </c>
       <c r="H43" s="3">
-        <v>301400</v>
+        <v>312300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E44" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="F44" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>180900</v>
+        <v>187500</v>
       </c>
       <c r="E45" s="3">
-        <v>61600</v>
+        <v>63800</v>
       </c>
       <c r="F45" s="3">
-        <v>420200</v>
+        <v>435400</v>
       </c>
       <c r="G45" s="3">
-        <v>82100</v>
+        <v>85100</v>
       </c>
       <c r="H45" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2386000</v>
+        <v>2472300</v>
       </c>
       <c r="E46" s="3">
-        <v>2030800</v>
+        <v>2104300</v>
       </c>
       <c r="F46" s="3">
-        <v>2689000</v>
+        <v>2786300</v>
       </c>
       <c r="G46" s="3">
-        <v>971200</v>
+        <v>1006300</v>
       </c>
       <c r="H46" s="3">
-        <v>342600</v>
+        <v>355000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>109600</v>
+        <v>113500</v>
       </c>
       <c r="E47" s="3">
-        <v>191100</v>
+        <v>198000</v>
       </c>
       <c r="F47" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="G47" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="H47" s="3">
-        <v>25100</v>
+        <v>26000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33900</v>
+        <v>35100</v>
       </c>
       <c r="E48" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -1920,10 +1920,10 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43200</v>
+        <v>44700</v>
       </c>
       <c r="E52" s="3">
-        <v>36500</v>
+        <v>37800</v>
       </c>
       <c r="F52" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="G52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H52" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2573600</v>
+        <v>2666700</v>
       </c>
       <c r="E54" s="3">
-        <v>2278100</v>
+        <v>2360500</v>
       </c>
       <c r="F54" s="3">
-        <v>2716400</v>
+        <v>2814600</v>
       </c>
       <c r="G54" s="3">
-        <v>997600</v>
+        <v>1033700</v>
       </c>
       <c r="H54" s="3">
-        <v>375000</v>
+        <v>388600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>147100</v>
+        <v>152400</v>
       </c>
       <c r="E58" s="3">
-        <v>541100</v>
+        <v>560700</v>
       </c>
       <c r="F58" s="3">
-        <v>1118400</v>
+        <v>1158900</v>
       </c>
       <c r="G58" s="3">
-        <v>586300</v>
+        <v>607500</v>
       </c>
       <c r="H58" s="3">
-        <v>219100</v>
+        <v>227000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>399100</v>
+        <v>413600</v>
       </c>
       <c r="E59" s="3">
-        <v>162400</v>
+        <v>168300</v>
       </c>
       <c r="F59" s="3">
-        <v>189300</v>
+        <v>196100</v>
       </c>
       <c r="G59" s="3">
-        <v>48300</v>
+        <v>50100</v>
       </c>
       <c r="H59" s="3">
-        <v>231900</v>
+        <v>240300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>546200</v>
+        <v>566000</v>
       </c>
       <c r="E60" s="3">
-        <v>703500</v>
+        <v>729000</v>
       </c>
       <c r="F60" s="3">
-        <v>1307700</v>
+        <v>1355000</v>
       </c>
       <c r="G60" s="3">
-        <v>634600</v>
+        <v>657600</v>
       </c>
       <c r="H60" s="3">
-        <v>451000</v>
+        <v>467300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>327900</v>
+        <v>339800</v>
       </c>
       <c r="E61" s="3">
-        <v>57900</v>
+        <v>60000</v>
       </c>
       <c r="F61" s="3">
-        <v>71500</v>
+        <v>74100</v>
       </c>
       <c r="G61" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="H61" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28100</v>
+        <v>29100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>902300</v>
+        <v>934900</v>
       </c>
       <c r="E66" s="3">
-        <v>761500</v>
+        <v>789000</v>
       </c>
       <c r="F66" s="3">
-        <v>1379200</v>
+        <v>1429100</v>
       </c>
       <c r="G66" s="3">
-        <v>645300</v>
+        <v>668600</v>
       </c>
       <c r="H66" s="3">
-        <v>463500</v>
+        <v>480300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>833100</v>
+        <v>863200</v>
       </c>
       <c r="H70" s="3">
-        <v>833100</v>
+        <v>863200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1167700</v>
+        <v>1209900</v>
       </c>
       <c r="E72" s="3">
-        <v>710200</v>
+        <v>735900</v>
       </c>
       <c r="F72" s="3">
-        <v>345900</v>
+        <v>358400</v>
       </c>
       <c r="G72" s="3">
-        <v>-492100</v>
+        <v>-509900</v>
       </c>
       <c r="H72" s="3">
-        <v>-929800</v>
+        <v>-963400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1671300</v>
+        <v>1731700</v>
       </c>
       <c r="E76" s="3">
-        <v>1516600</v>
+        <v>1571500</v>
       </c>
       <c r="F76" s="3">
-        <v>1337200</v>
+        <v>1385500</v>
       </c>
       <c r="G76" s="3">
-        <v>-480800</v>
+        <v>-498200</v>
       </c>
       <c r="H76" s="3">
-        <v>-921600</v>
+        <v>-954900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>456900</v>
+        <v>474100</v>
       </c>
       <c r="E81" s="3">
-        <v>348700</v>
+        <v>361800</v>
       </c>
       <c r="F81" s="3">
-        <v>302900</v>
+        <v>314300</v>
       </c>
       <c r="G81" s="3">
-        <v>80700</v>
+        <v>83700</v>
       </c>
       <c r="H81" s="3">
-        <v>-32600</v>
+        <v>-33900</v>
       </c>
       <c r="I81" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,10 +2906,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="3">
         <v>800</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>770300</v>
+        <v>799300</v>
       </c>
       <c r="E89" s="3">
-        <v>466400</v>
+        <v>484000</v>
       </c>
       <c r="F89" s="3">
-        <v>391600</v>
+        <v>406300</v>
       </c>
       <c r="G89" s="3">
-        <v>111100</v>
+        <v>115300</v>
       </c>
       <c r="H89" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="I89" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10700</v>
+        <v>-11100</v>
       </c>
       <c r="E91" s="3">
-        <v>-19600</v>
+        <v>-20400</v>
       </c>
       <c r="F91" s="3">
         <v>-1600</v>
       </c>
       <c r="G91" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-130100</v>
+        <v>-135000</v>
       </c>
       <c r="E94" s="3">
-        <v>-390600</v>
+        <v>-405300</v>
       </c>
       <c r="F94" s="3">
-        <v>-618900</v>
+        <v>-642300</v>
       </c>
       <c r="G94" s="3">
-        <v>-503600</v>
+        <v>-522600</v>
       </c>
       <c r="H94" s="3">
-        <v>-261000</v>
+        <v>-270800</v>
       </c>
       <c r="I94" s="3">
-        <v>-72700</v>
+        <v>-75400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-472000</v>
+        <v>-489800</v>
       </c>
       <c r="E100" s="3">
-        <v>-941600</v>
+        <v>-977100</v>
       </c>
       <c r="F100" s="3">
-        <v>1399800</v>
+        <v>1452500</v>
       </c>
       <c r="G100" s="3">
-        <v>473000</v>
+        <v>490800</v>
       </c>
       <c r="H100" s="3">
-        <v>304500</v>
+        <v>315900</v>
       </c>
       <c r="I100" s="3">
-        <v>77200</v>
+        <v>80100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="E101" s="3">
-        <v>-8100</v>
+        <v>-8400</v>
       </c>
       <c r="F101" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>178800</v>
+        <v>185500</v>
       </c>
       <c r="E102" s="3">
-        <v>-873900</v>
+        <v>-906800</v>
       </c>
       <c r="F102" s="3">
-        <v>1161600</v>
+        <v>1205300</v>
       </c>
       <c r="G102" s="3">
-        <v>80600</v>
+        <v>83600</v>
       </c>
       <c r="H102" s="3">
-        <v>29100</v>
+        <v>30200</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1283800</v>
+        <v>1344700</v>
       </c>
       <c r="E8" s="3">
-        <v>1117200</v>
+        <v>1170200</v>
       </c>
       <c r="F8" s="3">
-        <v>693500</v>
+        <v>726400</v>
       </c>
       <c r="G8" s="3">
-        <v>209500</v>
+        <v>219500</v>
       </c>
       <c r="H8" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="I8" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>53200</v>
+        <v>55700</v>
       </c>
       <c r="E9" s="3">
-        <v>291000</v>
+        <v>304800</v>
       </c>
       <c r="F9" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -784,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1230700</v>
+        <v>1289100</v>
       </c>
       <c r="E10" s="3">
-        <v>826200</v>
+        <v>865400</v>
       </c>
       <c r="F10" s="3">
-        <v>690100</v>
+        <v>722800</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -832,22 +832,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29700</v>
+        <v>31200</v>
       </c>
       <c r="E12" s="3">
-        <v>29000</v>
+        <v>30400</v>
       </c>
       <c r="F12" s="3">
-        <v>22300</v>
+        <v>23300</v>
       </c>
       <c r="G12" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="H12" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="I12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>724900</v>
+        <v>759300</v>
       </c>
       <c r="E17" s="3">
-        <v>726600</v>
+        <v>761100</v>
       </c>
       <c r="F17" s="3">
-        <v>341900</v>
+        <v>358100</v>
       </c>
       <c r="G17" s="3">
-        <v>106000</v>
+        <v>111000</v>
       </c>
       <c r="H17" s="3">
-        <v>67700</v>
+        <v>70900</v>
       </c>
       <c r="I17" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>559000</v>
+        <v>585500</v>
       </c>
       <c r="E18" s="3">
-        <v>390600</v>
+        <v>409100</v>
       </c>
       <c r="F18" s="3">
-        <v>351600</v>
+        <v>368300</v>
       </c>
       <c r="G18" s="3">
-        <v>103600</v>
+        <v>108500</v>
       </c>
       <c r="H18" s="3">
-        <v>-33600</v>
+        <v>-35200</v>
       </c>
       <c r="I18" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="F20" s="3">
         <v>-200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>571700</v>
+        <v>598800</v>
       </c>
       <c r="E21" s="3">
-        <v>386500</v>
+        <v>404800</v>
       </c>
       <c r="F21" s="3">
-        <v>352300</v>
+        <v>369000</v>
       </c>
       <c r="G21" s="3">
-        <v>102400</v>
+        <v>107200</v>
       </c>
       <c r="H21" s="3">
-        <v>-33800</v>
+        <v>-35400</v>
       </c>
       <c r="I21" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>565000</v>
+        <v>591800</v>
       </c>
       <c r="E23" s="3">
-        <v>384700</v>
+        <v>403000</v>
       </c>
       <c r="F23" s="3">
-        <v>351500</v>
+        <v>368100</v>
       </c>
       <c r="G23" s="3">
-        <v>102200</v>
+        <v>107000</v>
       </c>
       <c r="H23" s="3">
-        <v>-33900</v>
+        <v>-35500</v>
       </c>
       <c r="I23" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90900</v>
+        <v>95300</v>
       </c>
       <c r="E24" s="3">
-        <v>22900</v>
+        <v>24000</v>
       </c>
       <c r="F24" s="3">
-        <v>37100</v>
+        <v>38900</v>
       </c>
       <c r="G24" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>474100</v>
+        <v>496600</v>
       </c>
       <c r="E26" s="3">
-        <v>361800</v>
+        <v>379000</v>
       </c>
       <c r="F26" s="3">
-        <v>314300</v>
+        <v>329300</v>
       </c>
       <c r="G26" s="3">
-        <v>83700</v>
+        <v>87700</v>
       </c>
       <c r="H26" s="3">
-        <v>-33900</v>
+        <v>-35500</v>
       </c>
       <c r="I26" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>474100</v>
+        <v>496600</v>
       </c>
       <c r="E27" s="3">
-        <v>361800</v>
+        <v>379000</v>
       </c>
       <c r="F27" s="3">
-        <v>314300</v>
+        <v>329300</v>
       </c>
       <c r="G27" s="3">
-        <v>83700</v>
+        <v>87700</v>
       </c>
       <c r="H27" s="3">
-        <v>-33900</v>
+        <v>-35500</v>
       </c>
       <c r="I27" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9500</v>
+        <v>-10000</v>
       </c>
       <c r="E32" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F32" s="3">
         <v>200</v>
       </c>
       <c r="G32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>474100</v>
+        <v>496600</v>
       </c>
       <c r="E33" s="3">
-        <v>361800</v>
+        <v>379000</v>
       </c>
       <c r="F33" s="3">
-        <v>314300</v>
+        <v>329300</v>
       </c>
       <c r="G33" s="3">
-        <v>83700</v>
+        <v>87700</v>
       </c>
       <c r="H33" s="3">
-        <v>-33900</v>
+        <v>-35500</v>
       </c>
       <c r="I33" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>474100</v>
+        <v>496600</v>
       </c>
       <c r="E35" s="3">
-        <v>361800</v>
+        <v>379000</v>
       </c>
       <c r="F35" s="3">
-        <v>314300</v>
+        <v>329300</v>
       </c>
       <c r="G35" s="3">
-        <v>83700</v>
+        <v>87700</v>
       </c>
       <c r="H35" s="3">
-        <v>-33900</v>
+        <v>-35500</v>
       </c>
       <c r="I35" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>415500</v>
+        <v>435200</v>
       </c>
       <c r="E41" s="3">
-        <v>363200</v>
+        <v>380500</v>
       </c>
       <c r="F41" s="3">
-        <v>992300</v>
+        <v>1039300</v>
       </c>
       <c r="G41" s="3">
-        <v>114100</v>
+        <v>119500</v>
       </c>
       <c r="H41" s="3">
-        <v>30500</v>
+        <v>32000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33600</v>
+        <v>35200</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>43600</v>
+        <v>45600</v>
       </c>
       <c r="G42" s="3">
-        <v>62500</v>
+        <v>65400</v>
       </c>
       <c r="H42" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1834500</v>
+        <v>1921500</v>
       </c>
       <c r="E43" s="3">
-        <v>1658600</v>
+        <v>1737300</v>
       </c>
       <c r="F43" s="3">
-        <v>1304600</v>
+        <v>1366500</v>
       </c>
       <c r="G43" s="3">
-        <v>744600</v>
+        <v>779900</v>
       </c>
       <c r="H43" s="3">
-        <v>312300</v>
+        <v>327100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E44" s="3">
-        <v>18600</v>
+        <v>19500</v>
       </c>
       <c r="F44" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>187500</v>
+        <v>196300</v>
       </c>
       <c r="E45" s="3">
-        <v>63800</v>
+        <v>66900</v>
       </c>
       <c r="F45" s="3">
-        <v>435400</v>
+        <v>456000</v>
       </c>
       <c r="G45" s="3">
-        <v>85100</v>
+        <v>89100</v>
       </c>
       <c r="H45" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2472300</v>
+        <v>2589600</v>
       </c>
       <c r="E46" s="3">
-        <v>2104300</v>
+        <v>2204100</v>
       </c>
       <c r="F46" s="3">
-        <v>2786300</v>
+        <v>2918500</v>
       </c>
       <c r="G46" s="3">
-        <v>1006300</v>
+        <v>1054000</v>
       </c>
       <c r="H46" s="3">
-        <v>355000</v>
+        <v>371900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>113500</v>
+        <v>118900</v>
       </c>
       <c r="E47" s="3">
-        <v>198000</v>
+        <v>207400</v>
       </c>
       <c r="F47" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="G47" s="3">
-        <v>22400</v>
+        <v>23400</v>
       </c>
       <c r="H47" s="3">
-        <v>26000</v>
+        <v>27300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35100</v>
+        <v>36800</v>
       </c>
       <c r="E48" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -1920,7 +1920,7 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44700</v>
+        <v>46900</v>
       </c>
       <c r="E52" s="3">
-        <v>37800</v>
+        <v>39600</v>
       </c>
       <c r="F52" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="G52" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H52" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2666700</v>
+        <v>2793200</v>
       </c>
       <c r="E54" s="3">
-        <v>2360500</v>
+        <v>2472500</v>
       </c>
       <c r="F54" s="3">
-        <v>2814600</v>
+        <v>2948100</v>
       </c>
       <c r="G54" s="3">
-        <v>1033700</v>
+        <v>1082700</v>
       </c>
       <c r="H54" s="3">
-        <v>388600</v>
+        <v>407000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>152400</v>
+        <v>159700</v>
       </c>
       <c r="E58" s="3">
-        <v>560700</v>
+        <v>587300</v>
       </c>
       <c r="F58" s="3">
-        <v>1158900</v>
+        <v>1213800</v>
       </c>
       <c r="G58" s="3">
-        <v>607500</v>
+        <v>636400</v>
       </c>
       <c r="H58" s="3">
-        <v>227000</v>
+        <v>237700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>413600</v>
+        <v>433200</v>
       </c>
       <c r="E59" s="3">
-        <v>168300</v>
+        <v>176300</v>
       </c>
       <c r="F59" s="3">
-        <v>196100</v>
+        <v>205500</v>
       </c>
       <c r="G59" s="3">
-        <v>50100</v>
+        <v>52400</v>
       </c>
       <c r="H59" s="3">
-        <v>240300</v>
+        <v>251700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>566000</v>
+        <v>592900</v>
       </c>
       <c r="E60" s="3">
-        <v>729000</v>
+        <v>763500</v>
       </c>
       <c r="F60" s="3">
-        <v>1355000</v>
+        <v>1419300</v>
       </c>
       <c r="G60" s="3">
-        <v>657600</v>
+        <v>688800</v>
       </c>
       <c r="H60" s="3">
-        <v>467300</v>
+        <v>489500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>339800</v>
+        <v>355900</v>
       </c>
       <c r="E61" s="3">
-        <v>60000</v>
+        <v>62900</v>
       </c>
       <c r="F61" s="3">
-        <v>74100</v>
+        <v>77600</v>
       </c>
       <c r="G61" s="3">
-        <v>11000</v>
+        <v>11600</v>
       </c>
       <c r="H61" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29100</v>
+        <v>30500</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>934900</v>
+        <v>979300</v>
       </c>
       <c r="E66" s="3">
-        <v>789000</v>
+        <v>826400</v>
       </c>
       <c r="F66" s="3">
-        <v>1429100</v>
+        <v>1496900</v>
       </c>
       <c r="G66" s="3">
-        <v>668600</v>
+        <v>700400</v>
       </c>
       <c r="H66" s="3">
-        <v>480300</v>
+        <v>503100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>863200</v>
+        <v>904200</v>
       </c>
       <c r="H70" s="3">
-        <v>863200</v>
+        <v>904200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1209900</v>
+        <v>1267300</v>
       </c>
       <c r="E72" s="3">
-        <v>735900</v>
+        <v>770800</v>
       </c>
       <c r="F72" s="3">
-        <v>358400</v>
+        <v>375400</v>
       </c>
       <c r="G72" s="3">
-        <v>-509900</v>
+        <v>-534100</v>
       </c>
       <c r="H72" s="3">
-        <v>-963400</v>
+        <v>-1009100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1731700</v>
+        <v>1813900</v>
       </c>
       <c r="E76" s="3">
-        <v>1571500</v>
+        <v>1646000</v>
       </c>
       <c r="F76" s="3">
-        <v>1385500</v>
+        <v>1451300</v>
       </c>
       <c r="G76" s="3">
-        <v>-498200</v>
+        <v>-521800</v>
       </c>
       <c r="H76" s="3">
-        <v>-954900</v>
+        <v>-1000200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>474100</v>
+        <v>496600</v>
       </c>
       <c r="E81" s="3">
-        <v>361800</v>
+        <v>379000</v>
       </c>
       <c r="F81" s="3">
-        <v>314300</v>
+        <v>329300</v>
       </c>
       <c r="G81" s="3">
-        <v>83700</v>
+        <v>87700</v>
       </c>
       <c r="H81" s="3">
-        <v>-33900</v>
+        <v>-35500</v>
       </c>
       <c r="I81" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
         <v>1800</v>
       </c>
       <c r="F83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>799300</v>
+        <v>837200</v>
       </c>
       <c r="E89" s="3">
-        <v>484000</v>
+        <v>506900</v>
       </c>
       <c r="F89" s="3">
-        <v>406300</v>
+        <v>425600</v>
       </c>
       <c r="G89" s="3">
-        <v>115300</v>
+        <v>120800</v>
       </c>
       <c r="H89" s="3">
-        <v>-14900</v>
+        <v>-15600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="E91" s="3">
-        <v>-20400</v>
+        <v>-21400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G91" s="3">
         <v>-700</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-135000</v>
+        <v>-141400</v>
       </c>
       <c r="E94" s="3">
-        <v>-405300</v>
+        <v>-424500</v>
       </c>
       <c r="F94" s="3">
-        <v>-642300</v>
+        <v>-672700</v>
       </c>
       <c r="G94" s="3">
-        <v>-522600</v>
+        <v>-547300</v>
       </c>
       <c r="H94" s="3">
-        <v>-270800</v>
+        <v>-283700</v>
       </c>
       <c r="I94" s="3">
-        <v>-75400</v>
+        <v>-79000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-489800</v>
+        <v>-513000</v>
       </c>
       <c r="E100" s="3">
-        <v>-977100</v>
+        <v>-1023400</v>
       </c>
       <c r="F100" s="3">
-        <v>1452500</v>
+        <v>1521400</v>
       </c>
       <c r="G100" s="3">
-        <v>490800</v>
+        <v>514100</v>
       </c>
       <c r="H100" s="3">
-        <v>315900</v>
+        <v>330900</v>
       </c>
       <c r="I100" s="3">
-        <v>80100</v>
+        <v>83900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11000</v>
+        <v>11600</v>
       </c>
       <c r="E101" s="3">
-        <v>-8400</v>
+        <v>-8800</v>
       </c>
       <c r="F101" s="3">
-        <v>-11300</v>
+        <v>-11900</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>185500</v>
+        <v>194300</v>
       </c>
       <c r="E102" s="3">
-        <v>-906800</v>
+        <v>-949800</v>
       </c>
       <c r="F102" s="3">
-        <v>1205300</v>
+        <v>1262500</v>
       </c>
       <c r="G102" s="3">
-        <v>83600</v>
+        <v>87600</v>
       </c>
       <c r="H102" s="3">
-        <v>30200</v>
+        <v>31700</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1344700</v>
+        <v>1350600</v>
       </c>
       <c r="E8" s="3">
-        <v>1170200</v>
+        <v>1175200</v>
       </c>
       <c r="F8" s="3">
-        <v>726400</v>
+        <v>729600</v>
       </c>
       <c r="G8" s="3">
-        <v>219500</v>
+        <v>220400</v>
       </c>
       <c r="H8" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="I8" s="3">
         <v>3700</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>55700</v>
+        <v>55900</v>
       </c>
       <c r="E9" s="3">
-        <v>304800</v>
+        <v>306100</v>
       </c>
       <c r="F9" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -784,13 +784,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1289100</v>
+        <v>1294700</v>
       </c>
       <c r="E10" s="3">
-        <v>865400</v>
+        <v>869100</v>
       </c>
       <c r="F10" s="3">
-        <v>722800</v>
+        <v>725900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -832,13 +832,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="E12" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="F12" s="3">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="G12" s="3">
         <v>8000</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>759300</v>
+        <v>762600</v>
       </c>
       <c r="E17" s="3">
-        <v>761100</v>
+        <v>764400</v>
       </c>
       <c r="F17" s="3">
-        <v>358100</v>
+        <v>359700</v>
       </c>
       <c r="G17" s="3">
-        <v>111000</v>
+        <v>111500</v>
       </c>
       <c r="H17" s="3">
-        <v>70900</v>
+        <v>71200</v>
       </c>
       <c r="I17" s="3">
         <v>9900</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>585500</v>
+        <v>588000</v>
       </c>
       <c r="E18" s="3">
-        <v>409100</v>
+        <v>410900</v>
       </c>
       <c r="F18" s="3">
-        <v>368300</v>
+        <v>369900</v>
       </c>
       <c r="G18" s="3">
-        <v>108500</v>
+        <v>108900</v>
       </c>
       <c r="H18" s="3">
-        <v>-35200</v>
+        <v>-35300</v>
       </c>
       <c r="I18" s="3">
         <v>-6200</v>
@@ -1060,7 +1060,7 @@
         <v>10000</v>
       </c>
       <c r="E20" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="F20" s="3">
         <v>-200</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>598800</v>
+        <v>601400</v>
       </c>
       <c r="E21" s="3">
-        <v>404800</v>
+        <v>406600</v>
       </c>
       <c r="F21" s="3">
-        <v>369000</v>
+        <v>370600</v>
       </c>
       <c r="G21" s="3">
-        <v>107200</v>
+        <v>107700</v>
       </c>
       <c r="H21" s="3">
-        <v>-35400</v>
+        <v>-35500</v>
       </c>
       <c r="I21" s="3">
         <v>-6200</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>591800</v>
+        <v>594400</v>
       </c>
       <c r="E23" s="3">
-        <v>403000</v>
+        <v>404700</v>
       </c>
       <c r="F23" s="3">
-        <v>368100</v>
+        <v>369700</v>
       </c>
       <c r="G23" s="3">
-        <v>107000</v>
+        <v>107500</v>
       </c>
       <c r="H23" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="I23" s="3">
         <v>-6200</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>95300</v>
+        <v>95700</v>
       </c>
       <c r="E24" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="F24" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="G24" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>496600</v>
+        <v>498700</v>
       </c>
       <c r="E26" s="3">
-        <v>379000</v>
+        <v>380600</v>
       </c>
       <c r="F26" s="3">
-        <v>329300</v>
+        <v>330700</v>
       </c>
       <c r="G26" s="3">
-        <v>87700</v>
+        <v>88100</v>
       </c>
       <c r="H26" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="I26" s="3">
         <v>-6200</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>496600</v>
+        <v>498700</v>
       </c>
       <c r="E27" s="3">
-        <v>379000</v>
+        <v>380600</v>
       </c>
       <c r="F27" s="3">
-        <v>329300</v>
+        <v>330700</v>
       </c>
       <c r="G27" s="3">
-        <v>87700</v>
+        <v>88100</v>
       </c>
       <c r="H27" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="I27" s="3">
         <v>-6200</v>
@@ -1456,7 +1456,7 @@
         <v>-10000</v>
       </c>
       <c r="E32" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F32" s="3">
         <v>200</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>496600</v>
+        <v>498700</v>
       </c>
       <c r="E33" s="3">
-        <v>379000</v>
+        <v>380600</v>
       </c>
       <c r="F33" s="3">
-        <v>329300</v>
+        <v>330700</v>
       </c>
       <c r="G33" s="3">
-        <v>87700</v>
+        <v>88100</v>
       </c>
       <c r="H33" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="I33" s="3">
         <v>-6200</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>496600</v>
+        <v>498700</v>
       </c>
       <c r="E35" s="3">
-        <v>379000</v>
+        <v>380600</v>
       </c>
       <c r="F35" s="3">
-        <v>329300</v>
+        <v>330700</v>
       </c>
       <c r="G35" s="3">
-        <v>87700</v>
+        <v>88100</v>
       </c>
       <c r="H35" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="I35" s="3">
         <v>-6200</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>435200</v>
+        <v>437100</v>
       </c>
       <c r="E41" s="3">
-        <v>380500</v>
+        <v>382100</v>
       </c>
       <c r="F41" s="3">
-        <v>1039300</v>
+        <v>1043800</v>
       </c>
       <c r="G41" s="3">
-        <v>119500</v>
+        <v>120000</v>
       </c>
       <c r="H41" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>45600</v>
+        <v>45800</v>
       </c>
       <c r="G42" s="3">
-        <v>65400</v>
+        <v>65700</v>
       </c>
       <c r="H42" s="3">
         <v>7500</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1921500</v>
+        <v>1929900</v>
       </c>
       <c r="E43" s="3">
-        <v>1737300</v>
+        <v>1744800</v>
       </c>
       <c r="F43" s="3">
-        <v>1366500</v>
+        <v>1372400</v>
       </c>
       <c r="G43" s="3">
-        <v>779900</v>
+        <v>783300</v>
       </c>
       <c r="H43" s="3">
-        <v>327100</v>
+        <v>328600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1755,10 +1755,10 @@
         <v>1400</v>
       </c>
       <c r="E44" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="F44" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>196300</v>
+        <v>197200</v>
       </c>
       <c r="E45" s="3">
-        <v>66900</v>
+        <v>67100</v>
       </c>
       <c r="F45" s="3">
-        <v>456000</v>
+        <v>458000</v>
       </c>
       <c r="G45" s="3">
-        <v>89100</v>
+        <v>89500</v>
       </c>
       <c r="H45" s="3">
         <v>5300</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2589600</v>
+        <v>2600800</v>
       </c>
       <c r="E46" s="3">
-        <v>2204100</v>
+        <v>2213700</v>
       </c>
       <c r="F46" s="3">
-        <v>2918500</v>
+        <v>2931200</v>
       </c>
       <c r="G46" s="3">
-        <v>1054000</v>
+        <v>1058600</v>
       </c>
       <c r="H46" s="3">
-        <v>371900</v>
+        <v>373500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118900</v>
+        <v>119400</v>
       </c>
       <c r="E47" s="3">
-        <v>207400</v>
+        <v>208300</v>
       </c>
       <c r="F47" s="3">
         <v>9500</v>
       </c>
       <c r="G47" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="H47" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="E48" s="3">
         <v>4000</v>
@@ -1920,7 +1920,7 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46900</v>
+        <v>47100</v>
       </c>
       <c r="E52" s="3">
-        <v>39600</v>
+        <v>39800</v>
       </c>
       <c r="F52" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="G52" s="3">
         <v>4500</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2793200</v>
+        <v>2805300</v>
       </c>
       <c r="E54" s="3">
-        <v>2472500</v>
+        <v>2483200</v>
       </c>
       <c r="F54" s="3">
-        <v>2948100</v>
+        <v>2960900</v>
       </c>
       <c r="G54" s="3">
-        <v>1082700</v>
+        <v>1087400</v>
       </c>
       <c r="H54" s="3">
-        <v>407000</v>
+        <v>408800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159700</v>
+        <v>160400</v>
       </c>
       <c r="E58" s="3">
-        <v>587300</v>
+        <v>589800</v>
       </c>
       <c r="F58" s="3">
-        <v>1213800</v>
+        <v>1219100</v>
       </c>
       <c r="G58" s="3">
-        <v>636400</v>
+        <v>639100</v>
       </c>
       <c r="H58" s="3">
-        <v>237700</v>
+        <v>238800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>433200</v>
+        <v>435100</v>
       </c>
       <c r="E59" s="3">
-        <v>176300</v>
+        <v>177100</v>
       </c>
       <c r="F59" s="3">
-        <v>205500</v>
+        <v>206300</v>
       </c>
       <c r="G59" s="3">
-        <v>52400</v>
+        <v>52700</v>
       </c>
       <c r="H59" s="3">
-        <v>251700</v>
+        <v>252800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>592900</v>
+        <v>595400</v>
       </c>
       <c r="E60" s="3">
-        <v>763500</v>
+        <v>766900</v>
       </c>
       <c r="F60" s="3">
-        <v>1419300</v>
+        <v>1425400</v>
       </c>
       <c r="G60" s="3">
-        <v>688800</v>
+        <v>691800</v>
       </c>
       <c r="H60" s="3">
-        <v>489500</v>
+        <v>491600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,19 +2277,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>355900</v>
+        <v>357400</v>
       </c>
       <c r="E61" s="3">
-        <v>62900</v>
+        <v>63200</v>
       </c>
       <c r="F61" s="3">
-        <v>77600</v>
+        <v>77900</v>
       </c>
       <c r="G61" s="3">
         <v>11600</v>
       </c>
       <c r="H61" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30500</v>
+        <v>30700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>979300</v>
+        <v>983500</v>
       </c>
       <c r="E66" s="3">
-        <v>826400</v>
+        <v>830000</v>
       </c>
       <c r="F66" s="3">
-        <v>1496900</v>
+        <v>1503400</v>
       </c>
       <c r="G66" s="3">
-        <v>700400</v>
+        <v>703400</v>
       </c>
       <c r="H66" s="3">
-        <v>503100</v>
+        <v>505200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>904200</v>
+        <v>908100</v>
       </c>
       <c r="H70" s="3">
-        <v>904200</v>
+        <v>908100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1267300</v>
+        <v>1272800</v>
       </c>
       <c r="E72" s="3">
-        <v>770800</v>
+        <v>774100</v>
       </c>
       <c r="F72" s="3">
-        <v>375400</v>
+        <v>377000</v>
       </c>
       <c r="G72" s="3">
-        <v>-534100</v>
+        <v>-536400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1009100</v>
+        <v>-1013500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1813900</v>
+        <v>1821800</v>
       </c>
       <c r="E76" s="3">
-        <v>1646000</v>
+        <v>1653200</v>
       </c>
       <c r="F76" s="3">
-        <v>1451300</v>
+        <v>1457600</v>
       </c>
       <c r="G76" s="3">
-        <v>-521800</v>
+        <v>-524100</v>
       </c>
       <c r="H76" s="3">
-        <v>-1000200</v>
+        <v>-1004600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>496600</v>
+        <v>498700</v>
       </c>
       <c r="E81" s="3">
-        <v>379000</v>
+        <v>380600</v>
       </c>
       <c r="F81" s="3">
-        <v>329300</v>
+        <v>330700</v>
       </c>
       <c r="G81" s="3">
-        <v>87700</v>
+        <v>88100</v>
       </c>
       <c r="H81" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="I81" s="3">
         <v>-6200</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>837200</v>
+        <v>840800</v>
       </c>
       <c r="E89" s="3">
-        <v>506900</v>
+        <v>509100</v>
       </c>
       <c r="F89" s="3">
-        <v>425600</v>
+        <v>427400</v>
       </c>
       <c r="G89" s="3">
-        <v>120800</v>
+        <v>121300</v>
       </c>
       <c r="H89" s="3">
         <v>-15600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="E91" s="3">
         <v>-21400</v>
@@ -3251,22 +3251,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-141400</v>
+        <v>-142000</v>
       </c>
       <c r="E94" s="3">
-        <v>-424500</v>
+        <v>-426400</v>
       </c>
       <c r="F94" s="3">
-        <v>-672700</v>
+        <v>-675600</v>
       </c>
       <c r="G94" s="3">
-        <v>-547300</v>
+        <v>-549700</v>
       </c>
       <c r="H94" s="3">
-        <v>-283700</v>
+        <v>-284900</v>
       </c>
       <c r="I94" s="3">
-        <v>-79000</v>
+        <v>-79300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-513000</v>
+        <v>-515200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1023400</v>
+        <v>-1027900</v>
       </c>
       <c r="F100" s="3">
-        <v>1521400</v>
+        <v>1528100</v>
       </c>
       <c r="G100" s="3">
-        <v>514100</v>
+        <v>516400</v>
       </c>
       <c r="H100" s="3">
-        <v>330900</v>
+        <v>332400</v>
       </c>
       <c r="I100" s="3">
-        <v>83900</v>
+        <v>84300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>194300</v>
+        <v>195200</v>
       </c>
       <c r="E102" s="3">
-        <v>-949800</v>
+        <v>-953900</v>
       </c>
       <c r="F102" s="3">
-        <v>1262500</v>
+        <v>1267900</v>
       </c>
       <c r="G102" s="3">
-        <v>87600</v>
+        <v>87900</v>
       </c>
       <c r="H102" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1350600</v>
+        <v>575400</v>
       </c>
       <c r="E8" s="3">
-        <v>1175200</v>
+        <v>1379100</v>
       </c>
       <c r="F8" s="3">
-        <v>729600</v>
+        <v>1200100</v>
       </c>
       <c r="G8" s="3">
-        <v>220400</v>
+        <v>745000</v>
       </c>
       <c r="H8" s="3">
-        <v>35900</v>
+        <v>225100</v>
       </c>
       <c r="I8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>36700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -744,24 +747,27 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>55900</v>
+        <v>100600</v>
       </c>
       <c r="E9" s="3">
-        <v>306100</v>
+        <v>57100</v>
       </c>
       <c r="F9" s="3">
+        <v>312600</v>
+      </c>
+      <c r="G9" s="3">
         <v>3700</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,23 +783,26 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1294700</v>
+        <v>474700</v>
       </c>
       <c r="E10" s="3">
-        <v>869100</v>
+        <v>1322000</v>
       </c>
       <c r="F10" s="3">
-        <v>725900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>887500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>741300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>31300</v>
+        <v>26600</v>
       </c>
       <c r="E12" s="3">
-        <v>30500</v>
+        <v>31900</v>
       </c>
       <c r="F12" s="3">
-        <v>23400</v>
+        <v>31100</v>
       </c>
       <c r="G12" s="3">
-        <v>8000</v>
+        <v>23900</v>
       </c>
       <c r="H12" s="3">
-        <v>5700</v>
+        <v>8200</v>
       </c>
       <c r="I12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,31 +995,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>762600</v>
+        <v>440300</v>
       </c>
       <c r="E17" s="3">
-        <v>764400</v>
+        <v>778700</v>
       </c>
       <c r="F17" s="3">
-        <v>359700</v>
+        <v>780500</v>
       </c>
       <c r="G17" s="3">
-        <v>111500</v>
+        <v>367300</v>
       </c>
       <c r="H17" s="3">
-        <v>71200</v>
+        <v>113900</v>
       </c>
       <c r="I17" s="3">
-        <v>9900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>72700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1002,32 +1028,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>588000</v>
+        <v>135000</v>
       </c>
       <c r="E18" s="3">
-        <v>410900</v>
+        <v>600400</v>
       </c>
       <c r="F18" s="3">
-        <v>369900</v>
+        <v>419600</v>
       </c>
       <c r="G18" s="3">
-        <v>108900</v>
+        <v>377700</v>
       </c>
       <c r="H18" s="3">
-        <v>-35300</v>
+        <v>111200</v>
       </c>
       <c r="I18" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-36100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-6400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,31 +1083,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>59600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6200</v>
+        <v>10300</v>
       </c>
       <c r="F20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1083,32 +1116,35 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>601400</v>
+        <v>196300</v>
       </c>
       <c r="E21" s="3">
-        <v>406600</v>
+        <v>614100</v>
       </c>
       <c r="F21" s="3">
-        <v>370600</v>
+        <v>415200</v>
       </c>
       <c r="G21" s="3">
-        <v>107700</v>
+        <v>378400</v>
       </c>
       <c r="H21" s="3">
-        <v>-35500</v>
+        <v>110000</v>
       </c>
       <c r="I21" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-36300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1116,18 +1152,21 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3700</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,38 +1182,41 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>594400</v>
+        <v>190500</v>
       </c>
       <c r="E23" s="3">
-        <v>404700</v>
+        <v>607000</v>
       </c>
       <c r="F23" s="3">
-        <v>369700</v>
+        <v>413300</v>
       </c>
       <c r="G23" s="3">
-        <v>107500</v>
+        <v>377500</v>
       </c>
       <c r="H23" s="3">
-        <v>-35600</v>
+        <v>109800</v>
       </c>
       <c r="I23" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-36400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-6400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1182,32 +1224,35 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>95700</v>
+        <v>40900</v>
       </c>
       <c r="E24" s="3">
-        <v>24100</v>
+        <v>97700</v>
       </c>
       <c r="F24" s="3">
-        <v>39000</v>
+        <v>24600</v>
       </c>
       <c r="G24" s="3">
-        <v>19400</v>
+        <v>39900</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,32 +1296,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>498700</v>
+        <v>149600</v>
       </c>
       <c r="E26" s="3">
-        <v>380600</v>
+        <v>509300</v>
       </c>
       <c r="F26" s="3">
-        <v>330700</v>
+        <v>388700</v>
       </c>
       <c r="G26" s="3">
-        <v>88100</v>
+        <v>337700</v>
       </c>
       <c r="H26" s="3">
-        <v>-35600</v>
+        <v>90000</v>
       </c>
       <c r="I26" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-36400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-6400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1281,32 +1332,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>498700</v>
+        <v>149600</v>
       </c>
       <c r="E27" s="3">
-        <v>380600</v>
+        <v>509300</v>
       </c>
       <c r="F27" s="3">
-        <v>330700</v>
+        <v>388700</v>
       </c>
       <c r="G27" s="3">
-        <v>88100</v>
+        <v>337700</v>
       </c>
       <c r="H27" s="3">
-        <v>-35600</v>
+        <v>90000</v>
       </c>
       <c r="I27" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-36400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-6400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,32 +1512,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10000</v>
+        <v>-59600</v>
       </c>
       <c r="E32" s="3">
-        <v>6200</v>
+        <v>-10300</v>
       </c>
       <c r="F32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1479,32 +1548,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>498700</v>
+        <v>149600</v>
       </c>
       <c r="E33" s="3">
-        <v>380600</v>
+        <v>509300</v>
       </c>
       <c r="F33" s="3">
-        <v>330700</v>
+        <v>388700</v>
       </c>
       <c r="G33" s="3">
-        <v>88100</v>
+        <v>337700</v>
       </c>
       <c r="H33" s="3">
-        <v>-35600</v>
+        <v>90000</v>
       </c>
       <c r="I33" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-36400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-6400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,32 +1620,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>498700</v>
+        <v>149600</v>
       </c>
       <c r="E35" s="3">
-        <v>380600</v>
+        <v>509300</v>
       </c>
       <c r="F35" s="3">
-        <v>330700</v>
+        <v>388700</v>
       </c>
       <c r="G35" s="3">
-        <v>88100</v>
+        <v>337700</v>
       </c>
       <c r="H35" s="3">
-        <v>-35600</v>
+        <v>90000</v>
       </c>
       <c r="I35" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-36400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-6400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1578,47 +1656,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>437100</v>
+        <v>239900</v>
       </c>
       <c r="E41" s="3">
-        <v>382100</v>
+        <v>446300</v>
       </c>
       <c r="F41" s="3">
-        <v>1043800</v>
+        <v>390200</v>
       </c>
       <c r="G41" s="3">
-        <v>120000</v>
+        <v>1065900</v>
       </c>
       <c r="H41" s="3">
-        <v>32100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>122600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>32800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,29 +1765,32 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35300</v>
+        <v>786700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>36100</v>
       </c>
       <c r="F42" s="3">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>65700</v>
+        <v>46800</v>
       </c>
       <c r="H42" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>67100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>7600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1929900</v>
+        <v>754600</v>
       </c>
       <c r="E43" s="3">
-        <v>1744800</v>
+        <v>1970700</v>
       </c>
       <c r="F43" s="3">
-        <v>1372400</v>
+        <v>1781700</v>
       </c>
       <c r="G43" s="3">
-        <v>783300</v>
+        <v>1401400</v>
       </c>
       <c r="H43" s="3">
-        <v>328600</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>799900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>335500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,23 +1837,26 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
-        <v>19600</v>
-      </c>
       <c r="F44" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>20000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>11300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1775,32 +1870,35 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>197200</v>
+        <v>28400</v>
       </c>
       <c r="E45" s="3">
-        <v>67100</v>
+        <v>201400</v>
       </c>
       <c r="F45" s="3">
-        <v>458000</v>
+        <v>68600</v>
       </c>
       <c r="G45" s="3">
-        <v>89500</v>
+        <v>467700</v>
       </c>
       <c r="H45" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>91400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2600800</v>
+        <v>1823800</v>
       </c>
       <c r="E46" s="3">
-        <v>2213700</v>
+        <v>2655800</v>
       </c>
       <c r="F46" s="3">
-        <v>2931200</v>
+        <v>2260500</v>
       </c>
       <c r="G46" s="3">
-        <v>1058600</v>
+        <v>2993100</v>
       </c>
       <c r="H46" s="3">
-        <v>373500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>1081000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>381400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>119400</v>
+        <v>95300</v>
       </c>
       <c r="E47" s="3">
-        <v>208300</v>
+        <v>121900</v>
       </c>
       <c r="F47" s="3">
-        <v>9500</v>
+        <v>212700</v>
       </c>
       <c r="G47" s="3">
-        <v>23500</v>
+        <v>9700</v>
       </c>
       <c r="H47" s="3">
-        <v>27400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>28000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,30 +1981,33 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36900</v>
+        <v>80200</v>
       </c>
       <c r="E48" s="3">
-        <v>4000</v>
+        <v>37700</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>800</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,29 +2017,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="3">
-        <v>17400</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47100</v>
+        <v>89600</v>
       </c>
       <c r="E52" s="3">
-        <v>39800</v>
+        <v>48000</v>
       </c>
       <c r="F52" s="3">
-        <v>18600</v>
+        <v>40600</v>
       </c>
       <c r="G52" s="3">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="H52" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>7800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2805300</v>
+        <v>2090200</v>
       </c>
       <c r="E54" s="3">
-        <v>2483200</v>
+        <v>2864600</v>
       </c>
       <c r="F54" s="3">
-        <v>2960900</v>
+        <v>2535700</v>
       </c>
       <c r="G54" s="3">
-        <v>1087400</v>
+        <v>3023500</v>
       </c>
       <c r="H54" s="3">
-        <v>408800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>1110400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>417400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,8 +2268,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2171,29 +2301,32 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160400</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>589800</v>
+        <v>163700</v>
       </c>
       <c r="F58" s="3">
-        <v>1219100</v>
+        <v>602300</v>
       </c>
       <c r="G58" s="3">
-        <v>639100</v>
+        <v>1244900</v>
       </c>
       <c r="H58" s="3">
-        <v>238800</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>652600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>243800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2204,29 +2337,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>435100</v>
+        <v>73700</v>
       </c>
       <c r="E59" s="3">
-        <v>177100</v>
+        <v>444300</v>
       </c>
       <c r="F59" s="3">
-        <v>206300</v>
+        <v>180800</v>
       </c>
       <c r="G59" s="3">
-        <v>52700</v>
+        <v>210700</v>
       </c>
       <c r="H59" s="3">
-        <v>252800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>53800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>258200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>595400</v>
+        <v>73700</v>
       </c>
       <c r="E60" s="3">
-        <v>766900</v>
+        <v>608000</v>
       </c>
       <c r="F60" s="3">
-        <v>1425400</v>
+        <v>783100</v>
       </c>
       <c r="G60" s="3">
-        <v>691800</v>
+        <v>1455600</v>
       </c>
       <c r="H60" s="3">
-        <v>491600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>706400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>502000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,29 +2409,32 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>357400</v>
+        <v>144200</v>
       </c>
       <c r="E61" s="3">
-        <v>63200</v>
+        <v>365000</v>
       </c>
       <c r="F61" s="3">
-        <v>77900</v>
+        <v>64500</v>
       </c>
       <c r="G61" s="3">
-        <v>11600</v>
+        <v>79600</v>
       </c>
       <c r="H61" s="3">
-        <v>13700</v>
+        <v>11900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2303,17 +2445,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30700</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>31300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2330,15 +2475,18 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>983500</v>
+        <v>233700</v>
       </c>
       <c r="E66" s="3">
-        <v>830000</v>
+        <v>1004300</v>
       </c>
       <c r="F66" s="3">
-        <v>1503400</v>
+        <v>847600</v>
       </c>
       <c r="G66" s="3">
-        <v>703400</v>
+        <v>1535100</v>
       </c>
       <c r="H66" s="3">
-        <v>505200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>718300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>515900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2565,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>908100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>908100</v>
+        <v>927300</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>927300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1272800</v>
+        <v>1297300</v>
       </c>
       <c r="E72" s="3">
-        <v>774100</v>
+        <v>1299800</v>
       </c>
       <c r="F72" s="3">
-        <v>377000</v>
+        <v>790500</v>
       </c>
       <c r="G72" s="3">
-        <v>-536400</v>
+        <v>385000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1013500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-547700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1034900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1821800</v>
+        <v>1856500</v>
       </c>
       <c r="E76" s="3">
-        <v>1653200</v>
+        <v>1860300</v>
       </c>
       <c r="F76" s="3">
-        <v>1457600</v>
+        <v>1688100</v>
       </c>
       <c r="G76" s="3">
-        <v>-524100</v>
+        <v>1488400</v>
       </c>
       <c r="H76" s="3">
-        <v>-1004600</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-535200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1025800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,70 +3001,76 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>498700</v>
+        <v>149600</v>
       </c>
       <c r="E81" s="3">
-        <v>380600</v>
+        <v>509300</v>
       </c>
       <c r="F81" s="3">
-        <v>330700</v>
+        <v>388700</v>
       </c>
       <c r="G81" s="3">
-        <v>88100</v>
+        <v>337700</v>
       </c>
       <c r="H81" s="3">
-        <v>-35600</v>
+        <v>90000</v>
       </c>
       <c r="I81" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-36400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-6400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,31 +3097,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="F83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,32 +3310,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>840800</v>
+        <v>385600</v>
       </c>
       <c r="E89" s="3">
-        <v>509100</v>
+        <v>858600</v>
       </c>
       <c r="F89" s="3">
-        <v>427400</v>
+        <v>519900</v>
       </c>
       <c r="G89" s="3">
-        <v>121300</v>
+        <v>436500</v>
       </c>
       <c r="H89" s="3">
-        <v>-15600</v>
+        <v>123900</v>
       </c>
       <c r="I89" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-16000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,31 +3365,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11700</v>
+        <v>-34600</v>
       </c>
       <c r="E91" s="3">
-        <v>-21400</v>
+        <v>-11900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1700</v>
+        <v>-21900</v>
       </c>
       <c r="G91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,32 +3470,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-142000</v>
+        <v>-510100</v>
       </c>
       <c r="E94" s="3">
-        <v>-426400</v>
+        <v>-145000</v>
       </c>
       <c r="F94" s="3">
-        <v>-675600</v>
+        <v>-435400</v>
       </c>
       <c r="G94" s="3">
-        <v>-549700</v>
+        <v>-689900</v>
       </c>
       <c r="H94" s="3">
-        <v>-284900</v>
+        <v>-561300</v>
       </c>
       <c r="I94" s="3">
-        <v>-79300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-291000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-81000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,32 +3666,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-515200</v>
+        <v>-248300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1027900</v>
+        <v>-526100</v>
       </c>
       <c r="F100" s="3">
-        <v>1528100</v>
+        <v>-1049600</v>
       </c>
       <c r="G100" s="3">
-        <v>516400</v>
+        <v>1560400</v>
       </c>
       <c r="H100" s="3">
-        <v>332400</v>
+        <v>527300</v>
       </c>
       <c r="I100" s="3">
-        <v>84300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>339400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>86100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3457,23 +3702,26 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11600</v>
+        <v>-8800</v>
       </c>
       <c r="E101" s="3">
-        <v>-8800</v>
+        <v>11900</v>
       </c>
       <c r="F101" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>-9000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-12200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3490,40 +3738,46 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>195200</v>
+        <v>-381500</v>
       </c>
       <c r="E102" s="3">
-        <v>-953900</v>
+        <v>199300</v>
       </c>
       <c r="F102" s="3">
-        <v>1267900</v>
+        <v>-974100</v>
       </c>
       <c r="G102" s="3">
-        <v>87900</v>
+        <v>1294800</v>
       </c>
       <c r="H102" s="3">
-        <v>31800</v>
+        <v>89800</v>
       </c>
       <c r="I102" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>575400</v>
+        <v>567900</v>
       </c>
       <c r="E8" s="3">
-        <v>1379100</v>
+        <v>1361200</v>
       </c>
       <c r="F8" s="3">
-        <v>1200100</v>
+        <v>1184500</v>
       </c>
       <c r="G8" s="3">
-        <v>745000</v>
+        <v>735300</v>
       </c>
       <c r="H8" s="3">
-        <v>225100</v>
+        <v>222200</v>
       </c>
       <c r="I8" s="3">
-        <v>36700</v>
+        <v>36200</v>
       </c>
       <c r="J8" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100600</v>
+        <v>99300</v>
       </c>
       <c r="E9" s="3">
-        <v>57100</v>
+        <v>56400</v>
       </c>
       <c r="F9" s="3">
-        <v>312600</v>
+        <v>308500</v>
       </c>
       <c r="G9" s="3">
         <v>3700</v>
@@ -793,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>474700</v>
+        <v>468500</v>
       </c>
       <c r="E10" s="3">
-        <v>1322000</v>
+        <v>1304800</v>
       </c>
       <c r="F10" s="3">
-        <v>887500</v>
+        <v>875900</v>
       </c>
       <c r="G10" s="3">
-        <v>741300</v>
+        <v>731600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="E12" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="F12" s="3">
-        <v>31100</v>
+        <v>30700</v>
       </c>
       <c r="G12" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="H12" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>440300</v>
+        <v>434600</v>
       </c>
       <c r="E17" s="3">
-        <v>778700</v>
+        <v>768600</v>
       </c>
       <c r="F17" s="3">
-        <v>780500</v>
+        <v>770400</v>
       </c>
       <c r="G17" s="3">
-        <v>367300</v>
+        <v>362500</v>
       </c>
       <c r="H17" s="3">
-        <v>113900</v>
+        <v>112400</v>
       </c>
       <c r="I17" s="3">
-        <v>72700</v>
+        <v>71800</v>
       </c>
       <c r="J17" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>135000</v>
+        <v>133300</v>
       </c>
       <c r="E18" s="3">
-        <v>600400</v>
+        <v>592600</v>
       </c>
       <c r="F18" s="3">
-        <v>419600</v>
+        <v>414100</v>
       </c>
       <c r="G18" s="3">
-        <v>377700</v>
+        <v>372800</v>
       </c>
       <c r="H18" s="3">
-        <v>111200</v>
+        <v>109800</v>
       </c>
       <c r="I18" s="3">
-        <v>-36100</v>
+        <v>-35600</v>
       </c>
       <c r="J18" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>59600</v>
+        <v>58900</v>
       </c>
       <c r="E20" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="G20" s="3">
         <v>-200</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>196300</v>
+        <v>193800</v>
       </c>
       <c r="E21" s="3">
-        <v>614100</v>
+        <v>606200</v>
       </c>
       <c r="F21" s="3">
-        <v>415200</v>
+        <v>409800</v>
       </c>
       <c r="G21" s="3">
-        <v>378400</v>
+        <v>373500</v>
       </c>
       <c r="H21" s="3">
-        <v>110000</v>
+        <v>108600</v>
       </c>
       <c r="I21" s="3">
-        <v>-36300</v>
+        <v>-35800</v>
       </c>
       <c r="J21" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>190500</v>
+        <v>188000</v>
       </c>
       <c r="E23" s="3">
-        <v>607000</v>
+        <v>599100</v>
       </c>
       <c r="F23" s="3">
-        <v>413300</v>
+        <v>407900</v>
       </c>
       <c r="G23" s="3">
-        <v>377500</v>
+        <v>372600</v>
       </c>
       <c r="H23" s="3">
-        <v>109800</v>
+        <v>108300</v>
       </c>
       <c r="I23" s="3">
-        <v>-36400</v>
+        <v>-35900</v>
       </c>
       <c r="J23" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40900</v>
+        <v>40300</v>
       </c>
       <c r="E24" s="3">
-        <v>97700</v>
+        <v>96400</v>
       </c>
       <c r="F24" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="G24" s="3">
-        <v>39900</v>
+        <v>39300</v>
       </c>
       <c r="H24" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>149600</v>
+        <v>147600</v>
       </c>
       <c r="E26" s="3">
-        <v>509300</v>
+        <v>502600</v>
       </c>
       <c r="F26" s="3">
-        <v>388700</v>
+        <v>383600</v>
       </c>
       <c r="G26" s="3">
-        <v>337700</v>
+        <v>333300</v>
       </c>
       <c r="H26" s="3">
-        <v>90000</v>
+        <v>88800</v>
       </c>
       <c r="I26" s="3">
-        <v>-36400</v>
+        <v>-35900</v>
       </c>
       <c r="J26" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>149600</v>
+        <v>147600</v>
       </c>
       <c r="E27" s="3">
-        <v>509300</v>
+        <v>502600</v>
       </c>
       <c r="F27" s="3">
-        <v>388700</v>
+        <v>383600</v>
       </c>
       <c r="G27" s="3">
-        <v>337700</v>
+        <v>333300</v>
       </c>
       <c r="H27" s="3">
-        <v>90000</v>
+        <v>88800</v>
       </c>
       <c r="I27" s="3">
-        <v>-36400</v>
+        <v>-35900</v>
       </c>
       <c r="J27" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-59600</v>
+        <v>-58900</v>
       </c>
       <c r="E32" s="3">
-        <v>-10300</v>
+        <v>-10100</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G32" s="3">
         <v>200</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>149600</v>
+        <v>147600</v>
       </c>
       <c r="E33" s="3">
-        <v>509300</v>
+        <v>502600</v>
       </c>
       <c r="F33" s="3">
-        <v>388700</v>
+        <v>383600</v>
       </c>
       <c r="G33" s="3">
-        <v>337700</v>
+        <v>333300</v>
       </c>
       <c r="H33" s="3">
-        <v>90000</v>
+        <v>88800</v>
       </c>
       <c r="I33" s="3">
-        <v>-36400</v>
+        <v>-35900</v>
       </c>
       <c r="J33" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>149600</v>
+        <v>147600</v>
       </c>
       <c r="E35" s="3">
-        <v>509300</v>
+        <v>502600</v>
       </c>
       <c r="F35" s="3">
-        <v>388700</v>
+        <v>383600</v>
       </c>
       <c r="G35" s="3">
-        <v>337700</v>
+        <v>333300</v>
       </c>
       <c r="H35" s="3">
-        <v>90000</v>
+        <v>88800</v>
       </c>
       <c r="I35" s="3">
-        <v>-36400</v>
+        <v>-35900</v>
       </c>
       <c r="J35" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>239900</v>
+        <v>236800</v>
       </c>
       <c r="E41" s="3">
-        <v>446300</v>
+        <v>440500</v>
       </c>
       <c r="F41" s="3">
-        <v>390200</v>
+        <v>385100</v>
       </c>
       <c r="G41" s="3">
-        <v>1065900</v>
+        <v>1052000</v>
       </c>
       <c r="H41" s="3">
-        <v>122600</v>
+        <v>121000</v>
       </c>
       <c r="I41" s="3">
-        <v>32800</v>
+        <v>32400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>786700</v>
+        <v>776400</v>
       </c>
       <c r="E42" s="3">
-        <v>36100</v>
+        <v>35600</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>46800</v>
+        <v>46200</v>
       </c>
       <c r="H42" s="3">
-        <v>67100</v>
+        <v>66200</v>
       </c>
       <c r="I42" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>754600</v>
+        <v>744700</v>
       </c>
       <c r="E43" s="3">
-        <v>1970700</v>
+        <v>1945000</v>
       </c>
       <c r="F43" s="3">
-        <v>1781700</v>
+        <v>1758500</v>
       </c>
       <c r="G43" s="3">
-        <v>1401400</v>
+        <v>1383200</v>
       </c>
       <c r="H43" s="3">
-        <v>799900</v>
+        <v>789500</v>
       </c>
       <c r="I43" s="3">
-        <v>335500</v>
+        <v>331100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="E44" s="3">
         <v>1400</v>
       </c>
       <c r="F44" s="3">
-        <v>20000</v>
+        <v>19700</v>
       </c>
       <c r="G44" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28400</v>
+        <v>28000</v>
       </c>
       <c r="E45" s="3">
-        <v>201400</v>
+        <v>198700</v>
       </c>
       <c r="F45" s="3">
-        <v>68600</v>
+        <v>67700</v>
       </c>
       <c r="G45" s="3">
-        <v>467700</v>
+        <v>461600</v>
       </c>
       <c r="H45" s="3">
-        <v>91400</v>
+        <v>90200</v>
       </c>
       <c r="I45" s="3">
         <v>5400</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1823800</v>
+        <v>1800100</v>
       </c>
       <c r="E46" s="3">
-        <v>2655800</v>
+        <v>2621300</v>
       </c>
       <c r="F46" s="3">
-        <v>2260500</v>
+        <v>2231000</v>
       </c>
       <c r="G46" s="3">
-        <v>2993100</v>
+        <v>2954200</v>
       </c>
       <c r="H46" s="3">
-        <v>1081000</v>
+        <v>1066900</v>
       </c>
       <c r="I46" s="3">
-        <v>381400</v>
+        <v>376400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95300</v>
+        <v>94100</v>
       </c>
       <c r="E47" s="3">
-        <v>121900</v>
+        <v>120400</v>
       </c>
       <c r="F47" s="3">
-        <v>212700</v>
+        <v>210000</v>
       </c>
       <c r="G47" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="H47" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="I47" s="3">
-        <v>28000</v>
+        <v>27600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,13 +1991,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80200</v>
+        <v>79100</v>
       </c>
       <c r="E48" s="3">
-        <v>37700</v>
+        <v>37200</v>
       </c>
       <c r="F48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2030,10 +2030,10 @@
         <v>1300</v>
       </c>
       <c r="E49" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>17800</v>
+        <v>17500</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89600</v>
+        <v>88400</v>
       </c>
       <c r="E52" s="3">
-        <v>48000</v>
+        <v>47400</v>
       </c>
       <c r="F52" s="3">
-        <v>40600</v>
+        <v>40100</v>
       </c>
       <c r="G52" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="H52" s="3">
         <v>4600</v>
       </c>
       <c r="I52" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2090200</v>
+        <v>2063000</v>
       </c>
       <c r="E54" s="3">
-        <v>2864600</v>
+        <v>2827300</v>
       </c>
       <c r="F54" s="3">
-        <v>2535700</v>
+        <v>2502700</v>
       </c>
       <c r="G54" s="3">
-        <v>3023500</v>
+        <v>2984200</v>
       </c>
       <c r="H54" s="3">
-        <v>1110400</v>
+        <v>1096000</v>
       </c>
       <c r="I54" s="3">
-        <v>417400</v>
+        <v>412000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2314,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>163700</v>
+        <v>161600</v>
       </c>
       <c r="F58" s="3">
-        <v>602300</v>
+        <v>594400</v>
       </c>
       <c r="G58" s="3">
-        <v>1244900</v>
+        <v>1228700</v>
       </c>
       <c r="H58" s="3">
-        <v>652600</v>
+        <v>644100</v>
       </c>
       <c r="I58" s="3">
-        <v>243800</v>
+        <v>240700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>73700</v>
+        <v>72800</v>
       </c>
       <c r="E59" s="3">
-        <v>444300</v>
+        <v>438500</v>
       </c>
       <c r="F59" s="3">
-        <v>180800</v>
+        <v>178500</v>
       </c>
       <c r="G59" s="3">
-        <v>210700</v>
+        <v>208000</v>
       </c>
       <c r="H59" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="I59" s="3">
-        <v>258200</v>
+        <v>254800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73700</v>
+        <v>72800</v>
       </c>
       <c r="E60" s="3">
-        <v>608000</v>
+        <v>600100</v>
       </c>
       <c r="F60" s="3">
-        <v>783100</v>
+        <v>772900</v>
       </c>
       <c r="G60" s="3">
-        <v>1455600</v>
+        <v>1436600</v>
       </c>
       <c r="H60" s="3">
-        <v>706400</v>
+        <v>697200</v>
       </c>
       <c r="I60" s="3">
-        <v>502000</v>
+        <v>495400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>144200</v>
+        <v>142300</v>
       </c>
       <c r="E61" s="3">
-        <v>365000</v>
+        <v>360200</v>
       </c>
       <c r="F61" s="3">
-        <v>64500</v>
+        <v>63700</v>
       </c>
       <c r="G61" s="3">
-        <v>79600</v>
+        <v>78500</v>
       </c>
       <c r="H61" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="I61" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="E62" s="3">
-        <v>31300</v>
+        <v>30900</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>233700</v>
+        <v>230700</v>
       </c>
       <c r="E66" s="3">
-        <v>1004300</v>
+        <v>991300</v>
       </c>
       <c r="F66" s="3">
-        <v>847600</v>
+        <v>836500</v>
       </c>
       <c r="G66" s="3">
-        <v>1535100</v>
+        <v>1515200</v>
       </c>
       <c r="H66" s="3">
-        <v>718300</v>
+        <v>708900</v>
       </c>
       <c r="I66" s="3">
-        <v>515900</v>
+        <v>509200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>927300</v>
+        <v>915300</v>
       </c>
       <c r="I70" s="3">
-        <v>927300</v>
+        <v>915300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1297300</v>
+        <v>1280400</v>
       </c>
       <c r="E72" s="3">
-        <v>1299800</v>
+        <v>1282800</v>
       </c>
       <c r="F72" s="3">
-        <v>790500</v>
+        <v>780200</v>
       </c>
       <c r="G72" s="3">
-        <v>385000</v>
+        <v>380000</v>
       </c>
       <c r="H72" s="3">
-        <v>-547700</v>
+        <v>-540600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1034900</v>
+        <v>-1021500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1856500</v>
+        <v>1832300</v>
       </c>
       <c r="E76" s="3">
-        <v>1860300</v>
+        <v>1836100</v>
       </c>
       <c r="F76" s="3">
-        <v>1688100</v>
+        <v>1666200</v>
       </c>
       <c r="G76" s="3">
-        <v>1488400</v>
+        <v>1469000</v>
       </c>
       <c r="H76" s="3">
-        <v>-535200</v>
+        <v>-528300</v>
       </c>
       <c r="I76" s="3">
-        <v>-1025800</v>
+        <v>-1012500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>149600</v>
+        <v>147600</v>
       </c>
       <c r="E81" s="3">
-        <v>509300</v>
+        <v>502600</v>
       </c>
       <c r="F81" s="3">
-        <v>388700</v>
+        <v>383600</v>
       </c>
       <c r="G81" s="3">
-        <v>337700</v>
+        <v>333300</v>
       </c>
       <c r="H81" s="3">
-        <v>90000</v>
+        <v>88800</v>
       </c>
       <c r="I81" s="3">
-        <v>-36400</v>
+        <v>-35900</v>
       </c>
       <c r="J81" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3107,7 +3107,7 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>385600</v>
+        <v>380600</v>
       </c>
       <c r="E89" s="3">
-        <v>858600</v>
+        <v>847400</v>
       </c>
       <c r="F89" s="3">
-        <v>519900</v>
+        <v>513100</v>
       </c>
       <c r="G89" s="3">
-        <v>436500</v>
+        <v>430800</v>
       </c>
       <c r="H89" s="3">
-        <v>123900</v>
+        <v>122300</v>
       </c>
       <c r="I89" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="J89" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34600</v>
+        <v>-34200</v>
       </c>
       <c r="E91" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="F91" s="3">
-        <v>-21900</v>
+        <v>-21600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-510100</v>
+        <v>-503500</v>
       </c>
       <c r="E94" s="3">
-        <v>-145000</v>
+        <v>-143100</v>
       </c>
       <c r="F94" s="3">
-        <v>-435400</v>
+        <v>-429700</v>
       </c>
       <c r="G94" s="3">
-        <v>-689900</v>
+        <v>-680900</v>
       </c>
       <c r="H94" s="3">
-        <v>-561300</v>
+        <v>-554000</v>
       </c>
       <c r="I94" s="3">
-        <v>-291000</v>
+        <v>-287200</v>
       </c>
       <c r="J94" s="3">
-        <v>-81000</v>
+        <v>-80000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-248300</v>
+        <v>-245000</v>
       </c>
       <c r="E100" s="3">
-        <v>-526100</v>
+        <v>-519300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1049600</v>
+        <v>-1036000</v>
       </c>
       <c r="G100" s="3">
-        <v>1560400</v>
+        <v>1540100</v>
       </c>
       <c r="H100" s="3">
-        <v>527300</v>
+        <v>520400</v>
       </c>
       <c r="I100" s="3">
-        <v>339400</v>
+        <v>335000</v>
       </c>
       <c r="J100" s="3">
-        <v>86100</v>
+        <v>85000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="E101" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="F101" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="G101" s="3">
-        <v>-12200</v>
+        <v>-12000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-381500</v>
+        <v>-376600</v>
       </c>
       <c r="E102" s="3">
-        <v>199300</v>
+        <v>196700</v>
       </c>
       <c r="F102" s="3">
-        <v>-974100</v>
+        <v>-961400</v>
       </c>
       <c r="G102" s="3">
-        <v>1294800</v>
+        <v>1277900</v>
       </c>
       <c r="H102" s="3">
-        <v>89800</v>
+        <v>88600</v>
       </c>
       <c r="I102" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>567900</v>
+        <v>577400</v>
       </c>
       <c r="E8" s="3">
-        <v>1361200</v>
+        <v>1384000</v>
       </c>
       <c r="F8" s="3">
-        <v>1184500</v>
+        <v>1204300</v>
       </c>
       <c r="G8" s="3">
-        <v>735300</v>
+        <v>747600</v>
       </c>
       <c r="H8" s="3">
-        <v>222200</v>
+        <v>225900</v>
       </c>
       <c r="I8" s="3">
-        <v>36200</v>
+        <v>36800</v>
       </c>
       <c r="J8" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>99300</v>
+        <v>101000</v>
       </c>
       <c r="E9" s="3">
-        <v>56400</v>
+        <v>57300</v>
       </c>
       <c r="F9" s="3">
-        <v>308500</v>
+        <v>313700</v>
       </c>
       <c r="G9" s="3">
         <v>3700</v>
@@ -793,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>468500</v>
+        <v>476400</v>
       </c>
       <c r="E10" s="3">
-        <v>1304800</v>
+        <v>1326700</v>
       </c>
       <c r="F10" s="3">
-        <v>875900</v>
+        <v>890600</v>
       </c>
       <c r="G10" s="3">
-        <v>731600</v>
+        <v>743900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26300</v>
+        <v>26700</v>
       </c>
       <c r="E12" s="3">
-        <v>31500</v>
+        <v>32100</v>
       </c>
       <c r="F12" s="3">
-        <v>30700</v>
+        <v>31200</v>
       </c>
       <c r="G12" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="H12" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="I12" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>434600</v>
+        <v>441900</v>
       </c>
       <c r="E17" s="3">
-        <v>768600</v>
+        <v>781400</v>
       </c>
       <c r="F17" s="3">
-        <v>770400</v>
+        <v>783300</v>
       </c>
       <c r="G17" s="3">
-        <v>362500</v>
+        <v>368600</v>
       </c>
       <c r="H17" s="3">
-        <v>112400</v>
+        <v>114300</v>
       </c>
       <c r="I17" s="3">
-        <v>71800</v>
+        <v>73000</v>
       </c>
       <c r="J17" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>133300</v>
+        <v>135500</v>
       </c>
       <c r="E18" s="3">
-        <v>592600</v>
+        <v>602600</v>
       </c>
       <c r="F18" s="3">
-        <v>414100</v>
+        <v>421000</v>
       </c>
       <c r="G18" s="3">
-        <v>372800</v>
+        <v>379100</v>
       </c>
       <c r="H18" s="3">
-        <v>109800</v>
+        <v>111600</v>
       </c>
       <c r="I18" s="3">
-        <v>-35600</v>
+        <v>-36200</v>
       </c>
       <c r="J18" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58900</v>
+        <v>59900</v>
       </c>
       <c r="E20" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="F20" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
         <v>-200</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>193800</v>
+        <v>197000</v>
       </c>
       <c r="E21" s="3">
-        <v>606200</v>
+        <v>616300</v>
       </c>
       <c r="F21" s="3">
-        <v>409800</v>
+        <v>416600</v>
       </c>
       <c r="G21" s="3">
-        <v>373500</v>
+        <v>379800</v>
       </c>
       <c r="H21" s="3">
-        <v>108600</v>
+        <v>110400</v>
       </c>
       <c r="I21" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="J21" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>188000</v>
+        <v>191100</v>
       </c>
       <c r="E23" s="3">
-        <v>599100</v>
+        <v>609100</v>
       </c>
       <c r="F23" s="3">
-        <v>407900</v>
+        <v>414700</v>
       </c>
       <c r="G23" s="3">
-        <v>372600</v>
+        <v>378900</v>
       </c>
       <c r="H23" s="3">
-        <v>108300</v>
+        <v>110100</v>
       </c>
       <c r="I23" s="3">
-        <v>-35900</v>
+        <v>-36500</v>
       </c>
       <c r="J23" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40300</v>
+        <v>41000</v>
       </c>
       <c r="E24" s="3">
-        <v>96400</v>
+        <v>98000</v>
       </c>
       <c r="F24" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="G24" s="3">
-        <v>39300</v>
+        <v>40000</v>
       </c>
       <c r="H24" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>147600</v>
+        <v>150100</v>
       </c>
       <c r="E26" s="3">
-        <v>502600</v>
+        <v>511100</v>
       </c>
       <c r="F26" s="3">
-        <v>383600</v>
+        <v>390000</v>
       </c>
       <c r="G26" s="3">
-        <v>333300</v>
+        <v>338900</v>
       </c>
       <c r="H26" s="3">
-        <v>88800</v>
+        <v>90300</v>
       </c>
       <c r="I26" s="3">
-        <v>-35900</v>
+        <v>-36500</v>
       </c>
       <c r="J26" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>147600</v>
+        <v>150100</v>
       </c>
       <c r="E27" s="3">
-        <v>502600</v>
+        <v>511100</v>
       </c>
       <c r="F27" s="3">
-        <v>383600</v>
+        <v>390000</v>
       </c>
       <c r="G27" s="3">
-        <v>333300</v>
+        <v>338900</v>
       </c>
       <c r="H27" s="3">
-        <v>88800</v>
+        <v>90300</v>
       </c>
       <c r="I27" s="3">
-        <v>-35900</v>
+        <v>-36500</v>
       </c>
       <c r="J27" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58900</v>
+        <v>-59900</v>
       </c>
       <c r="E32" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="F32" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
         <v>200</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>147600</v>
+        <v>150100</v>
       </c>
       <c r="E33" s="3">
-        <v>502600</v>
+        <v>511100</v>
       </c>
       <c r="F33" s="3">
-        <v>383600</v>
+        <v>390000</v>
       </c>
       <c r="G33" s="3">
-        <v>333300</v>
+        <v>338900</v>
       </c>
       <c r="H33" s="3">
-        <v>88800</v>
+        <v>90300</v>
       </c>
       <c r="I33" s="3">
-        <v>-35900</v>
+        <v>-36500</v>
       </c>
       <c r="J33" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>147600</v>
+        <v>150100</v>
       </c>
       <c r="E35" s="3">
-        <v>502600</v>
+        <v>511100</v>
       </c>
       <c r="F35" s="3">
-        <v>383600</v>
+        <v>390000</v>
       </c>
       <c r="G35" s="3">
-        <v>333300</v>
+        <v>338900</v>
       </c>
       <c r="H35" s="3">
-        <v>88800</v>
+        <v>90300</v>
       </c>
       <c r="I35" s="3">
-        <v>-35900</v>
+        <v>-36500</v>
       </c>
       <c r="J35" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>236800</v>
+        <v>240700</v>
       </c>
       <c r="E41" s="3">
-        <v>440500</v>
+        <v>447900</v>
       </c>
       <c r="F41" s="3">
-        <v>385100</v>
+        <v>391600</v>
       </c>
       <c r="G41" s="3">
-        <v>1052000</v>
+        <v>1069700</v>
       </c>
       <c r="H41" s="3">
-        <v>121000</v>
+        <v>123000</v>
       </c>
       <c r="I41" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>776400</v>
+        <v>789400</v>
       </c>
       <c r="E42" s="3">
-        <v>35600</v>
+        <v>36200</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>46200</v>
+        <v>47000</v>
       </c>
       <c r="H42" s="3">
-        <v>66200</v>
+        <v>67400</v>
       </c>
       <c r="I42" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>744700</v>
+        <v>757200</v>
       </c>
       <c r="E43" s="3">
-        <v>1945000</v>
+        <v>1977600</v>
       </c>
       <c r="F43" s="3">
-        <v>1758500</v>
+        <v>1788000</v>
       </c>
       <c r="G43" s="3">
-        <v>1383200</v>
+        <v>1406400</v>
       </c>
       <c r="H43" s="3">
-        <v>789500</v>
+        <v>802700</v>
       </c>
       <c r="I43" s="3">
-        <v>331100</v>
+        <v>336700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="E44" s="3">
         <v>1400</v>
       </c>
       <c r="F44" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="E45" s="3">
-        <v>198700</v>
+        <v>202100</v>
       </c>
       <c r="F45" s="3">
-        <v>67700</v>
+        <v>68800</v>
       </c>
       <c r="G45" s="3">
-        <v>461600</v>
+        <v>469400</v>
       </c>
       <c r="H45" s="3">
-        <v>90200</v>
+        <v>91700</v>
       </c>
       <c r="I45" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1800100</v>
+        <v>1830300</v>
       </c>
       <c r="E46" s="3">
-        <v>2621300</v>
+        <v>2665200</v>
       </c>
       <c r="F46" s="3">
-        <v>2231000</v>
+        <v>2268400</v>
       </c>
       <c r="G46" s="3">
-        <v>2954200</v>
+        <v>3003700</v>
       </c>
       <c r="H46" s="3">
-        <v>1066900</v>
+        <v>1084800</v>
       </c>
       <c r="I46" s="3">
-        <v>376400</v>
+        <v>382700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>94100</v>
+        <v>95700</v>
       </c>
       <c r="E47" s="3">
-        <v>120400</v>
+        <v>122400</v>
       </c>
       <c r="F47" s="3">
-        <v>210000</v>
+        <v>213500</v>
       </c>
       <c r="G47" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="H47" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="I47" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,13 +1991,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>79100</v>
+        <v>80500</v>
       </c>
       <c r="E48" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="F48" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2030,10 +2030,10 @@
         <v>1300</v>
       </c>
       <c r="E49" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88400</v>
+        <v>89900</v>
       </c>
       <c r="E52" s="3">
-        <v>47400</v>
+        <v>48200</v>
       </c>
       <c r="F52" s="3">
-        <v>40100</v>
+        <v>40800</v>
       </c>
       <c r="G52" s="3">
-        <v>18800</v>
+        <v>19100</v>
       </c>
       <c r="H52" s="3">
         <v>4600</v>
       </c>
       <c r="I52" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2063000</v>
+        <v>2097600</v>
       </c>
       <c r="E54" s="3">
-        <v>2827300</v>
+        <v>2874700</v>
       </c>
       <c r="F54" s="3">
-        <v>2502700</v>
+        <v>2544600</v>
       </c>
       <c r="G54" s="3">
-        <v>2984200</v>
+        <v>3034200</v>
       </c>
       <c r="H54" s="3">
-        <v>1096000</v>
+        <v>1114300</v>
       </c>
       <c r="I54" s="3">
-        <v>412000</v>
+        <v>418900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2314,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>161600</v>
+        <v>164300</v>
       </c>
       <c r="F58" s="3">
-        <v>594400</v>
+        <v>604400</v>
       </c>
       <c r="G58" s="3">
-        <v>1228700</v>
+        <v>1249300</v>
       </c>
       <c r="H58" s="3">
-        <v>644100</v>
+        <v>654900</v>
       </c>
       <c r="I58" s="3">
-        <v>240700</v>
+        <v>244700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72800</v>
+        <v>74000</v>
       </c>
       <c r="E59" s="3">
-        <v>438500</v>
+        <v>445800</v>
       </c>
       <c r="F59" s="3">
-        <v>178500</v>
+        <v>181400</v>
       </c>
       <c r="G59" s="3">
-        <v>208000</v>
+        <v>211500</v>
       </c>
       <c r="H59" s="3">
-        <v>53100</v>
+        <v>54000</v>
       </c>
       <c r="I59" s="3">
-        <v>254800</v>
+        <v>259100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72800</v>
+        <v>74000</v>
       </c>
       <c r="E60" s="3">
-        <v>600100</v>
+        <v>610200</v>
       </c>
       <c r="F60" s="3">
-        <v>772900</v>
+        <v>785800</v>
       </c>
       <c r="G60" s="3">
-        <v>1436600</v>
+        <v>1460700</v>
       </c>
       <c r="H60" s="3">
-        <v>697200</v>
+        <v>708900</v>
       </c>
       <c r="I60" s="3">
-        <v>495400</v>
+        <v>503700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>142300</v>
+        <v>144700</v>
       </c>
       <c r="E61" s="3">
-        <v>360200</v>
+        <v>366300</v>
       </c>
       <c r="F61" s="3">
-        <v>63700</v>
+        <v>64700</v>
       </c>
       <c r="G61" s="3">
-        <v>78500</v>
+        <v>79800</v>
       </c>
       <c r="H61" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="I61" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="E62" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>230700</v>
+        <v>234600</v>
       </c>
       <c r="E66" s="3">
-        <v>991300</v>
+        <v>1007900</v>
       </c>
       <c r="F66" s="3">
-        <v>836500</v>
+        <v>850600</v>
       </c>
       <c r="G66" s="3">
-        <v>1515200</v>
+        <v>1540600</v>
       </c>
       <c r="H66" s="3">
-        <v>708900</v>
+        <v>720800</v>
       </c>
       <c r="I66" s="3">
-        <v>509200</v>
+        <v>517700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>915300</v>
+        <v>930600</v>
       </c>
       <c r="I70" s="3">
-        <v>915300</v>
+        <v>930600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1280400</v>
+        <v>1301900</v>
       </c>
       <c r="E72" s="3">
-        <v>1282800</v>
+        <v>1304300</v>
       </c>
       <c r="F72" s="3">
-        <v>780200</v>
+        <v>793300</v>
       </c>
       <c r="G72" s="3">
-        <v>380000</v>
+        <v>386300</v>
       </c>
       <c r="H72" s="3">
-        <v>-540600</v>
+        <v>-549700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1021500</v>
+        <v>-1038600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1832300</v>
+        <v>1863000</v>
       </c>
       <c r="E76" s="3">
-        <v>1836100</v>
+        <v>1866800</v>
       </c>
       <c r="F76" s="3">
-        <v>1666200</v>
+        <v>1694100</v>
       </c>
       <c r="G76" s="3">
-        <v>1469000</v>
+        <v>1493600</v>
       </c>
       <c r="H76" s="3">
-        <v>-528300</v>
+        <v>-537100</v>
       </c>
       <c r="I76" s="3">
-        <v>-1012500</v>
+        <v>-1029400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>147600</v>
+        <v>150100</v>
       </c>
       <c r="E81" s="3">
-        <v>502600</v>
+        <v>511100</v>
       </c>
       <c r="F81" s="3">
-        <v>383600</v>
+        <v>390000</v>
       </c>
       <c r="G81" s="3">
-        <v>333300</v>
+        <v>338900</v>
       </c>
       <c r="H81" s="3">
-        <v>88800</v>
+        <v>90300</v>
       </c>
       <c r="I81" s="3">
-        <v>-35900</v>
+        <v>-36500</v>
       </c>
       <c r="J81" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3107,7 +3107,7 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>380600</v>
+        <v>387000</v>
       </c>
       <c r="E89" s="3">
-        <v>847400</v>
+        <v>861600</v>
       </c>
       <c r="F89" s="3">
-        <v>513100</v>
+        <v>521700</v>
       </c>
       <c r="G89" s="3">
-        <v>430800</v>
+        <v>438000</v>
       </c>
       <c r="H89" s="3">
-        <v>122300</v>
+        <v>124300</v>
       </c>
       <c r="I89" s="3">
-        <v>-15800</v>
+        <v>-16000</v>
       </c>
       <c r="J89" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34200</v>
+        <v>-34700</v>
       </c>
       <c r="E91" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="F91" s="3">
-        <v>-21600</v>
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H91" s="3">
         <v>-700</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-503500</v>
+        <v>-511900</v>
       </c>
       <c r="E94" s="3">
-        <v>-143100</v>
+        <v>-145500</v>
       </c>
       <c r="F94" s="3">
-        <v>-429700</v>
+        <v>-436900</v>
       </c>
       <c r="G94" s="3">
-        <v>-680900</v>
+        <v>-692400</v>
       </c>
       <c r="H94" s="3">
-        <v>-554000</v>
+        <v>-563300</v>
       </c>
       <c r="I94" s="3">
-        <v>-287200</v>
+        <v>-292000</v>
       </c>
       <c r="J94" s="3">
-        <v>-80000</v>
+        <v>-81300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-245000</v>
+        <v>-249100</v>
       </c>
       <c r="E100" s="3">
-        <v>-519300</v>
+        <v>-528000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1036000</v>
+        <v>-1053300</v>
       </c>
       <c r="G100" s="3">
-        <v>1540100</v>
+        <v>1565900</v>
       </c>
       <c r="H100" s="3">
-        <v>520400</v>
+        <v>529100</v>
       </c>
       <c r="I100" s="3">
-        <v>335000</v>
+        <v>340600</v>
       </c>
       <c r="J100" s="3">
-        <v>85000</v>
+        <v>86400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="E101" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="F101" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="G101" s="3">
-        <v>-12000</v>
+        <v>-12200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-376600</v>
+        <v>-382900</v>
       </c>
       <c r="E102" s="3">
-        <v>196700</v>
+        <v>200000</v>
       </c>
       <c r="F102" s="3">
-        <v>-961400</v>
+        <v>-977600</v>
       </c>
       <c r="G102" s="3">
-        <v>1277900</v>
+        <v>1299300</v>
       </c>
       <c r="H102" s="3">
-        <v>88600</v>
+        <v>90100</v>
       </c>
       <c r="I102" s="3">
-        <v>32100</v>
+        <v>32600</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>577400</v>
+        <v>581800</v>
       </c>
       <c r="E8" s="3">
-        <v>1384000</v>
+        <v>1394600</v>
       </c>
       <c r="F8" s="3">
-        <v>1204300</v>
+        <v>1213500</v>
       </c>
       <c r="G8" s="3">
-        <v>747600</v>
+        <v>753400</v>
       </c>
       <c r="H8" s="3">
-        <v>225900</v>
+        <v>227600</v>
       </c>
       <c r="I8" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="J8" s="3">
         <v>3800</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>101000</v>
+        <v>101800</v>
       </c>
       <c r="E9" s="3">
-        <v>57300</v>
+        <v>57700</v>
       </c>
       <c r="F9" s="3">
-        <v>313700</v>
+        <v>316100</v>
       </c>
       <c r="G9" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -793,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>476400</v>
+        <v>480000</v>
       </c>
       <c r="E10" s="3">
-        <v>1326700</v>
+        <v>1336900</v>
       </c>
       <c r="F10" s="3">
-        <v>890600</v>
+        <v>897400</v>
       </c>
       <c r="G10" s="3">
-        <v>743900</v>
+        <v>749600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -845,16 +845,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="E12" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="F12" s="3">
-        <v>31200</v>
+        <v>31500</v>
       </c>
       <c r="G12" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="H12" s="3">
         <v>8200</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>441900</v>
+        <v>445300</v>
       </c>
       <c r="E17" s="3">
-        <v>781400</v>
+        <v>787400</v>
       </c>
       <c r="F17" s="3">
-        <v>783300</v>
+        <v>789300</v>
       </c>
       <c r="G17" s="3">
-        <v>368600</v>
+        <v>371400</v>
       </c>
       <c r="H17" s="3">
-        <v>114300</v>
+        <v>115100</v>
       </c>
       <c r="I17" s="3">
-        <v>73000</v>
+        <v>73500</v>
       </c>
       <c r="J17" s="3">
         <v>10200</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>135500</v>
+        <v>136600</v>
       </c>
       <c r="E18" s="3">
-        <v>602600</v>
+        <v>607200</v>
       </c>
       <c r="F18" s="3">
-        <v>421000</v>
+        <v>424300</v>
       </c>
       <c r="G18" s="3">
-        <v>379100</v>
+        <v>382000</v>
       </c>
       <c r="H18" s="3">
-        <v>111600</v>
+        <v>112500</v>
       </c>
       <c r="I18" s="3">
-        <v>-36200</v>
+        <v>-36500</v>
       </c>
       <c r="J18" s="3">
         <v>-6400</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>59900</v>
+        <v>60300</v>
       </c>
       <c r="E20" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="G20" s="3">
         <v>-200</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>197000</v>
+        <v>198500</v>
       </c>
       <c r="E21" s="3">
-        <v>616300</v>
+        <v>621000</v>
       </c>
       <c r="F21" s="3">
-        <v>416600</v>
+        <v>419800</v>
       </c>
       <c r="G21" s="3">
-        <v>379800</v>
+        <v>382700</v>
       </c>
       <c r="H21" s="3">
-        <v>110400</v>
+        <v>111200</v>
       </c>
       <c r="I21" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="J21" s="3">
         <v>-6400</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>191100</v>
+        <v>192600</v>
       </c>
       <c r="E23" s="3">
-        <v>609100</v>
+        <v>613800</v>
       </c>
       <c r="F23" s="3">
-        <v>414700</v>
+        <v>417900</v>
       </c>
       <c r="G23" s="3">
-        <v>378900</v>
+        <v>381800</v>
       </c>
       <c r="H23" s="3">
-        <v>110100</v>
+        <v>111000</v>
       </c>
       <c r="I23" s="3">
-        <v>-36500</v>
+        <v>-36800</v>
       </c>
       <c r="J23" s="3">
         <v>-6400</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41000</v>
+        <v>41300</v>
       </c>
       <c r="E24" s="3">
-        <v>98000</v>
+        <v>98800</v>
       </c>
       <c r="F24" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="G24" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="H24" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150100</v>
+        <v>151300</v>
       </c>
       <c r="E26" s="3">
-        <v>511100</v>
+        <v>515000</v>
       </c>
       <c r="F26" s="3">
-        <v>390000</v>
+        <v>393000</v>
       </c>
       <c r="G26" s="3">
-        <v>338900</v>
+        <v>341500</v>
       </c>
       <c r="H26" s="3">
-        <v>90300</v>
+        <v>91000</v>
       </c>
       <c r="I26" s="3">
-        <v>-36500</v>
+        <v>-36800</v>
       </c>
       <c r="J26" s="3">
         <v>-6400</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150100</v>
+        <v>151300</v>
       </c>
       <c r="E27" s="3">
-        <v>511100</v>
+        <v>515000</v>
       </c>
       <c r="F27" s="3">
-        <v>390000</v>
+        <v>393000</v>
       </c>
       <c r="G27" s="3">
-        <v>338900</v>
+        <v>341500</v>
       </c>
       <c r="H27" s="3">
-        <v>90300</v>
+        <v>91000</v>
       </c>
       <c r="I27" s="3">
-        <v>-36500</v>
+        <v>-36800</v>
       </c>
       <c r="J27" s="3">
         <v>-6400</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-59900</v>
+        <v>-60300</v>
       </c>
       <c r="E32" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G32" s="3">
         <v>200</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150100</v>
+        <v>151300</v>
       </c>
       <c r="E33" s="3">
-        <v>511100</v>
+        <v>515000</v>
       </c>
       <c r="F33" s="3">
-        <v>390000</v>
+        <v>393000</v>
       </c>
       <c r="G33" s="3">
-        <v>338900</v>
+        <v>341500</v>
       </c>
       <c r="H33" s="3">
-        <v>90300</v>
+        <v>91000</v>
       </c>
       <c r="I33" s="3">
-        <v>-36500</v>
+        <v>-36800</v>
       </c>
       <c r="J33" s="3">
         <v>-6400</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150100</v>
+        <v>151300</v>
       </c>
       <c r="E35" s="3">
-        <v>511100</v>
+        <v>515000</v>
       </c>
       <c r="F35" s="3">
-        <v>390000</v>
+        <v>393000</v>
       </c>
       <c r="G35" s="3">
-        <v>338900</v>
+        <v>341500</v>
       </c>
       <c r="H35" s="3">
-        <v>90300</v>
+        <v>91000</v>
       </c>
       <c r="I35" s="3">
-        <v>-36500</v>
+        <v>-36800</v>
       </c>
       <c r="J35" s="3">
         <v>-6400</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>240700</v>
+        <v>242600</v>
       </c>
       <c r="E41" s="3">
-        <v>447900</v>
+        <v>451300</v>
       </c>
       <c r="F41" s="3">
-        <v>391600</v>
+        <v>394600</v>
       </c>
       <c r="G41" s="3">
-        <v>1069700</v>
+        <v>1077900</v>
       </c>
       <c r="H41" s="3">
-        <v>123000</v>
+        <v>124000</v>
       </c>
       <c r="I41" s="3">
-        <v>32900</v>
+        <v>33100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>789400</v>
+        <v>795500</v>
       </c>
       <c r="E42" s="3">
-        <v>36200</v>
+        <v>36500</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>47000</v>
+        <v>47300</v>
       </c>
       <c r="H42" s="3">
-        <v>67400</v>
+        <v>67900</v>
       </c>
       <c r="I42" s="3">
         <v>7700</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>757200</v>
+        <v>763000</v>
       </c>
       <c r="E43" s="3">
-        <v>1977600</v>
+        <v>1992800</v>
       </c>
       <c r="F43" s="3">
-        <v>1788000</v>
+        <v>1801700</v>
       </c>
       <c r="G43" s="3">
-        <v>1406400</v>
+        <v>1417100</v>
       </c>
       <c r="H43" s="3">
-        <v>802700</v>
+        <v>808800</v>
       </c>
       <c r="I43" s="3">
-        <v>336700</v>
+        <v>339300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="E44" s="3">
         <v>1400</v>
       </c>
       <c r="F44" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="G44" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="E45" s="3">
-        <v>202100</v>
+        <v>203600</v>
       </c>
       <c r="F45" s="3">
-        <v>68800</v>
+        <v>69300</v>
       </c>
       <c r="G45" s="3">
-        <v>469400</v>
+        <v>473000</v>
       </c>
       <c r="H45" s="3">
-        <v>91700</v>
+        <v>92400</v>
       </c>
       <c r="I45" s="3">
         <v>5500</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1830300</v>
+        <v>1844300</v>
       </c>
       <c r="E46" s="3">
-        <v>2665200</v>
+        <v>2685600</v>
       </c>
       <c r="F46" s="3">
-        <v>2268400</v>
+        <v>2285800</v>
       </c>
       <c r="G46" s="3">
-        <v>3003700</v>
+        <v>3026700</v>
       </c>
       <c r="H46" s="3">
-        <v>1084800</v>
+        <v>1093100</v>
       </c>
       <c r="I46" s="3">
-        <v>382700</v>
+        <v>385700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95700</v>
+        <v>96400</v>
       </c>
       <c r="E47" s="3">
-        <v>122400</v>
+        <v>123300</v>
       </c>
       <c r="F47" s="3">
-        <v>213500</v>
+        <v>215100</v>
       </c>
       <c r="G47" s="3">
         <v>9800</v>
       </c>
       <c r="H47" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="I47" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80500</v>
+        <v>81100</v>
       </c>
       <c r="E48" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="F48" s="3">
         <v>4100</v>
@@ -2033,7 +2033,7 @@
         <v>1100</v>
       </c>
       <c r="F49" s="3">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89900</v>
+        <v>90600</v>
       </c>
       <c r="E52" s="3">
-        <v>48200</v>
+        <v>48600</v>
       </c>
       <c r="F52" s="3">
-        <v>40800</v>
+        <v>41100</v>
       </c>
       <c r="G52" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="H52" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I52" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2097600</v>
+        <v>2113700</v>
       </c>
       <c r="E54" s="3">
-        <v>2874700</v>
+        <v>2896700</v>
       </c>
       <c r="F54" s="3">
-        <v>2544600</v>
+        <v>2564100</v>
       </c>
       <c r="G54" s="3">
-        <v>3034200</v>
+        <v>3057500</v>
       </c>
       <c r="H54" s="3">
-        <v>1114300</v>
+        <v>1122900</v>
       </c>
       <c r="I54" s="3">
-        <v>418900</v>
+        <v>422100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2314,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>164300</v>
+        <v>165600</v>
       </c>
       <c r="F58" s="3">
-        <v>604400</v>
+        <v>609000</v>
       </c>
       <c r="G58" s="3">
-        <v>1249300</v>
+        <v>1258800</v>
       </c>
       <c r="H58" s="3">
-        <v>654900</v>
+        <v>659900</v>
       </c>
       <c r="I58" s="3">
-        <v>244700</v>
+        <v>246600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74000</v>
+        <v>74600</v>
       </c>
       <c r="E59" s="3">
-        <v>445800</v>
+        <v>449300</v>
       </c>
       <c r="F59" s="3">
-        <v>181400</v>
+        <v>182800</v>
       </c>
       <c r="G59" s="3">
-        <v>211500</v>
+        <v>213100</v>
       </c>
       <c r="H59" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="I59" s="3">
-        <v>259100</v>
+        <v>261000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74000</v>
+        <v>74600</v>
       </c>
       <c r="E60" s="3">
-        <v>610200</v>
+        <v>614800</v>
       </c>
       <c r="F60" s="3">
-        <v>785800</v>
+        <v>791900</v>
       </c>
       <c r="G60" s="3">
-        <v>1460700</v>
+        <v>1471900</v>
       </c>
       <c r="H60" s="3">
-        <v>708900</v>
+        <v>714300</v>
       </c>
       <c r="I60" s="3">
-        <v>503700</v>
+        <v>507600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>144700</v>
+        <v>145800</v>
       </c>
       <c r="E61" s="3">
-        <v>366300</v>
+        <v>369100</v>
       </c>
       <c r="F61" s="3">
-        <v>64700</v>
+        <v>65200</v>
       </c>
       <c r="G61" s="3">
-        <v>79800</v>
+        <v>80500</v>
       </c>
       <c r="H61" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="I61" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="E62" s="3">
-        <v>31400</v>
+        <v>31700</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>234600</v>
+        <v>236400</v>
       </c>
       <c r="E66" s="3">
-        <v>1007900</v>
+        <v>1015600</v>
       </c>
       <c r="F66" s="3">
-        <v>850600</v>
+        <v>857100</v>
       </c>
       <c r="G66" s="3">
-        <v>1540600</v>
+        <v>1552400</v>
       </c>
       <c r="H66" s="3">
-        <v>720800</v>
+        <v>726300</v>
       </c>
       <c r="I66" s="3">
-        <v>517700</v>
+        <v>521700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>930600</v>
+        <v>937700</v>
       </c>
       <c r="I70" s="3">
-        <v>930600</v>
+        <v>937700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1301900</v>
+        <v>1311800</v>
       </c>
       <c r="E72" s="3">
-        <v>1304300</v>
+        <v>1314300</v>
       </c>
       <c r="F72" s="3">
-        <v>793300</v>
+        <v>799400</v>
       </c>
       <c r="G72" s="3">
-        <v>386300</v>
+        <v>389300</v>
       </c>
       <c r="H72" s="3">
-        <v>-549700</v>
+        <v>-553900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1038600</v>
+        <v>-1046500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1863000</v>
+        <v>1877300</v>
       </c>
       <c r="E76" s="3">
-        <v>1866800</v>
+        <v>1881100</v>
       </c>
       <c r="F76" s="3">
-        <v>1694100</v>
+        <v>1707100</v>
       </c>
       <c r="G76" s="3">
-        <v>1493600</v>
+        <v>1505100</v>
       </c>
       <c r="H76" s="3">
-        <v>-537100</v>
+        <v>-541200</v>
       </c>
       <c r="I76" s="3">
-        <v>-1029400</v>
+        <v>-1037300</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150100</v>
+        <v>151300</v>
       </c>
       <c r="E81" s="3">
-        <v>511100</v>
+        <v>515000</v>
       </c>
       <c r="F81" s="3">
-        <v>390000</v>
+        <v>393000</v>
       </c>
       <c r="G81" s="3">
-        <v>338900</v>
+        <v>341500</v>
       </c>
       <c r="H81" s="3">
-        <v>90300</v>
+        <v>91000</v>
       </c>
       <c r="I81" s="3">
-        <v>-36500</v>
+        <v>-36800</v>
       </c>
       <c r="J81" s="3">
         <v>-6400</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>387000</v>
+        <v>389900</v>
       </c>
       <c r="E89" s="3">
-        <v>861600</v>
+        <v>868200</v>
       </c>
       <c r="F89" s="3">
-        <v>521700</v>
+        <v>525700</v>
       </c>
       <c r="G89" s="3">
-        <v>438000</v>
+        <v>441400</v>
       </c>
       <c r="H89" s="3">
-        <v>124300</v>
+        <v>125300</v>
       </c>
       <c r="I89" s="3">
-        <v>-16000</v>
+        <v>-16100</v>
       </c>
       <c r="J89" s="3">
         <v>-4800</v>
@@ -3372,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34700</v>
+        <v>-35000</v>
       </c>
       <c r="E91" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="F91" s="3">
-        <v>-22000</v>
+        <v>-22100</v>
       </c>
       <c r="G91" s="3">
         <v>-1800</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-511900</v>
+        <v>-515900</v>
       </c>
       <c r="E94" s="3">
-        <v>-145500</v>
+        <v>-146600</v>
       </c>
       <c r="F94" s="3">
-        <v>-436900</v>
+        <v>-440300</v>
       </c>
       <c r="G94" s="3">
-        <v>-692400</v>
+        <v>-697700</v>
       </c>
       <c r="H94" s="3">
-        <v>-563300</v>
+        <v>-567600</v>
       </c>
       <c r="I94" s="3">
-        <v>-292000</v>
+        <v>-294200</v>
       </c>
       <c r="J94" s="3">
-        <v>-81300</v>
+        <v>-81900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-249100</v>
+        <v>-251000</v>
       </c>
       <c r="E100" s="3">
-        <v>-528000</v>
+        <v>-532000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1053300</v>
+        <v>-1061400</v>
       </c>
       <c r="G100" s="3">
-        <v>1565900</v>
+        <v>1577900</v>
       </c>
       <c r="H100" s="3">
-        <v>529100</v>
+        <v>533200</v>
       </c>
       <c r="I100" s="3">
-        <v>340600</v>
+        <v>343200</v>
       </c>
       <c r="J100" s="3">
-        <v>86400</v>
+        <v>87000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="E101" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="F101" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="G101" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-382900</v>
+        <v>-385800</v>
       </c>
       <c r="E102" s="3">
-        <v>200000</v>
+        <v>201500</v>
       </c>
       <c r="F102" s="3">
-        <v>-977600</v>
+        <v>-985000</v>
       </c>
       <c r="G102" s="3">
-        <v>1299300</v>
+        <v>1309300</v>
       </c>
       <c r="H102" s="3">
-        <v>90100</v>
+        <v>90800</v>
       </c>
       <c r="I102" s="3">
-        <v>32600</v>
+        <v>32800</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>581800</v>
+        <v>543500</v>
       </c>
       <c r="E8" s="3">
-        <v>1394600</v>
+        <v>1302700</v>
       </c>
       <c r="F8" s="3">
-        <v>1213500</v>
+        <v>1133500</v>
       </c>
       <c r="G8" s="3">
-        <v>753400</v>
+        <v>703700</v>
       </c>
       <c r="H8" s="3">
-        <v>227600</v>
+        <v>212600</v>
       </c>
       <c r="I8" s="3">
-        <v>37100</v>
+        <v>34600</v>
       </c>
       <c r="J8" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -757,16 +757,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>101800</v>
+        <v>95100</v>
       </c>
       <c r="E9" s="3">
-        <v>57700</v>
+        <v>53900</v>
       </c>
       <c r="F9" s="3">
-        <v>316100</v>
+        <v>295300</v>
       </c>
       <c r="G9" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -793,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>480000</v>
+        <v>448400</v>
       </c>
       <c r="E10" s="3">
-        <v>1336900</v>
+        <v>1248700</v>
       </c>
       <c r="F10" s="3">
-        <v>897400</v>
+        <v>838300</v>
       </c>
       <c r="G10" s="3">
-        <v>749600</v>
+        <v>700200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26900</v>
+        <v>25200</v>
       </c>
       <c r="E12" s="3">
-        <v>32300</v>
+        <v>30200</v>
       </c>
       <c r="F12" s="3">
-        <v>31500</v>
+        <v>29400</v>
       </c>
       <c r="G12" s="3">
-        <v>24200</v>
+        <v>22600</v>
       </c>
       <c r="H12" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="J12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>445300</v>
+        <v>415900</v>
       </c>
       <c r="E17" s="3">
-        <v>787400</v>
+        <v>735500</v>
       </c>
       <c r="F17" s="3">
-        <v>789300</v>
+        <v>737200</v>
       </c>
       <c r="G17" s="3">
-        <v>371400</v>
+        <v>346900</v>
       </c>
       <c r="H17" s="3">
-        <v>115100</v>
+        <v>107500</v>
       </c>
       <c r="I17" s="3">
-        <v>73500</v>
+        <v>68700</v>
       </c>
       <c r="J17" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>136600</v>
+        <v>127600</v>
       </c>
       <c r="E18" s="3">
-        <v>607200</v>
+        <v>567200</v>
       </c>
       <c r="F18" s="3">
-        <v>424300</v>
+        <v>396300</v>
       </c>
       <c r="G18" s="3">
-        <v>382000</v>
+        <v>356800</v>
       </c>
       <c r="H18" s="3">
-        <v>112500</v>
+        <v>105100</v>
       </c>
       <c r="I18" s="3">
-        <v>-36500</v>
+        <v>-34100</v>
       </c>
       <c r="J18" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>60300</v>
+        <v>56300</v>
       </c>
       <c r="E20" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>-6400</v>
+        <v>-5900</v>
       </c>
       <c r="G20" s="3">
         <v>-200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>198500</v>
+        <v>187200</v>
       </c>
       <c r="E21" s="3">
-        <v>621000</v>
+        <v>578600</v>
       </c>
       <c r="F21" s="3">
-        <v>419800</v>
+        <v>391200</v>
       </c>
       <c r="G21" s="3">
-        <v>382700</v>
+        <v>356800</v>
       </c>
       <c r="H21" s="3">
-        <v>111200</v>
+        <v>103800</v>
       </c>
       <c r="I21" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-6400</v>
+        <v>-34400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>192600</v>
+        <v>179900</v>
       </c>
       <c r="E23" s="3">
-        <v>613800</v>
+        <v>573300</v>
       </c>
       <c r="F23" s="3">
-        <v>417900</v>
+        <v>390400</v>
       </c>
       <c r="G23" s="3">
-        <v>381800</v>
+        <v>356600</v>
       </c>
       <c r="H23" s="3">
-        <v>111000</v>
+        <v>103700</v>
       </c>
       <c r="I23" s="3">
-        <v>-36800</v>
+        <v>-34400</v>
       </c>
       <c r="J23" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="E24" s="3">
-        <v>98800</v>
+        <v>92300</v>
       </c>
       <c r="F24" s="3">
-        <v>24900</v>
+        <v>23200</v>
       </c>
       <c r="G24" s="3">
-        <v>40300</v>
+        <v>37700</v>
       </c>
       <c r="H24" s="3">
-        <v>20000</v>
+        <v>18700</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>151300</v>
+        <v>141300</v>
       </c>
       <c r="E26" s="3">
-        <v>515000</v>
+        <v>481000</v>
       </c>
       <c r="F26" s="3">
-        <v>393000</v>
+        <v>367100</v>
       </c>
       <c r="G26" s="3">
-        <v>341500</v>
+        <v>319000</v>
       </c>
       <c r="H26" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="I26" s="3">
-        <v>-36800</v>
+        <v>-34400</v>
       </c>
       <c r="J26" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>151300</v>
+        <v>141300</v>
       </c>
       <c r="E27" s="3">
-        <v>515000</v>
+        <v>481000</v>
       </c>
       <c r="F27" s="3">
-        <v>393000</v>
+        <v>367100</v>
       </c>
       <c r="G27" s="3">
-        <v>341500</v>
+        <v>319000</v>
       </c>
       <c r="H27" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="I27" s="3">
-        <v>-36800</v>
+        <v>-34400</v>
       </c>
       <c r="J27" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-60300</v>
+        <v>-56300</v>
       </c>
       <c r="E32" s="3">
-        <v>-10400</v>
+        <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="G32" s="3">
         <v>200</v>
       </c>
       <c r="H32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>151300</v>
+        <v>141300</v>
       </c>
       <c r="E33" s="3">
-        <v>515000</v>
+        <v>481000</v>
       </c>
       <c r="F33" s="3">
-        <v>393000</v>
+        <v>367100</v>
       </c>
       <c r="G33" s="3">
-        <v>341500</v>
+        <v>319000</v>
       </c>
       <c r="H33" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="I33" s="3">
-        <v>-36800</v>
+        <v>-34400</v>
       </c>
       <c r="J33" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>151300</v>
+        <v>141300</v>
       </c>
       <c r="E35" s="3">
-        <v>515000</v>
+        <v>481000</v>
       </c>
       <c r="F35" s="3">
-        <v>393000</v>
+        <v>367100</v>
       </c>
       <c r="G35" s="3">
-        <v>341500</v>
+        <v>319000</v>
       </c>
       <c r="H35" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="I35" s="3">
-        <v>-36800</v>
+        <v>-34400</v>
       </c>
       <c r="J35" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>242600</v>
+        <v>226600</v>
       </c>
       <c r="E41" s="3">
-        <v>451300</v>
+        <v>421600</v>
       </c>
       <c r="F41" s="3">
-        <v>394600</v>
+        <v>368600</v>
       </c>
       <c r="G41" s="3">
-        <v>1077900</v>
+        <v>1006800</v>
       </c>
       <c r="H41" s="3">
-        <v>124000</v>
+        <v>115800</v>
       </c>
       <c r="I41" s="3">
-        <v>33100</v>
+        <v>31000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>795500</v>
+        <v>743000</v>
       </c>
       <c r="E42" s="3">
-        <v>36500</v>
+        <v>34100</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>47300</v>
+        <v>44200</v>
       </c>
       <c r="H42" s="3">
-        <v>67900</v>
+        <v>63400</v>
       </c>
       <c r="I42" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>763000</v>
+        <v>712700</v>
       </c>
       <c r="E43" s="3">
-        <v>1992800</v>
+        <v>1861400</v>
       </c>
       <c r="F43" s="3">
-        <v>1801700</v>
+        <v>1682900</v>
       </c>
       <c r="G43" s="3">
-        <v>1417100</v>
+        <v>1323700</v>
       </c>
       <c r="H43" s="3">
-        <v>808800</v>
+        <v>755500</v>
       </c>
       <c r="I43" s="3">
-        <v>339300</v>
+        <v>316900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="E44" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F44" s="3">
-        <v>20200</v>
+        <v>18900</v>
       </c>
       <c r="G44" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28700</v>
+        <v>26800</v>
       </c>
       <c r="E45" s="3">
-        <v>203600</v>
+        <v>190200</v>
       </c>
       <c r="F45" s="3">
-        <v>69300</v>
+        <v>64800</v>
       </c>
       <c r="G45" s="3">
-        <v>473000</v>
+        <v>441800</v>
       </c>
       <c r="H45" s="3">
-        <v>92400</v>
+        <v>86300</v>
       </c>
       <c r="I45" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1844300</v>
+        <v>1722700</v>
       </c>
       <c r="E46" s="3">
-        <v>2685600</v>
+        <v>2508600</v>
       </c>
       <c r="F46" s="3">
-        <v>2285800</v>
+        <v>2135100</v>
       </c>
       <c r="G46" s="3">
-        <v>3026700</v>
+        <v>2827200</v>
       </c>
       <c r="H46" s="3">
-        <v>1093100</v>
+        <v>1021000</v>
       </c>
       <c r="I46" s="3">
-        <v>385700</v>
+        <v>360200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96400</v>
+        <v>90000</v>
       </c>
       <c r="E47" s="3">
-        <v>123300</v>
+        <v>115200</v>
       </c>
       <c r="F47" s="3">
-        <v>215100</v>
+        <v>201000</v>
       </c>
       <c r="G47" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="H47" s="3">
-        <v>24300</v>
+        <v>22700</v>
       </c>
       <c r="I47" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>81100</v>
+        <v>75700</v>
       </c>
       <c r="E48" s="3">
-        <v>38100</v>
+        <v>35600</v>
       </c>
       <c r="F48" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>18000</v>
+        <v>16800</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>90600</v>
+        <v>84600</v>
       </c>
       <c r="E52" s="3">
-        <v>48600</v>
+        <v>45400</v>
       </c>
       <c r="F52" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="G52" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="H52" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="I52" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2113700</v>
+        <v>1974300</v>
       </c>
       <c r="E54" s="3">
-        <v>2896700</v>
+        <v>2705800</v>
       </c>
       <c r="F54" s="3">
-        <v>2564100</v>
+        <v>2395100</v>
       </c>
       <c r="G54" s="3">
-        <v>3057500</v>
+        <v>2855900</v>
       </c>
       <c r="H54" s="3">
-        <v>1122900</v>
+        <v>1048800</v>
       </c>
       <c r="I54" s="3">
-        <v>422100</v>
+        <v>394300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2314,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>165600</v>
+        <v>154700</v>
       </c>
       <c r="F58" s="3">
-        <v>609000</v>
+        <v>568900</v>
       </c>
       <c r="G58" s="3">
-        <v>1258800</v>
+        <v>1175800</v>
       </c>
       <c r="H58" s="3">
-        <v>659900</v>
+        <v>616400</v>
       </c>
       <c r="I58" s="3">
-        <v>246600</v>
+        <v>230300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74600</v>
+        <v>69600</v>
       </c>
       <c r="E59" s="3">
-        <v>449300</v>
+        <v>419600</v>
       </c>
       <c r="F59" s="3">
-        <v>182800</v>
+        <v>170800</v>
       </c>
       <c r="G59" s="3">
-        <v>213100</v>
+        <v>199000</v>
       </c>
       <c r="H59" s="3">
-        <v>54400</v>
+        <v>50800</v>
       </c>
       <c r="I59" s="3">
-        <v>261000</v>
+        <v>243800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74600</v>
+        <v>69600</v>
       </c>
       <c r="E60" s="3">
-        <v>614800</v>
+        <v>574300</v>
       </c>
       <c r="F60" s="3">
-        <v>791900</v>
+        <v>739700</v>
       </c>
       <c r="G60" s="3">
-        <v>1471900</v>
+        <v>1374900</v>
       </c>
       <c r="H60" s="3">
-        <v>714300</v>
+        <v>667200</v>
       </c>
       <c r="I60" s="3">
-        <v>507600</v>
+        <v>474100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,22 +2419,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>145800</v>
+        <v>136200</v>
       </c>
       <c r="E61" s="3">
-        <v>369100</v>
+        <v>344800</v>
       </c>
       <c r="F61" s="3">
-        <v>65200</v>
+        <v>60900</v>
       </c>
       <c r="G61" s="3">
-        <v>80500</v>
+        <v>75200</v>
       </c>
       <c r="H61" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="I61" s="3">
-        <v>14100</v>
+        <v>13200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="E62" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>236400</v>
+        <v>220800</v>
       </c>
       <c r="E66" s="3">
-        <v>1015600</v>
+        <v>948600</v>
       </c>
       <c r="F66" s="3">
-        <v>857100</v>
+        <v>800600</v>
       </c>
       <c r="G66" s="3">
-        <v>1552400</v>
+        <v>1450000</v>
       </c>
       <c r="H66" s="3">
-        <v>726300</v>
+        <v>678400</v>
       </c>
       <c r="I66" s="3">
-        <v>521700</v>
+        <v>487300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>937700</v>
+        <v>875900</v>
       </c>
       <c r="I70" s="3">
-        <v>937700</v>
+        <v>875900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1311800</v>
+        <v>1225400</v>
       </c>
       <c r="E72" s="3">
-        <v>1314300</v>
+        <v>1227700</v>
       </c>
       <c r="F72" s="3">
-        <v>799400</v>
+        <v>746700</v>
       </c>
       <c r="G72" s="3">
-        <v>389300</v>
+        <v>363600</v>
       </c>
       <c r="H72" s="3">
-        <v>-553900</v>
+        <v>-517400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1046500</v>
+        <v>-977500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1877300</v>
+        <v>1753600</v>
       </c>
       <c r="E76" s="3">
-        <v>1881100</v>
+        <v>1757100</v>
       </c>
       <c r="F76" s="3">
-        <v>1707100</v>
+        <v>1594500</v>
       </c>
       <c r="G76" s="3">
-        <v>1505100</v>
+        <v>1405900</v>
       </c>
       <c r="H76" s="3">
-        <v>-541200</v>
+        <v>-505500</v>
       </c>
       <c r="I76" s="3">
-        <v>-1037300</v>
+        <v>-968900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>151300</v>
+        <v>141300</v>
       </c>
       <c r="E81" s="3">
-        <v>515000</v>
+        <v>481000</v>
       </c>
       <c r="F81" s="3">
-        <v>393000</v>
+        <v>367100</v>
       </c>
       <c r="G81" s="3">
-        <v>341500</v>
+        <v>319000</v>
       </c>
       <c r="H81" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="I81" s="3">
-        <v>-36800</v>
+        <v>-34400</v>
       </c>
       <c r="J81" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>3300</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="3">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>389900</v>
+        <v>811000</v>
       </c>
       <c r="E89" s="3">
-        <v>868200</v>
+        <v>491100</v>
       </c>
       <c r="F89" s="3">
-        <v>525700</v>
+        <v>412300</v>
       </c>
       <c r="G89" s="3">
-        <v>441400</v>
+        <v>117000</v>
       </c>
       <c r="H89" s="3">
-        <v>125300</v>
+        <v>-15100</v>
       </c>
       <c r="I89" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35000</v>
+        <v>-11300</v>
       </c>
       <c r="E91" s="3">
-        <v>-12100</v>
+        <v>-20700</v>
       </c>
       <c r="F91" s="3">
-        <v>-22100</v>
+        <v>-1700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1800</v>
+        <v>-700</v>
       </c>
       <c r="H91" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>-200</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-515900</v>
+        <v>-137000</v>
       </c>
       <c r="E94" s="3">
-        <v>-146600</v>
+        <v>-411200</v>
       </c>
       <c r="F94" s="3">
-        <v>-440300</v>
+        <v>-651700</v>
       </c>
       <c r="G94" s="3">
-        <v>-697700</v>
+        <v>-530200</v>
       </c>
       <c r="H94" s="3">
-        <v>-567600</v>
+        <v>-274800</v>
       </c>
       <c r="I94" s="3">
-        <v>-294200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-81900</v>
+        <v>-76500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-251000</v>
+        <v>-496900</v>
       </c>
       <c r="E100" s="3">
-        <v>-532000</v>
+        <v>-991400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1061400</v>
+        <v>1473800</v>
       </c>
       <c r="G100" s="3">
-        <v>1577900</v>
+        <v>498000</v>
       </c>
       <c r="H100" s="3">
-        <v>533200</v>
+        <v>320600</v>
       </c>
       <c r="I100" s="3">
-        <v>343200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>87000</v>
+        <v>81300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8900</v>
+        <v>11200</v>
       </c>
       <c r="E101" s="3">
-        <v>12000</v>
+        <v>-8500</v>
       </c>
       <c r="F101" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-385800</v>
+        <v>188300</v>
       </c>
       <c r="E102" s="3">
-        <v>201500</v>
+        <v>-920100</v>
       </c>
       <c r="F102" s="3">
-        <v>-985000</v>
+        <v>1223000</v>
       </c>
       <c r="G102" s="3">
-        <v>1309300</v>
+        <v>84800</v>
       </c>
       <c r="H102" s="3">
-        <v>90800</v>
+        <v>30700</v>
       </c>
       <c r="I102" s="3">
-        <v>32800</v>
-      </c>
-      <c r="J102" s="3">
         <v>300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,118 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>543500</v>
+        <v>241500</v>
       </c>
       <c r="E8" s="3">
-        <v>1302700</v>
+        <v>538600</v>
       </c>
       <c r="F8" s="3">
-        <v>1133500</v>
+        <v>1290900</v>
       </c>
       <c r="G8" s="3">
-        <v>703700</v>
+        <v>1123300</v>
       </c>
       <c r="H8" s="3">
-        <v>212600</v>
+        <v>697300</v>
       </c>
       <c r="I8" s="3">
-        <v>34600</v>
+        <v>210700</v>
       </c>
       <c r="J8" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>95100</v>
+        <v>11500</v>
       </c>
       <c r="E9" s="3">
-        <v>53900</v>
+        <v>94200</v>
       </c>
       <c r="F9" s="3">
-        <v>295300</v>
+        <v>53400</v>
       </c>
       <c r="G9" s="3">
+        <v>292600</v>
+      </c>
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,26 +792,29 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>448400</v>
+        <v>230100</v>
       </c>
       <c r="E10" s="3">
-        <v>1248700</v>
+        <v>444400</v>
       </c>
       <c r="F10" s="3">
-        <v>838300</v>
+        <v>1237500</v>
       </c>
       <c r="G10" s="3">
-        <v>700200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>830700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>693900</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>25200</v>
+        <v>20600</v>
       </c>
       <c r="E12" s="3">
-        <v>30200</v>
+        <v>24900</v>
       </c>
       <c r="F12" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="G12" s="3">
-        <v>22600</v>
+        <v>29100</v>
       </c>
       <c r="H12" s="3">
-        <v>7700</v>
+        <v>22400</v>
       </c>
       <c r="I12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J12" s="3">
         <v>5500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,32 +926,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>22800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>415900</v>
+        <v>106800</v>
       </c>
       <c r="E17" s="3">
-        <v>735500</v>
+        <v>412200</v>
       </c>
       <c r="F17" s="3">
-        <v>737200</v>
+        <v>728900</v>
       </c>
       <c r="G17" s="3">
-        <v>346900</v>
+        <v>730600</v>
       </c>
       <c r="H17" s="3">
-        <v>107500</v>
+        <v>343800</v>
       </c>
       <c r="I17" s="3">
-        <v>68700</v>
+        <v>106600</v>
       </c>
       <c r="J17" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K17" s="3">
         <v>9600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>127600</v>
+        <v>134700</v>
       </c>
       <c r="E18" s="3">
-        <v>567200</v>
+        <v>126400</v>
       </c>
       <c r="F18" s="3">
-        <v>396300</v>
+        <v>562000</v>
       </c>
       <c r="G18" s="3">
-        <v>356800</v>
+        <v>392700</v>
       </c>
       <c r="H18" s="3">
-        <v>105100</v>
+        <v>353600</v>
       </c>
       <c r="I18" s="3">
-        <v>-34100</v>
+        <v>104100</v>
       </c>
       <c r="J18" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,34 +1116,35 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>56300</v>
+        <v>-8800</v>
       </c>
       <c r="E20" s="3">
-        <v>9700</v>
+        <v>55800</v>
       </c>
       <c r="F20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-5900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>187200</v>
+        <v>129100</v>
       </c>
       <c r="E21" s="3">
-        <v>578600</v>
+        <v>183800</v>
       </c>
       <c r="F21" s="3">
-        <v>391200</v>
+        <v>574900</v>
       </c>
       <c r="G21" s="3">
-        <v>356800</v>
+        <v>388600</v>
       </c>
       <c r="H21" s="3">
-        <v>103800</v>
+        <v>354200</v>
       </c>
       <c r="I21" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>103000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-33900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,21 +1191,24 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,77 +1224,83 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>179900</v>
+        <v>123600</v>
       </c>
       <c r="E23" s="3">
-        <v>573300</v>
+        <v>178300</v>
       </c>
       <c r="F23" s="3">
-        <v>390400</v>
+        <v>568100</v>
       </c>
       <c r="G23" s="3">
-        <v>356600</v>
+        <v>386800</v>
       </c>
       <c r="H23" s="3">
-        <v>103700</v>
+        <v>353400</v>
       </c>
       <c r="I23" s="3">
-        <v>-34400</v>
+        <v>102700</v>
       </c>
       <c r="J23" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38600</v>
+        <v>38000</v>
       </c>
       <c r="E24" s="3">
-        <v>92300</v>
+        <v>38300</v>
       </c>
       <c r="F24" s="3">
-        <v>23200</v>
+        <v>91400</v>
       </c>
       <c r="G24" s="3">
-        <v>37700</v>
+        <v>23000</v>
       </c>
       <c r="H24" s="3">
-        <v>18700</v>
+        <v>37300</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>141300</v>
+        <v>85600</v>
       </c>
       <c r="E26" s="3">
-        <v>481000</v>
+        <v>140000</v>
       </c>
       <c r="F26" s="3">
-        <v>367100</v>
+        <v>476700</v>
       </c>
       <c r="G26" s="3">
-        <v>319000</v>
+        <v>363800</v>
       </c>
       <c r="H26" s="3">
-        <v>85000</v>
+        <v>316100</v>
       </c>
       <c r="I26" s="3">
-        <v>-34400</v>
+        <v>84200</v>
       </c>
       <c r="J26" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>141300</v>
+        <v>86000</v>
       </c>
       <c r="E27" s="3">
-        <v>481000</v>
+        <v>140000</v>
       </c>
       <c r="F27" s="3">
-        <v>367100</v>
+        <v>476700</v>
       </c>
       <c r="G27" s="3">
-        <v>319000</v>
+        <v>363800</v>
       </c>
       <c r="H27" s="3">
-        <v>85000</v>
+        <v>316100</v>
       </c>
       <c r="I27" s="3">
-        <v>-34400</v>
+        <v>84200</v>
       </c>
       <c r="J27" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,35 +1581,38 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-56300</v>
+        <v>8800</v>
       </c>
       <c r="E32" s="3">
-        <v>-9700</v>
+        <v>-55800</v>
       </c>
       <c r="F32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="G32" s="3">
         <v>5900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1551,45 +1620,51 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141300</v>
+        <v>86000</v>
       </c>
       <c r="E33" s="3">
-        <v>481000</v>
+        <v>140000</v>
       </c>
       <c r="F33" s="3">
-        <v>367100</v>
+        <v>476700</v>
       </c>
       <c r="G33" s="3">
-        <v>319000</v>
+        <v>363800</v>
       </c>
       <c r="H33" s="3">
-        <v>85000</v>
+        <v>316100</v>
       </c>
       <c r="I33" s="3">
-        <v>-34400</v>
+        <v>84200</v>
       </c>
       <c r="J33" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141300</v>
+        <v>86000</v>
       </c>
       <c r="E35" s="3">
-        <v>481000</v>
+        <v>140000</v>
       </c>
       <c r="F35" s="3">
-        <v>367100</v>
+        <v>476700</v>
       </c>
       <c r="G35" s="3">
-        <v>319000</v>
+        <v>363800</v>
       </c>
       <c r="H35" s="3">
-        <v>85000</v>
+        <v>316100</v>
       </c>
       <c r="I35" s="3">
-        <v>-34400</v>
+        <v>84200</v>
       </c>
       <c r="J35" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>226600</v>
+        <v>301600</v>
       </c>
       <c r="E41" s="3">
-        <v>421600</v>
+        <v>224500</v>
       </c>
       <c r="F41" s="3">
-        <v>368600</v>
+        <v>417800</v>
       </c>
       <c r="G41" s="3">
-        <v>1006800</v>
+        <v>365200</v>
       </c>
       <c r="H41" s="3">
-        <v>115800</v>
+        <v>997700</v>
       </c>
       <c r="I41" s="3">
-        <v>31000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>114700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>30700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,33 +1854,36 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>743000</v>
+        <v>865500</v>
       </c>
       <c r="E42" s="3">
-        <v>34100</v>
+        <v>736300</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>33800</v>
       </c>
       <c r="G42" s="3">
-        <v>44200</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>63400</v>
+        <v>43800</v>
       </c>
       <c r="I42" s="3">
+        <v>62800</v>
+      </c>
+      <c r="J42" s="3">
         <v>7200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>712700</v>
+        <v>581100</v>
       </c>
       <c r="E43" s="3">
-        <v>1861400</v>
+        <v>706300</v>
       </c>
       <c r="F43" s="3">
-        <v>1682900</v>
+        <v>1844600</v>
       </c>
       <c r="G43" s="3">
-        <v>1323700</v>
+        <v>1667700</v>
       </c>
       <c r="H43" s="3">
-        <v>755500</v>
+        <v>1311800</v>
       </c>
       <c r="I43" s="3">
-        <v>316900</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>748700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>314000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,26 +1932,29 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13500</v>
+        <v>2200</v>
       </c>
       <c r="E44" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
-        <v>18900</v>
-      </c>
       <c r="G44" s="3">
-        <v>10700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>18700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>10600</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1873,36 +1968,39 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26800</v>
+        <v>33800</v>
       </c>
       <c r="E45" s="3">
-        <v>190200</v>
+        <v>26600</v>
       </c>
       <c r="F45" s="3">
-        <v>64800</v>
+        <v>188500</v>
       </c>
       <c r="G45" s="3">
-        <v>441800</v>
+        <v>64200</v>
       </c>
       <c r="H45" s="3">
-        <v>86300</v>
+        <v>437800</v>
       </c>
       <c r="I45" s="3">
+        <v>85600</v>
+      </c>
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1722700</v>
+        <v>1784200</v>
       </c>
       <c r="E46" s="3">
-        <v>2508600</v>
+        <v>1707200</v>
       </c>
       <c r="F46" s="3">
-        <v>2135100</v>
+        <v>2485900</v>
       </c>
       <c r="G46" s="3">
-        <v>2827200</v>
+        <v>2115800</v>
       </c>
       <c r="H46" s="3">
-        <v>1021000</v>
+        <v>2801700</v>
       </c>
       <c r="I46" s="3">
-        <v>360200</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>1011800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>357000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,32 +2049,35 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>90000</v>
+        <v>54300</v>
       </c>
       <c r="E47" s="3">
-        <v>115200</v>
+        <v>89200</v>
       </c>
       <c r="F47" s="3">
-        <v>201000</v>
+        <v>114100</v>
       </c>
       <c r="G47" s="3">
-        <v>9200</v>
+        <v>199100</v>
       </c>
       <c r="H47" s="3">
-        <v>22700</v>
+        <v>9100</v>
       </c>
       <c r="I47" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>22500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>26200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1984,33 +2088,36 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>75700</v>
+        <v>140100</v>
       </c>
       <c r="E48" s="3">
-        <v>35600</v>
+        <v>75000</v>
       </c>
       <c r="F48" s="3">
-        <v>3900</v>
+        <v>35300</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>3800</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,32 +2127,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
-        <v>16800</v>
-      </c>
       <c r="G49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>84600</v>
+        <v>77400</v>
       </c>
       <c r="E52" s="3">
-        <v>45400</v>
+        <v>83900</v>
       </c>
       <c r="F52" s="3">
-        <v>38400</v>
+        <v>45000</v>
       </c>
       <c r="G52" s="3">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="H52" s="3">
-        <v>4400</v>
+        <v>17800</v>
       </c>
       <c r="I52" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1974300</v>
+        <v>2057700</v>
       </c>
       <c r="E54" s="3">
-        <v>2705800</v>
+        <v>1956500</v>
       </c>
       <c r="F54" s="3">
-        <v>2395100</v>
+        <v>2681300</v>
       </c>
       <c r="G54" s="3">
-        <v>2855900</v>
+        <v>2373500</v>
       </c>
       <c r="H54" s="3">
-        <v>1048800</v>
+        <v>2830100</v>
       </c>
       <c r="I54" s="3">
-        <v>394300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>1039400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>390700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2304,32 +2434,35 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>154700</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>568900</v>
+        <v>153300</v>
       </c>
       <c r="G58" s="3">
-        <v>1175800</v>
+        <v>563700</v>
       </c>
       <c r="H58" s="3">
-        <v>616400</v>
+        <v>1165200</v>
       </c>
       <c r="I58" s="3">
-        <v>230300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>610900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>228200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>69600</v>
+        <v>72100</v>
       </c>
       <c r="E59" s="3">
-        <v>419600</v>
+        <v>69000</v>
       </c>
       <c r="F59" s="3">
-        <v>170800</v>
+        <v>415900</v>
       </c>
       <c r="G59" s="3">
-        <v>199000</v>
+        <v>169200</v>
       </c>
       <c r="H59" s="3">
-        <v>50800</v>
+        <v>197200</v>
       </c>
       <c r="I59" s="3">
-        <v>243800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>50300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>241600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69600</v>
+        <v>72100</v>
       </c>
       <c r="E60" s="3">
-        <v>574300</v>
+        <v>69000</v>
       </c>
       <c r="F60" s="3">
-        <v>739700</v>
+        <v>569100</v>
       </c>
       <c r="G60" s="3">
-        <v>1374900</v>
+        <v>733000</v>
       </c>
       <c r="H60" s="3">
-        <v>667200</v>
+        <v>1362500</v>
       </c>
       <c r="I60" s="3">
-        <v>474100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>661200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>469900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,32 +2551,35 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>136200</v>
+        <v>120700</v>
       </c>
       <c r="E61" s="3">
-        <v>344800</v>
+        <v>135000</v>
       </c>
       <c r="F61" s="3">
-        <v>60900</v>
+        <v>341600</v>
       </c>
       <c r="G61" s="3">
-        <v>75200</v>
+        <v>60400</v>
       </c>
       <c r="H61" s="3">
-        <v>11200</v>
+        <v>74500</v>
       </c>
       <c r="I61" s="3">
-        <v>13200</v>
+        <v>11100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2448,20 +2590,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13400</v>
+        <v>36100</v>
       </c>
       <c r="E62" s="3">
-        <v>29600</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>13300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>29300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2478,15 +2623,18 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>220800</v>
+        <v>229900</v>
       </c>
       <c r="E66" s="3">
-        <v>948600</v>
+        <v>218800</v>
       </c>
       <c r="F66" s="3">
-        <v>800600</v>
+        <v>940100</v>
       </c>
       <c r="G66" s="3">
-        <v>1450000</v>
+        <v>793300</v>
       </c>
       <c r="H66" s="3">
-        <v>678400</v>
+        <v>1436900</v>
       </c>
       <c r="I66" s="3">
-        <v>487300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>672300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>482900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2735,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>875900</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>875900</v>
+        <v>868000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>868000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1225400</v>
+        <v>1300300</v>
       </c>
       <c r="E72" s="3">
-        <v>1227700</v>
+        <v>1214300</v>
       </c>
       <c r="F72" s="3">
-        <v>746700</v>
+        <v>1216600</v>
       </c>
       <c r="G72" s="3">
-        <v>363600</v>
+        <v>739900</v>
       </c>
       <c r="H72" s="3">
-        <v>-517400</v>
+        <v>360300</v>
       </c>
       <c r="I72" s="3">
-        <v>-977500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-512700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-968700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1753600</v>
+        <v>1827800</v>
       </c>
       <c r="E76" s="3">
-        <v>1757100</v>
+        <v>1737700</v>
       </c>
       <c r="F76" s="3">
-        <v>1594500</v>
+        <v>1741300</v>
       </c>
       <c r="G76" s="3">
-        <v>1405900</v>
+        <v>1580100</v>
       </c>
       <c r="H76" s="3">
-        <v>-505500</v>
+        <v>1393200</v>
       </c>
       <c r="I76" s="3">
-        <v>-968900</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-500900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-960200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141300</v>
+        <v>86000</v>
       </c>
       <c r="E81" s="3">
-        <v>481000</v>
+        <v>140000</v>
       </c>
       <c r="F81" s="3">
-        <v>367100</v>
+        <v>476700</v>
       </c>
       <c r="G81" s="3">
-        <v>319000</v>
+        <v>363800</v>
       </c>
       <c r="H81" s="3">
-        <v>85000</v>
+        <v>316100</v>
       </c>
       <c r="I81" s="3">
-        <v>-34400</v>
+        <v>84200</v>
       </c>
       <c r="J81" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
-        <v>900</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>800</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>811000</v>
+        <v>134600</v>
       </c>
       <c r="E89" s="3">
-        <v>491100</v>
+        <v>360900</v>
       </c>
       <c r="F89" s="3">
-        <v>412300</v>
+        <v>803700</v>
       </c>
       <c r="G89" s="3">
-        <v>117000</v>
+        <v>486600</v>
       </c>
       <c r="H89" s="3">
-        <v>-15100</v>
+        <v>408600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>116000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-14900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,32 +3585,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11300</v>
+        <v>-69900</v>
       </c>
       <c r="E91" s="3">
-        <v>-20700</v>
+        <v>-32400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1700</v>
+        <v>-11200</v>
       </c>
       <c r="G91" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-137000</v>
+        <v>-36000</v>
       </c>
       <c r="E94" s="3">
-        <v>-411200</v>
+        <v>-477500</v>
       </c>
       <c r="F94" s="3">
-        <v>-651700</v>
+        <v>-135700</v>
       </c>
       <c r="G94" s="3">
-        <v>-530200</v>
+        <v>-407500</v>
       </c>
       <c r="H94" s="3">
-        <v>-274800</v>
+        <v>-645800</v>
       </c>
       <c r="I94" s="3">
-        <v>-76500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-525400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-272300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-496900</v>
+        <v>-12300</v>
       </c>
       <c r="E100" s="3">
-        <v>-991400</v>
+        <v>-232400</v>
       </c>
       <c r="F100" s="3">
-        <v>1473800</v>
+        <v>-492500</v>
       </c>
       <c r="G100" s="3">
-        <v>498000</v>
+        <v>-982500</v>
       </c>
       <c r="H100" s="3">
-        <v>320600</v>
+        <v>1460500</v>
       </c>
       <c r="I100" s="3">
-        <v>81300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>493500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>317700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,26 +3950,29 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11200</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="F101" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>11100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-11400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>188300</v>
+        <v>83300</v>
       </c>
       <c r="E102" s="3">
-        <v>-920100</v>
+        <v>-357100</v>
       </c>
       <c r="F102" s="3">
-        <v>1223000</v>
+        <v>186600</v>
       </c>
       <c r="G102" s="3">
-        <v>84800</v>
+        <v>-911800</v>
       </c>
       <c r="H102" s="3">
-        <v>30700</v>
+        <v>1211900</v>
       </c>
       <c r="I102" s="3">
-        <v>300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>84100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>30400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>241500</v>
+        <v>230200</v>
       </c>
       <c r="E8" s="3">
-        <v>538600</v>
+        <v>513400</v>
       </c>
       <c r="F8" s="3">
-        <v>1290900</v>
+        <v>1230500</v>
       </c>
       <c r="G8" s="3">
-        <v>1123300</v>
+        <v>1070800</v>
       </c>
       <c r="H8" s="3">
-        <v>697300</v>
+        <v>664700</v>
       </c>
       <c r="I8" s="3">
-        <v>210700</v>
+        <v>200800</v>
       </c>
       <c r="J8" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="K8" s="3">
         <v>3600</v>
@@ -763,19 +763,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="E9" s="3">
-        <v>94200</v>
+        <v>89800</v>
       </c>
       <c r="F9" s="3">
-        <v>53400</v>
+        <v>50900</v>
       </c>
       <c r="G9" s="3">
-        <v>292600</v>
+        <v>278900</v>
       </c>
       <c r="H9" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -802,19 +802,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>230100</v>
+        <v>219300</v>
       </c>
       <c r="E10" s="3">
-        <v>444400</v>
+        <v>423600</v>
       </c>
       <c r="F10" s="3">
-        <v>1237500</v>
+        <v>1179600</v>
       </c>
       <c r="G10" s="3">
-        <v>830700</v>
+        <v>791900</v>
       </c>
       <c r="H10" s="3">
-        <v>693900</v>
+        <v>661400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>20600</v>
+        <v>19700</v>
       </c>
       <c r="E12" s="3">
-        <v>24900</v>
+        <v>23800</v>
       </c>
       <c r="F12" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="G12" s="3">
-        <v>29100</v>
+        <v>27800</v>
       </c>
       <c r="H12" s="3">
-        <v>22400</v>
+        <v>21300</v>
       </c>
       <c r="I12" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="J12" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K12" s="3">
         <v>600</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22800</v>
+        <v>21800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106800</v>
+        <v>101800</v>
       </c>
       <c r="E17" s="3">
-        <v>412200</v>
+        <v>392900</v>
       </c>
       <c r="F17" s="3">
-        <v>728900</v>
+        <v>694800</v>
       </c>
       <c r="G17" s="3">
-        <v>730600</v>
+        <v>696400</v>
       </c>
       <c r="H17" s="3">
-        <v>343800</v>
+        <v>327700</v>
       </c>
       <c r="I17" s="3">
-        <v>106600</v>
+        <v>101600</v>
       </c>
       <c r="J17" s="3">
-        <v>68100</v>
+        <v>64900</v>
       </c>
       <c r="K17" s="3">
         <v>9600</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>134700</v>
+        <v>128400</v>
       </c>
       <c r="E18" s="3">
-        <v>126400</v>
+        <v>120500</v>
       </c>
       <c r="F18" s="3">
-        <v>562000</v>
+        <v>535700</v>
       </c>
       <c r="G18" s="3">
-        <v>392700</v>
+        <v>374400</v>
       </c>
       <c r="H18" s="3">
-        <v>353600</v>
+        <v>337000</v>
       </c>
       <c r="I18" s="3">
-        <v>104100</v>
+        <v>99300</v>
       </c>
       <c r="J18" s="3">
-        <v>-33700</v>
+        <v>-32200</v>
       </c>
       <c r="K18" s="3">
         <v>-6000</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="E20" s="3">
-        <v>55800</v>
+        <v>53200</v>
       </c>
       <c r="F20" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="G20" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>129100</v>
+        <v>123000</v>
       </c>
       <c r="E21" s="3">
-        <v>183800</v>
+        <v>175100</v>
       </c>
       <c r="F21" s="3">
-        <v>574900</v>
+        <v>547900</v>
       </c>
       <c r="G21" s="3">
-        <v>388600</v>
+        <v>370400</v>
       </c>
       <c r="H21" s="3">
-        <v>354200</v>
+        <v>337700</v>
       </c>
       <c r="I21" s="3">
-        <v>103000</v>
+        <v>98100</v>
       </c>
       <c r="J21" s="3">
-        <v>-33900</v>
+        <v>-32400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F22" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>123600</v>
+        <v>117800</v>
       </c>
       <c r="E23" s="3">
-        <v>178300</v>
+        <v>169900</v>
       </c>
       <c r="F23" s="3">
-        <v>568100</v>
+        <v>541600</v>
       </c>
       <c r="G23" s="3">
-        <v>386800</v>
+        <v>368700</v>
       </c>
       <c r="H23" s="3">
-        <v>353400</v>
+        <v>336900</v>
       </c>
       <c r="I23" s="3">
-        <v>102700</v>
+        <v>97900</v>
       </c>
       <c r="J23" s="3">
-        <v>-34000</v>
+        <v>-32500</v>
       </c>
       <c r="K23" s="3">
         <v>-6000</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38000</v>
+        <v>36300</v>
       </c>
       <c r="E24" s="3">
-        <v>38300</v>
+        <v>36500</v>
       </c>
       <c r="F24" s="3">
-        <v>91400</v>
+        <v>87200</v>
       </c>
       <c r="G24" s="3">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="H24" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="I24" s="3">
-        <v>18500</v>
+        <v>17700</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>85600</v>
+        <v>81600</v>
       </c>
       <c r="E26" s="3">
-        <v>140000</v>
+        <v>133500</v>
       </c>
       <c r="F26" s="3">
-        <v>476700</v>
+        <v>454400</v>
       </c>
       <c r="G26" s="3">
-        <v>363800</v>
+        <v>346800</v>
       </c>
       <c r="H26" s="3">
-        <v>316100</v>
+        <v>301300</v>
       </c>
       <c r="I26" s="3">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="J26" s="3">
-        <v>-34000</v>
+        <v>-32500</v>
       </c>
       <c r="K26" s="3">
         <v>-6000</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>86000</v>
+        <v>82000</v>
       </c>
       <c r="E27" s="3">
-        <v>140000</v>
+        <v>133500</v>
       </c>
       <c r="F27" s="3">
-        <v>476700</v>
+        <v>454400</v>
       </c>
       <c r="G27" s="3">
-        <v>363800</v>
+        <v>346800</v>
       </c>
       <c r="H27" s="3">
-        <v>316100</v>
+        <v>301300</v>
       </c>
       <c r="I27" s="3">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="J27" s="3">
-        <v>-34000</v>
+        <v>-32500</v>
       </c>
       <c r="K27" s="3">
         <v>-6000</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="E32" s="3">
-        <v>-55800</v>
+        <v>-53200</v>
       </c>
       <c r="F32" s="3">
-        <v>-9600</v>
+        <v>-9100</v>
       </c>
       <c r="G32" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
       <c r="I32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>86000</v>
+        <v>82000</v>
       </c>
       <c r="E33" s="3">
-        <v>140000</v>
+        <v>133500</v>
       </c>
       <c r="F33" s="3">
-        <v>476700</v>
+        <v>454400</v>
       </c>
       <c r="G33" s="3">
-        <v>363800</v>
+        <v>346800</v>
       </c>
       <c r="H33" s="3">
-        <v>316100</v>
+        <v>301300</v>
       </c>
       <c r="I33" s="3">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="J33" s="3">
-        <v>-34000</v>
+        <v>-32500</v>
       </c>
       <c r="K33" s="3">
         <v>-6000</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>86000</v>
+        <v>82000</v>
       </c>
       <c r="E35" s="3">
-        <v>140000</v>
+        <v>133500</v>
       </c>
       <c r="F35" s="3">
-        <v>476700</v>
+        <v>454400</v>
       </c>
       <c r="G35" s="3">
-        <v>363800</v>
+        <v>346800</v>
       </c>
       <c r="H35" s="3">
-        <v>316100</v>
+        <v>301300</v>
       </c>
       <c r="I35" s="3">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="J35" s="3">
-        <v>-34000</v>
+        <v>-32500</v>
       </c>
       <c r="K35" s="3">
         <v>-6000</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>301600</v>
+        <v>287500</v>
       </c>
       <c r="E41" s="3">
-        <v>224500</v>
+        <v>214000</v>
       </c>
       <c r="F41" s="3">
-        <v>417800</v>
+        <v>398200</v>
       </c>
       <c r="G41" s="3">
-        <v>365200</v>
+        <v>348200</v>
       </c>
       <c r="H41" s="3">
-        <v>997700</v>
+        <v>951100</v>
       </c>
       <c r="I41" s="3">
-        <v>114700</v>
+        <v>109400</v>
       </c>
       <c r="J41" s="3">
-        <v>30700</v>
+        <v>29200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>865500</v>
+        <v>825000</v>
       </c>
       <c r="E42" s="3">
-        <v>736300</v>
+        <v>701900</v>
       </c>
       <c r="F42" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>43800</v>
+        <v>41800</v>
       </c>
       <c r="I42" s="3">
-        <v>62800</v>
+        <v>59900</v>
       </c>
       <c r="J42" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>581100</v>
+        <v>553900</v>
       </c>
       <c r="E43" s="3">
-        <v>706300</v>
+        <v>673300</v>
       </c>
       <c r="F43" s="3">
-        <v>1844600</v>
+        <v>1758300</v>
       </c>
       <c r="G43" s="3">
-        <v>1667700</v>
+        <v>1589700</v>
       </c>
       <c r="H43" s="3">
-        <v>1311800</v>
+        <v>1250400</v>
       </c>
       <c r="I43" s="3">
-        <v>748700</v>
+        <v>713700</v>
       </c>
       <c r="J43" s="3">
-        <v>314000</v>
+        <v>299300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1942,19 +1942,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E44" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="F44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G44" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="H44" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="E45" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="F45" s="3">
-        <v>188500</v>
+        <v>179700</v>
       </c>
       <c r="G45" s="3">
-        <v>64200</v>
+        <v>61200</v>
       </c>
       <c r="H45" s="3">
-        <v>437800</v>
+        <v>417300</v>
       </c>
       <c r="I45" s="3">
-        <v>85600</v>
+        <v>81600</v>
       </c>
       <c r="J45" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1784200</v>
+        <v>1700800</v>
       </c>
       <c r="E46" s="3">
-        <v>1707200</v>
+        <v>1627300</v>
       </c>
       <c r="F46" s="3">
-        <v>2485900</v>
+        <v>2369700</v>
       </c>
       <c r="G46" s="3">
-        <v>2115800</v>
+        <v>2016900</v>
       </c>
       <c r="H46" s="3">
-        <v>2801700</v>
+        <v>2670600</v>
       </c>
       <c r="I46" s="3">
-        <v>1011800</v>
+        <v>964500</v>
       </c>
       <c r="J46" s="3">
-        <v>357000</v>
+        <v>340300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54300</v>
+        <v>51800</v>
       </c>
       <c r="E47" s="3">
-        <v>89200</v>
+        <v>85100</v>
       </c>
       <c r="F47" s="3">
-        <v>114100</v>
+        <v>108800</v>
       </c>
       <c r="G47" s="3">
-        <v>199100</v>
+        <v>189800</v>
       </c>
       <c r="H47" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="I47" s="3">
-        <v>22500</v>
+        <v>21400</v>
       </c>
       <c r="J47" s="3">
-        <v>26200</v>
+        <v>24900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,19 +2098,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>140100</v>
+        <v>133600</v>
       </c>
       <c r="E48" s="3">
-        <v>75000</v>
+        <v>71500</v>
       </c>
       <c r="F48" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="G48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2137,19 +2137,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>1200</v>
       </c>
       <c r="F49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>77400</v>
+        <v>73800</v>
       </c>
       <c r="E52" s="3">
-        <v>83900</v>
+        <v>79900</v>
       </c>
       <c r="F52" s="3">
-        <v>45000</v>
+        <v>42900</v>
       </c>
       <c r="G52" s="3">
-        <v>38000</v>
+        <v>36300</v>
       </c>
       <c r="H52" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="I52" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J52" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2057700</v>
+        <v>1961500</v>
       </c>
       <c r="E54" s="3">
-        <v>1956500</v>
+        <v>1865000</v>
       </c>
       <c r="F54" s="3">
-        <v>2681300</v>
+        <v>2555900</v>
       </c>
       <c r="G54" s="3">
-        <v>2373500</v>
+        <v>2262500</v>
       </c>
       <c r="H54" s="3">
-        <v>2830100</v>
+        <v>2697800</v>
       </c>
       <c r="I54" s="3">
-        <v>1039400</v>
+        <v>990800</v>
       </c>
       <c r="J54" s="3">
-        <v>390700</v>
+        <v>372400</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>153300</v>
+        <v>146100</v>
       </c>
       <c r="G58" s="3">
-        <v>563700</v>
+        <v>537400</v>
       </c>
       <c r="H58" s="3">
-        <v>1165200</v>
+        <v>1110700</v>
       </c>
       <c r="I58" s="3">
-        <v>610900</v>
+        <v>582300</v>
       </c>
       <c r="J58" s="3">
-        <v>228200</v>
+        <v>217600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72100</v>
+        <v>68700</v>
       </c>
       <c r="E59" s="3">
-        <v>69000</v>
+        <v>65800</v>
       </c>
       <c r="F59" s="3">
-        <v>415900</v>
+        <v>396400</v>
       </c>
       <c r="G59" s="3">
-        <v>169200</v>
+        <v>161300</v>
       </c>
       <c r="H59" s="3">
-        <v>197200</v>
+        <v>188000</v>
       </c>
       <c r="I59" s="3">
-        <v>50300</v>
+        <v>48000</v>
       </c>
       <c r="J59" s="3">
-        <v>241600</v>
+        <v>230300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72100</v>
+        <v>68700</v>
       </c>
       <c r="E60" s="3">
-        <v>69000</v>
+        <v>65800</v>
       </c>
       <c r="F60" s="3">
-        <v>569100</v>
+        <v>542500</v>
       </c>
       <c r="G60" s="3">
-        <v>733000</v>
+        <v>698700</v>
       </c>
       <c r="H60" s="3">
-        <v>1362500</v>
+        <v>1298700</v>
       </c>
       <c r="I60" s="3">
-        <v>661200</v>
+        <v>630300</v>
       </c>
       <c r="J60" s="3">
-        <v>469900</v>
+        <v>447900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>120700</v>
+        <v>115100</v>
       </c>
       <c r="E61" s="3">
-        <v>135000</v>
+        <v>128700</v>
       </c>
       <c r="F61" s="3">
-        <v>341600</v>
+        <v>325700</v>
       </c>
       <c r="G61" s="3">
-        <v>60400</v>
+        <v>57500</v>
       </c>
       <c r="H61" s="3">
-        <v>74500</v>
+        <v>71000</v>
       </c>
       <c r="I61" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="J61" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36100</v>
+        <v>34400</v>
       </c>
       <c r="E62" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="F62" s="3">
-        <v>29300</v>
+        <v>27900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>229900</v>
+        <v>219200</v>
       </c>
       <c r="E66" s="3">
-        <v>218800</v>
+        <v>208500</v>
       </c>
       <c r="F66" s="3">
-        <v>940100</v>
+        <v>896100</v>
       </c>
       <c r="G66" s="3">
-        <v>793300</v>
+        <v>756200</v>
       </c>
       <c r="H66" s="3">
-        <v>1436900</v>
+        <v>1369700</v>
       </c>
       <c r="I66" s="3">
-        <v>672300</v>
+        <v>640900</v>
       </c>
       <c r="J66" s="3">
-        <v>482900</v>
+        <v>460300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2905,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>868000</v>
+        <v>827400</v>
       </c>
       <c r="J70" s="3">
-        <v>868000</v>
+        <v>827400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1300300</v>
+        <v>1239500</v>
       </c>
       <c r="E72" s="3">
-        <v>1214300</v>
+        <v>1157500</v>
       </c>
       <c r="F72" s="3">
-        <v>1216600</v>
+        <v>1159700</v>
       </c>
       <c r="G72" s="3">
-        <v>739900</v>
+        <v>705300</v>
       </c>
       <c r="H72" s="3">
-        <v>360300</v>
+        <v>343500</v>
       </c>
       <c r="I72" s="3">
-        <v>-512700</v>
+        <v>-488700</v>
       </c>
       <c r="J72" s="3">
-        <v>-968700</v>
+        <v>-923400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1827800</v>
+        <v>1742300</v>
       </c>
       <c r="E76" s="3">
-        <v>1737700</v>
+        <v>1656500</v>
       </c>
       <c r="F76" s="3">
-        <v>1741300</v>
+        <v>1659800</v>
       </c>
       <c r="G76" s="3">
-        <v>1580100</v>
+        <v>1506200</v>
       </c>
       <c r="H76" s="3">
-        <v>1393200</v>
+        <v>1328000</v>
       </c>
       <c r="I76" s="3">
-        <v>-500900</v>
+        <v>-477500</v>
       </c>
       <c r="J76" s="3">
-        <v>-960200</v>
+        <v>-915300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>86000</v>
+        <v>82000</v>
       </c>
       <c r="E81" s="3">
-        <v>140000</v>
+        <v>133500</v>
       </c>
       <c r="F81" s="3">
-        <v>476700</v>
+        <v>454400</v>
       </c>
       <c r="G81" s="3">
-        <v>363800</v>
+        <v>346800</v>
       </c>
       <c r="H81" s="3">
-        <v>316100</v>
+        <v>301300</v>
       </c>
       <c r="I81" s="3">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="J81" s="3">
-        <v>-34000</v>
+        <v>-32500</v>
       </c>
       <c r="K81" s="3">
         <v>-6000</v>
@@ -3302,16 +3302,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E83" s="3">
         <v>1500</v>
       </c>
       <c r="F83" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>134600</v>
+        <v>128400</v>
       </c>
       <c r="E89" s="3">
-        <v>360900</v>
+        <v>344100</v>
       </c>
       <c r="F89" s="3">
-        <v>803700</v>
+        <v>766100</v>
       </c>
       <c r="G89" s="3">
-        <v>486600</v>
+        <v>463900</v>
       </c>
       <c r="H89" s="3">
-        <v>408600</v>
+        <v>389500</v>
       </c>
       <c r="I89" s="3">
-        <v>116000</v>
+        <v>110500</v>
       </c>
       <c r="J89" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-69900</v>
+        <v>-66600</v>
       </c>
       <c r="E91" s="3">
-        <v>-32400</v>
+        <v>-30900</v>
       </c>
       <c r="F91" s="3">
-        <v>-11200</v>
+        <v>-10600</v>
       </c>
       <c r="G91" s="3">
-        <v>-20500</v>
+        <v>-19500</v>
       </c>
       <c r="H91" s="3">
         <v>-1600</v>
       </c>
       <c r="I91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36000</v>
+        <v>-34300</v>
       </c>
       <c r="E94" s="3">
-        <v>-477500</v>
+        <v>-455200</v>
       </c>
       <c r="F94" s="3">
-        <v>-135700</v>
+        <v>-129400</v>
       </c>
       <c r="G94" s="3">
-        <v>-407500</v>
+        <v>-388500</v>
       </c>
       <c r="H94" s="3">
-        <v>-645800</v>
+        <v>-615600</v>
       </c>
       <c r="I94" s="3">
-        <v>-525400</v>
+        <v>-500900</v>
       </c>
       <c r="J94" s="3">
-        <v>-272300</v>
+        <v>-259600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12300</v>
+        <v>-11700</v>
       </c>
       <c r="E100" s="3">
-        <v>-232400</v>
+        <v>-221500</v>
       </c>
       <c r="F100" s="3">
-        <v>-492500</v>
+        <v>-469400</v>
       </c>
       <c r="G100" s="3">
-        <v>-982500</v>
+        <v>-936500</v>
       </c>
       <c r="H100" s="3">
-        <v>1460500</v>
+        <v>1392200</v>
       </c>
       <c r="I100" s="3">
-        <v>493500</v>
+        <v>470500</v>
       </c>
       <c r="J100" s="3">
-        <v>317700</v>
+        <v>302800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="E101" s="3">
-        <v>-8200</v>
+        <v>-7800</v>
       </c>
       <c r="F101" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="G101" s="3">
-        <v>-8400</v>
+        <v>-8000</v>
       </c>
       <c r="H101" s="3">
-        <v>-11400</v>
+        <v>-10900</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>83300</v>
+        <v>79400</v>
       </c>
       <c r="E102" s="3">
-        <v>-357100</v>
+        <v>-340400</v>
       </c>
       <c r="F102" s="3">
-        <v>186600</v>
+        <v>177800</v>
       </c>
       <c r="G102" s="3">
-        <v>-911800</v>
+        <v>-869200</v>
       </c>
       <c r="H102" s="3">
-        <v>1211900</v>
+        <v>1155200</v>
       </c>
       <c r="I102" s="3">
-        <v>84100</v>
+        <v>80100</v>
       </c>
       <c r="J102" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,126 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>230200</v>
+        <v>82900</v>
       </c>
       <c r="E8" s="3">
-        <v>513400</v>
+        <v>237600</v>
       </c>
       <c r="F8" s="3">
-        <v>1230500</v>
+        <v>529700</v>
       </c>
       <c r="G8" s="3">
-        <v>1070800</v>
+        <v>1269600</v>
       </c>
       <c r="H8" s="3">
-        <v>664700</v>
+        <v>1104800</v>
       </c>
       <c r="I8" s="3">
-        <v>200800</v>
+        <v>685800</v>
       </c>
       <c r="J8" s="3">
+        <v>207200</v>
+      </c>
+      <c r="K8" s="3">
         <v>32700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10900</v>
+        <v>55000</v>
       </c>
       <c r="E9" s="3">
-        <v>89800</v>
+        <v>11300</v>
       </c>
       <c r="F9" s="3">
-        <v>50900</v>
+        <v>92600</v>
       </c>
       <c r="G9" s="3">
-        <v>278900</v>
+        <v>52600</v>
       </c>
       <c r="H9" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>287800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -795,29 +801,32 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>219300</v>
+        <v>27900</v>
       </c>
       <c r="E10" s="3">
-        <v>423600</v>
+        <v>226300</v>
       </c>
       <c r="F10" s="3">
-        <v>1179600</v>
+        <v>437000</v>
       </c>
       <c r="G10" s="3">
-        <v>791900</v>
+        <v>1217000</v>
       </c>
       <c r="H10" s="3">
-        <v>661400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>817000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>682400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19700</v>
+        <v>8400</v>
       </c>
       <c r="E12" s="3">
-        <v>23800</v>
+        <v>20300</v>
       </c>
       <c r="F12" s="3">
-        <v>28500</v>
+        <v>24500</v>
       </c>
       <c r="G12" s="3">
-        <v>27800</v>
+        <v>29400</v>
       </c>
       <c r="H12" s="3">
-        <v>21300</v>
+        <v>28700</v>
       </c>
       <c r="I12" s="3">
-        <v>7300</v>
+        <v>22000</v>
       </c>
       <c r="J12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K12" s="3">
         <v>5200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,17 +945,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>21800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>38600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>22500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -956,8 +975,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -968,9 +987,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>101800</v>
+        <v>130300</v>
       </c>
       <c r="E17" s="3">
-        <v>392900</v>
+        <v>105000</v>
       </c>
       <c r="F17" s="3">
-        <v>694800</v>
+        <v>405300</v>
       </c>
       <c r="G17" s="3">
-        <v>696400</v>
+        <v>716800</v>
       </c>
       <c r="H17" s="3">
-        <v>327700</v>
+        <v>718500</v>
       </c>
       <c r="I17" s="3">
-        <v>101600</v>
+        <v>338100</v>
       </c>
       <c r="J17" s="3">
+        <v>104800</v>
+      </c>
+      <c r="K17" s="3">
         <v>64900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>128400</v>
+        <v>-47300</v>
       </c>
       <c r="E18" s="3">
-        <v>120500</v>
+        <v>132500</v>
       </c>
       <c r="F18" s="3">
-        <v>535700</v>
+        <v>124300</v>
       </c>
       <c r="G18" s="3">
-        <v>374400</v>
+        <v>552800</v>
       </c>
       <c r="H18" s="3">
-        <v>337000</v>
+        <v>386200</v>
       </c>
       <c r="I18" s="3">
-        <v>99300</v>
+        <v>347700</v>
       </c>
       <c r="J18" s="3">
+        <v>102400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-32200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,37 +1149,38 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8400</v>
+        <v>8600</v>
       </c>
       <c r="E20" s="3">
-        <v>53200</v>
+        <v>-8700</v>
       </c>
       <c r="F20" s="3">
-        <v>9100</v>
+        <v>54900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5600</v>
+        <v>9400</v>
       </c>
       <c r="H20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>-1300</v>
-      </c>
       <c r="J20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1155,36 +1188,39 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>123000</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>175100</v>
+        <v>127000</v>
       </c>
       <c r="F21" s="3">
-        <v>547900</v>
+        <v>180700</v>
       </c>
       <c r="G21" s="3">
-        <v>370400</v>
+        <v>565400</v>
       </c>
       <c r="H21" s="3">
-        <v>337700</v>
+        <v>382200</v>
       </c>
       <c r="I21" s="3">
-        <v>98100</v>
+        <v>348400</v>
       </c>
       <c r="J21" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-32400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,23 +1230,26 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>2200</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="F22" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1227,83 +1266,89 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>117800</v>
+        <v>-38700</v>
       </c>
       <c r="E23" s="3">
-        <v>169900</v>
+        <v>121600</v>
       </c>
       <c r="F23" s="3">
-        <v>541600</v>
+        <v>175300</v>
       </c>
       <c r="G23" s="3">
-        <v>368700</v>
+        <v>558800</v>
       </c>
       <c r="H23" s="3">
-        <v>336900</v>
+        <v>380500</v>
       </c>
       <c r="I23" s="3">
-        <v>97900</v>
+        <v>347600</v>
       </c>
       <c r="J23" s="3">
+        <v>101000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-32500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36300</v>
+        <v>13300</v>
       </c>
       <c r="E24" s="3">
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="F24" s="3">
-        <v>87200</v>
+        <v>37600</v>
       </c>
       <c r="G24" s="3">
-        <v>22000</v>
+        <v>89900</v>
       </c>
       <c r="H24" s="3">
-        <v>35600</v>
+        <v>22700</v>
       </c>
       <c r="I24" s="3">
-        <v>17700</v>
+        <v>36700</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>18200</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>81600</v>
+        <v>-52000</v>
       </c>
       <c r="E26" s="3">
-        <v>133500</v>
+        <v>84200</v>
       </c>
       <c r="F26" s="3">
-        <v>454400</v>
+        <v>137700</v>
       </c>
       <c r="G26" s="3">
-        <v>346800</v>
+        <v>468800</v>
       </c>
       <c r="H26" s="3">
-        <v>301300</v>
+        <v>357800</v>
       </c>
       <c r="I26" s="3">
-        <v>80300</v>
+        <v>310900</v>
       </c>
       <c r="J26" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-32500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>82000</v>
+        <v>-52000</v>
       </c>
       <c r="E27" s="3">
-        <v>133500</v>
+        <v>84600</v>
       </c>
       <c r="F27" s="3">
-        <v>454400</v>
+        <v>137700</v>
       </c>
       <c r="G27" s="3">
-        <v>346800</v>
+        <v>468800</v>
       </c>
       <c r="H27" s="3">
-        <v>301300</v>
+        <v>357800</v>
       </c>
       <c r="I27" s="3">
-        <v>80300</v>
+        <v>310900</v>
       </c>
       <c r="J27" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-32500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,38 +1650,41 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8400</v>
+        <v>-8600</v>
       </c>
       <c r="E32" s="3">
-        <v>-53200</v>
+        <v>8700</v>
       </c>
       <c r="F32" s="3">
-        <v>-9100</v>
+        <v>-54900</v>
       </c>
       <c r="G32" s="3">
-        <v>5600</v>
+        <v>-9400</v>
       </c>
       <c r="H32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>1300</v>
-      </c>
       <c r="J32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1623,48 +1692,54 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>82000</v>
+        <v>-52000</v>
       </c>
       <c r="E33" s="3">
-        <v>133500</v>
+        <v>84600</v>
       </c>
       <c r="F33" s="3">
-        <v>454400</v>
+        <v>137700</v>
       </c>
       <c r="G33" s="3">
-        <v>346800</v>
+        <v>468800</v>
       </c>
       <c r="H33" s="3">
-        <v>301300</v>
+        <v>357800</v>
       </c>
       <c r="I33" s="3">
-        <v>80300</v>
+        <v>310900</v>
       </c>
       <c r="J33" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-32500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>82000</v>
+        <v>-52000</v>
       </c>
       <c r="E35" s="3">
-        <v>133500</v>
+        <v>84600</v>
       </c>
       <c r="F35" s="3">
-        <v>454400</v>
+        <v>137700</v>
       </c>
       <c r="G35" s="3">
-        <v>346800</v>
+        <v>468800</v>
       </c>
       <c r="H35" s="3">
-        <v>301300</v>
+        <v>357800</v>
       </c>
       <c r="I35" s="3">
-        <v>80300</v>
+        <v>310900</v>
       </c>
       <c r="J35" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-32500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,35 +1904,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>287500</v>
+        <v>503000</v>
       </c>
       <c r="E41" s="3">
-        <v>214000</v>
+        <v>296600</v>
       </c>
       <c r="F41" s="3">
-        <v>398200</v>
+        <v>220800</v>
       </c>
       <c r="G41" s="3">
-        <v>348200</v>
+        <v>410900</v>
       </c>
       <c r="H41" s="3">
-        <v>951100</v>
+        <v>359200</v>
       </c>
       <c r="I41" s="3">
-        <v>109400</v>
+        <v>981300</v>
       </c>
       <c r="J41" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K41" s="3">
         <v>29200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1857,36 +1943,39 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>825000</v>
+        <v>772400</v>
       </c>
       <c r="E42" s="3">
-        <v>701900</v>
+        <v>851200</v>
       </c>
       <c r="F42" s="3">
-        <v>32200</v>
+        <v>724200</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>33200</v>
       </c>
       <c r="H42" s="3">
-        <v>41800</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>59900</v>
+        <v>43100</v>
       </c>
       <c r="J42" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K42" s="3">
         <v>6800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,36 +1985,39 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>553900</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>673300</v>
+        <v>571500</v>
       </c>
       <c r="F43" s="3">
-        <v>1758300</v>
+        <v>694600</v>
       </c>
       <c r="G43" s="3">
-        <v>1589700</v>
+        <v>1814200</v>
       </c>
       <c r="H43" s="3">
-        <v>1250400</v>
+        <v>1640200</v>
       </c>
       <c r="I43" s="3">
-        <v>713700</v>
+        <v>1290100</v>
       </c>
       <c r="J43" s="3">
+        <v>736300</v>
+      </c>
+      <c r="K43" s="3">
         <v>299300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,29 +2027,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>2100</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>12800</v>
+        <v>2200</v>
       </c>
       <c r="F44" s="3">
-        <v>1200</v>
+        <v>13200</v>
       </c>
       <c r="G44" s="3">
-        <v>17800</v>
+        <v>1300</v>
       </c>
       <c r="H44" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>18400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>10400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1971,39 +2066,42 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32200</v>
+        <v>312600</v>
       </c>
       <c r="E45" s="3">
-        <v>25300</v>
+        <v>33200</v>
       </c>
       <c r="F45" s="3">
-        <v>179700</v>
+        <v>26200</v>
       </c>
       <c r="G45" s="3">
-        <v>61200</v>
+        <v>185400</v>
       </c>
       <c r="H45" s="3">
-        <v>417300</v>
+        <v>63100</v>
       </c>
       <c r="I45" s="3">
-        <v>81600</v>
+        <v>430600</v>
       </c>
       <c r="J45" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,36 +2111,39 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1700800</v>
+        <v>1588200</v>
       </c>
       <c r="E46" s="3">
-        <v>1627300</v>
+        <v>1754800</v>
       </c>
       <c r="F46" s="3">
-        <v>2369700</v>
+        <v>1679000</v>
       </c>
       <c r="G46" s="3">
-        <v>2016900</v>
+        <v>2444900</v>
       </c>
       <c r="H46" s="3">
-        <v>2670600</v>
+        <v>2080900</v>
       </c>
       <c r="I46" s="3">
-        <v>964500</v>
+        <v>2755400</v>
       </c>
       <c r="J46" s="3">
+        <v>995100</v>
+      </c>
+      <c r="K46" s="3">
         <v>340300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,36 +2153,39 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51800</v>
+        <v>50300</v>
       </c>
       <c r="E47" s="3">
-        <v>85100</v>
+        <v>53400</v>
       </c>
       <c r="F47" s="3">
-        <v>108800</v>
+        <v>87800</v>
       </c>
       <c r="G47" s="3">
-        <v>189800</v>
+        <v>112300</v>
       </c>
       <c r="H47" s="3">
-        <v>8700</v>
+        <v>195900</v>
       </c>
       <c r="I47" s="3">
-        <v>21400</v>
+        <v>9000</v>
       </c>
       <c r="J47" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K47" s="3">
         <v>24900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,36 +2195,39 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>133600</v>
+        <v>126000</v>
       </c>
       <c r="E48" s="3">
-        <v>71500</v>
+        <v>137800</v>
       </c>
       <c r="F48" s="3">
-        <v>33600</v>
+        <v>73800</v>
       </c>
       <c r="G48" s="3">
-        <v>3700</v>
+        <v>34700</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>3800</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,35 +2237,38 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="F49" s="3">
-        <v>900</v>
-      </c>
       <c r="G49" s="3">
-        <v>15800</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
+        <v>16300</v>
+      </c>
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,36 +2363,39 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73800</v>
+        <v>64800</v>
       </c>
       <c r="E52" s="3">
-        <v>79900</v>
+        <v>76200</v>
       </c>
       <c r="F52" s="3">
-        <v>42900</v>
+        <v>82500</v>
       </c>
       <c r="G52" s="3">
-        <v>36300</v>
+        <v>44200</v>
       </c>
       <c r="H52" s="3">
-        <v>17000</v>
+        <v>37400</v>
       </c>
       <c r="I52" s="3">
-        <v>4100</v>
+        <v>17500</v>
       </c>
       <c r="J52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,36 +2447,39 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1961500</v>
+        <v>1830600</v>
       </c>
       <c r="E54" s="3">
-        <v>1865000</v>
+        <v>2023800</v>
       </c>
       <c r="F54" s="3">
-        <v>2555900</v>
+        <v>1924200</v>
       </c>
       <c r="G54" s="3">
-        <v>2262500</v>
+        <v>2637100</v>
       </c>
       <c r="H54" s="3">
-        <v>2697800</v>
+        <v>2334300</v>
       </c>
       <c r="I54" s="3">
-        <v>990800</v>
+        <v>2783400</v>
       </c>
       <c r="J54" s="3">
+        <v>1022200</v>
+      </c>
+      <c r="K54" s="3">
         <v>372400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,8 +2528,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2437,36 +2567,39 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>146100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>537400</v>
+        <v>150700</v>
       </c>
       <c r="H58" s="3">
-        <v>1110700</v>
+        <v>554400</v>
       </c>
       <c r="I58" s="3">
-        <v>582300</v>
+        <v>1146000</v>
       </c>
       <c r="J58" s="3">
+        <v>600800</v>
+      </c>
+      <c r="K58" s="3">
         <v>217600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,36 +2609,39 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68700</v>
+        <v>79800</v>
       </c>
       <c r="E59" s="3">
-        <v>65800</v>
+        <v>70900</v>
       </c>
       <c r="F59" s="3">
-        <v>396400</v>
+        <v>67900</v>
       </c>
       <c r="G59" s="3">
-        <v>161300</v>
+        <v>409000</v>
       </c>
       <c r="H59" s="3">
-        <v>188000</v>
+        <v>166400</v>
       </c>
       <c r="I59" s="3">
-        <v>48000</v>
+        <v>194000</v>
       </c>
       <c r="J59" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K59" s="3">
         <v>230300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,36 +2651,39 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68700</v>
+        <v>84000</v>
       </c>
       <c r="E60" s="3">
-        <v>65800</v>
+        <v>70900</v>
       </c>
       <c r="F60" s="3">
-        <v>542500</v>
+        <v>67900</v>
       </c>
       <c r="G60" s="3">
-        <v>698700</v>
+        <v>559700</v>
       </c>
       <c r="H60" s="3">
-        <v>1298700</v>
+        <v>720900</v>
       </c>
       <c r="I60" s="3">
-        <v>630300</v>
+        <v>1340000</v>
       </c>
       <c r="J60" s="3">
+        <v>650300</v>
+      </c>
+      <c r="K60" s="3">
         <v>447900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,36 +2693,39 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>115100</v>
+        <v>16700</v>
       </c>
       <c r="E61" s="3">
-        <v>128700</v>
+        <v>118700</v>
       </c>
       <c r="F61" s="3">
-        <v>325700</v>
+        <v>132800</v>
       </c>
       <c r="G61" s="3">
-        <v>57500</v>
+        <v>336000</v>
       </c>
       <c r="H61" s="3">
-        <v>71000</v>
+        <v>59400</v>
       </c>
       <c r="I61" s="3">
-        <v>10600</v>
+        <v>73200</v>
       </c>
       <c r="J61" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K61" s="3">
         <v>12400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2593,23 +2735,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34400</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>12700</v>
+        <v>35500</v>
       </c>
       <c r="F62" s="3">
-        <v>27900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>28800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2626,15 +2771,18 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,36 +2903,39 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>219200</v>
+        <v>101100</v>
       </c>
       <c r="E66" s="3">
-        <v>208500</v>
+        <v>226100</v>
       </c>
       <c r="F66" s="3">
-        <v>896100</v>
+        <v>215200</v>
       </c>
       <c r="G66" s="3">
-        <v>756200</v>
+        <v>924600</v>
       </c>
       <c r="H66" s="3">
-        <v>1369700</v>
+        <v>780300</v>
       </c>
       <c r="I66" s="3">
-        <v>640900</v>
+        <v>1413200</v>
       </c>
       <c r="J66" s="3">
+        <v>661200</v>
+      </c>
+      <c r="K66" s="3">
         <v>460300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2905,14 +3072,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>853700</v>
+      </c>
+      <c r="K70" s="3">
         <v>827400</v>
       </c>
-      <c r="J70" s="3">
-        <v>827400</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,36 +3131,39 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1239500</v>
+        <v>1226400</v>
       </c>
       <c r="E72" s="3">
-        <v>1157500</v>
+        <v>1278900</v>
       </c>
       <c r="F72" s="3">
-        <v>1159700</v>
+        <v>1194300</v>
       </c>
       <c r="G72" s="3">
-        <v>705300</v>
+        <v>1196500</v>
       </c>
       <c r="H72" s="3">
-        <v>343500</v>
+        <v>727700</v>
       </c>
       <c r="I72" s="3">
-        <v>-488700</v>
+        <v>354400</v>
       </c>
       <c r="J72" s="3">
+        <v>-504200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-923400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,36 +3299,39 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1742300</v>
+        <v>1729600</v>
       </c>
       <c r="E76" s="3">
-        <v>1656500</v>
+        <v>1797600</v>
       </c>
       <c r="F76" s="3">
-        <v>1659800</v>
+        <v>1709100</v>
       </c>
       <c r="G76" s="3">
-        <v>1506200</v>
+        <v>1712500</v>
       </c>
       <c r="H76" s="3">
-        <v>1328000</v>
+        <v>1554100</v>
       </c>
       <c r="I76" s="3">
-        <v>-477500</v>
+        <v>1370200</v>
       </c>
       <c r="J76" s="3">
+        <v>-492700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-915300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>82000</v>
+        <v>-52000</v>
       </c>
       <c r="E81" s="3">
-        <v>133500</v>
+        <v>84600</v>
       </c>
       <c r="F81" s="3">
-        <v>454400</v>
+        <v>137700</v>
       </c>
       <c r="G81" s="3">
-        <v>346800</v>
+        <v>468800</v>
       </c>
       <c r="H81" s="3">
-        <v>301300</v>
+        <v>357800</v>
       </c>
       <c r="I81" s="3">
-        <v>80300</v>
+        <v>310900</v>
       </c>
       <c r="J81" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-32500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,35 +3493,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>3000</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
-        <v>3100</v>
-      </c>
       <c r="G83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,36 +3742,39 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>128400</v>
+        <v>26500</v>
       </c>
       <c r="E89" s="3">
-        <v>344100</v>
+        <v>132400</v>
       </c>
       <c r="F89" s="3">
-        <v>766100</v>
+        <v>355000</v>
       </c>
       <c r="G89" s="3">
-        <v>463900</v>
+        <v>790400</v>
       </c>
       <c r="H89" s="3">
-        <v>389500</v>
+        <v>478600</v>
       </c>
       <c r="I89" s="3">
-        <v>110500</v>
+        <v>401800</v>
       </c>
       <c r="J89" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-14200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,35 +3805,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-66600</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-30900</v>
+        <v>-68700</v>
       </c>
       <c r="F91" s="3">
-        <v>-10600</v>
+        <v>-31900</v>
       </c>
       <c r="G91" s="3">
-        <v>-19500</v>
+        <v>-11000</v>
       </c>
       <c r="H91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-600</v>
-      </c>
       <c r="J91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,36 +3928,39 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34300</v>
+        <v>334700</v>
       </c>
       <c r="E94" s="3">
-        <v>-455200</v>
+        <v>-35400</v>
       </c>
       <c r="F94" s="3">
-        <v>-129400</v>
+        <v>-469600</v>
       </c>
       <c r="G94" s="3">
-        <v>-388500</v>
+        <v>-133500</v>
       </c>
       <c r="H94" s="3">
-        <v>-615600</v>
+        <v>-400800</v>
       </c>
       <c r="I94" s="3">
-        <v>-500900</v>
+        <v>-635100</v>
       </c>
       <c r="J94" s="3">
+        <v>-516800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-259600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,36 +4156,39 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11700</v>
+        <v>119900</v>
       </c>
       <c r="E100" s="3">
-        <v>-221500</v>
+        <v>-12100</v>
       </c>
       <c r="F100" s="3">
-        <v>-469400</v>
+        <v>-228500</v>
       </c>
       <c r="G100" s="3">
-        <v>-936500</v>
+        <v>-484300</v>
       </c>
       <c r="H100" s="3">
-        <v>1392200</v>
+        <v>-966300</v>
       </c>
       <c r="I100" s="3">
-        <v>470500</v>
+        <v>1436400</v>
       </c>
       <c r="J100" s="3">
+        <v>485400</v>
+      </c>
+      <c r="K100" s="3">
         <v>302800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3953,29 +4198,32 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-2900</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>-7800</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>10600</v>
+        <v>-8100</v>
       </c>
       <c r="G101" s="3">
-        <v>-8000</v>
+        <v>10900</v>
       </c>
       <c r="H101" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-11200</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3992,36 +4240,39 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>79400</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-340400</v>
+        <v>81900</v>
       </c>
       <c r="F102" s="3">
-        <v>177800</v>
+        <v>-351200</v>
       </c>
       <c r="G102" s="3">
-        <v>-869200</v>
+        <v>183500</v>
       </c>
       <c r="H102" s="3">
-        <v>1155200</v>
+        <v>-896800</v>
       </c>
       <c r="I102" s="3">
-        <v>80100</v>
+        <v>1191900</v>
       </c>
       <c r="J102" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K102" s="3">
         <v>29000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>82900</v>
+        <v>82100</v>
       </c>
       <c r="E8" s="3">
-        <v>237600</v>
+        <v>235100</v>
       </c>
       <c r="F8" s="3">
-        <v>529700</v>
+        <v>524200</v>
       </c>
       <c r="G8" s="3">
-        <v>1269600</v>
+        <v>1256600</v>
       </c>
       <c r="H8" s="3">
-        <v>1104800</v>
+        <v>1093500</v>
       </c>
       <c r="I8" s="3">
-        <v>685800</v>
+        <v>678800</v>
       </c>
       <c r="J8" s="3">
-        <v>207200</v>
+        <v>205100</v>
       </c>
       <c r="K8" s="3">
         <v>32700</v>
@@ -769,19 +769,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>55000</v>
+        <v>46500</v>
       </c>
       <c r="E9" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="F9" s="3">
-        <v>92600</v>
+        <v>91700</v>
       </c>
       <c r="G9" s="3">
-        <v>52600</v>
+        <v>52000</v>
       </c>
       <c r="H9" s="3">
-        <v>287800</v>
+        <v>284800</v>
       </c>
       <c r="I9" s="3">
         <v>3400</v>
@@ -811,22 +811,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27900</v>
+        <v>35600</v>
       </c>
       <c r="E10" s="3">
-        <v>226300</v>
+        <v>224000</v>
       </c>
       <c r="F10" s="3">
-        <v>437000</v>
+        <v>432500</v>
       </c>
       <c r="G10" s="3">
-        <v>1217000</v>
+        <v>1204600</v>
       </c>
       <c r="H10" s="3">
-        <v>817000</v>
+        <v>808600</v>
       </c>
       <c r="I10" s="3">
-        <v>682400</v>
+        <v>675400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E12" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="F12" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="G12" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="H12" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="I12" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="J12" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="K12" s="3">
         <v>5200</v>
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>38600</v>
+        <v>38200</v>
       </c>
       <c r="E14" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>130300</v>
+        <v>128900</v>
       </c>
       <c r="E17" s="3">
-        <v>105000</v>
+        <v>104000</v>
       </c>
       <c r="F17" s="3">
-        <v>405300</v>
+        <v>401200</v>
       </c>
       <c r="G17" s="3">
-        <v>716800</v>
+        <v>709500</v>
       </c>
       <c r="H17" s="3">
-        <v>718500</v>
+        <v>711200</v>
       </c>
       <c r="I17" s="3">
-        <v>338100</v>
+        <v>334600</v>
       </c>
       <c r="J17" s="3">
-        <v>104800</v>
+        <v>103700</v>
       </c>
       <c r="K17" s="3">
         <v>64900</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-47300</v>
+        <v>-46800</v>
       </c>
       <c r="E18" s="3">
-        <v>132500</v>
+        <v>131200</v>
       </c>
       <c r="F18" s="3">
-        <v>124300</v>
+        <v>123000</v>
       </c>
       <c r="G18" s="3">
-        <v>552800</v>
+        <v>547100</v>
       </c>
       <c r="H18" s="3">
-        <v>386200</v>
+        <v>382300</v>
       </c>
       <c r="I18" s="3">
-        <v>347700</v>
+        <v>344200</v>
       </c>
       <c r="J18" s="3">
-        <v>102400</v>
+        <v>101400</v>
       </c>
       <c r="K18" s="3">
         <v>-32200</v>
@@ -1156,19 +1156,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="E20" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="F20" s="3">
-        <v>54900</v>
+        <v>54300</v>
       </c>
       <c r="G20" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="H20" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="I20" s="3">
         <v>-200</v>
@@ -1197,26 +1197,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-36700</v>
       </c>
       <c r="E21" s="3">
-        <v>127000</v>
+        <v>125700</v>
       </c>
       <c r="F21" s="3">
-        <v>180700</v>
+        <v>178900</v>
       </c>
       <c r="G21" s="3">
-        <v>565400</v>
+        <v>559600</v>
       </c>
       <c r="H21" s="3">
-        <v>382200</v>
+        <v>378300</v>
       </c>
       <c r="I21" s="3">
-        <v>348400</v>
+        <v>344800</v>
       </c>
       <c r="J21" s="3">
-        <v>101300</v>
+        <v>100200</v>
       </c>
       <c r="K21" s="3">
         <v>-32400</v>
@@ -1239,8 +1239,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>2300</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38700</v>
+        <v>-38300</v>
       </c>
       <c r="E23" s="3">
-        <v>121600</v>
+        <v>120300</v>
       </c>
       <c r="F23" s="3">
-        <v>175300</v>
+        <v>173500</v>
       </c>
       <c r="G23" s="3">
-        <v>558800</v>
+        <v>553000</v>
       </c>
       <c r="H23" s="3">
-        <v>380500</v>
+        <v>376600</v>
       </c>
       <c r="I23" s="3">
-        <v>347600</v>
+        <v>344000</v>
       </c>
       <c r="J23" s="3">
-        <v>101000</v>
+        <v>100000</v>
       </c>
       <c r="K23" s="3">
         <v>-32500</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="E24" s="3">
-        <v>37400</v>
+        <v>37000</v>
       </c>
       <c r="F24" s="3">
-        <v>37600</v>
+        <v>37200</v>
       </c>
       <c r="G24" s="3">
-        <v>89900</v>
+        <v>89000</v>
       </c>
       <c r="H24" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="I24" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="J24" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="E26" s="3">
-        <v>84200</v>
+        <v>83300</v>
       </c>
       <c r="F26" s="3">
-        <v>137700</v>
+        <v>136300</v>
       </c>
       <c r="G26" s="3">
-        <v>468800</v>
+        <v>464000</v>
       </c>
       <c r="H26" s="3">
-        <v>357800</v>
+        <v>354100</v>
       </c>
       <c r="I26" s="3">
-        <v>310900</v>
+        <v>307700</v>
       </c>
       <c r="J26" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="K26" s="3">
         <v>-32500</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="E27" s="3">
-        <v>84600</v>
+        <v>83700</v>
       </c>
       <c r="F27" s="3">
-        <v>137700</v>
+        <v>136300</v>
       </c>
       <c r="G27" s="3">
-        <v>468800</v>
+        <v>464000</v>
       </c>
       <c r="H27" s="3">
-        <v>357800</v>
+        <v>354100</v>
       </c>
       <c r="I27" s="3">
-        <v>310900</v>
+        <v>307700</v>
       </c>
       <c r="J27" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="K27" s="3">
         <v>-32500</v>
@@ -1660,19 +1660,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="E32" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="F32" s="3">
-        <v>-54900</v>
+        <v>-54300</v>
       </c>
       <c r="G32" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="H32" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="I32" s="3">
         <v>200</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="E33" s="3">
-        <v>84600</v>
+        <v>83700</v>
       </c>
       <c r="F33" s="3">
-        <v>137700</v>
+        <v>136300</v>
       </c>
       <c r="G33" s="3">
-        <v>468800</v>
+        <v>464000</v>
       </c>
       <c r="H33" s="3">
-        <v>357800</v>
+        <v>354100</v>
       </c>
       <c r="I33" s="3">
-        <v>310900</v>
+        <v>307700</v>
       </c>
       <c r="J33" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="K33" s="3">
         <v>-32500</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="E35" s="3">
-        <v>84600</v>
+        <v>83700</v>
       </c>
       <c r="F35" s="3">
-        <v>137700</v>
+        <v>136300</v>
       </c>
       <c r="G35" s="3">
-        <v>468800</v>
+        <v>464000</v>
       </c>
       <c r="H35" s="3">
-        <v>357800</v>
+        <v>354100</v>
       </c>
       <c r="I35" s="3">
-        <v>310900</v>
+        <v>307700</v>
       </c>
       <c r="J35" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="K35" s="3">
         <v>-32500</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>503000</v>
+        <v>495600</v>
       </c>
       <c r="E41" s="3">
-        <v>296600</v>
+        <v>293600</v>
       </c>
       <c r="F41" s="3">
-        <v>220800</v>
+        <v>218600</v>
       </c>
       <c r="G41" s="3">
-        <v>410900</v>
+        <v>406700</v>
       </c>
       <c r="H41" s="3">
-        <v>359200</v>
+        <v>355500</v>
       </c>
       <c r="I41" s="3">
-        <v>981300</v>
+        <v>971200</v>
       </c>
       <c r="J41" s="3">
-        <v>112900</v>
+        <v>111700</v>
       </c>
       <c r="K41" s="3">
         <v>29200</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>772400</v>
+        <v>764500</v>
       </c>
       <c r="E42" s="3">
-        <v>851200</v>
+        <v>842500</v>
       </c>
       <c r="F42" s="3">
-        <v>724200</v>
+        <v>716800</v>
       </c>
       <c r="G42" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>43100</v>
+        <v>42600</v>
       </c>
       <c r="J42" s="3">
-        <v>61800</v>
+        <v>61200</v>
       </c>
       <c r="K42" s="3">
         <v>6800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>280800</v>
       </c>
       <c r="E43" s="3">
-        <v>571500</v>
+        <v>565700</v>
       </c>
       <c r="F43" s="3">
-        <v>694600</v>
+        <v>687500</v>
       </c>
       <c r="G43" s="3">
-        <v>1814200</v>
+        <v>1795600</v>
       </c>
       <c r="H43" s="3">
-        <v>1640200</v>
+        <v>1623400</v>
       </c>
       <c r="I43" s="3">
-        <v>1290100</v>
+        <v>1276900</v>
       </c>
       <c r="J43" s="3">
-        <v>736300</v>
+        <v>728800</v>
       </c>
       <c r="K43" s="3">
         <v>299300</v>
@@ -2036,23 +2036,23 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>16600</v>
       </c>
       <c r="E44" s="3">
         <v>2200</v>
       </c>
       <c r="F44" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="G44" s="3">
         <v>1300</v>
       </c>
       <c r="H44" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="I44" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>312600</v>
+        <v>14400</v>
       </c>
       <c r="E45" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="F45" s="3">
-        <v>26200</v>
+        <v>25900</v>
       </c>
       <c r="G45" s="3">
-        <v>185400</v>
+        <v>183500</v>
       </c>
       <c r="H45" s="3">
-        <v>63100</v>
+        <v>62500</v>
       </c>
       <c r="I45" s="3">
-        <v>430600</v>
+        <v>426200</v>
       </c>
       <c r="J45" s="3">
-        <v>84100</v>
+        <v>83300</v>
       </c>
       <c r="K45" s="3">
         <v>4900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1588200</v>
+        <v>1572000</v>
       </c>
       <c r="E46" s="3">
-        <v>1754800</v>
+        <v>1736800</v>
       </c>
       <c r="F46" s="3">
-        <v>1679000</v>
+        <v>1661800</v>
       </c>
       <c r="G46" s="3">
-        <v>2444900</v>
+        <v>2419900</v>
       </c>
       <c r="H46" s="3">
-        <v>2080900</v>
+        <v>2059600</v>
       </c>
       <c r="I46" s="3">
-        <v>2755400</v>
+        <v>2727200</v>
       </c>
       <c r="J46" s="3">
-        <v>995100</v>
+        <v>984900</v>
       </c>
       <c r="K46" s="3">
         <v>340300</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="E47" s="3">
-        <v>53400</v>
+        <v>52900</v>
       </c>
       <c r="F47" s="3">
-        <v>87800</v>
+        <v>86900</v>
       </c>
       <c r="G47" s="3">
-        <v>112300</v>
+        <v>111100</v>
       </c>
       <c r="H47" s="3">
-        <v>195900</v>
+        <v>193800</v>
       </c>
       <c r="I47" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J47" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="K47" s="3">
         <v>24900</v>
@@ -2205,19 +2205,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>126000</v>
+        <v>124700</v>
       </c>
       <c r="E48" s="3">
-        <v>137800</v>
+        <v>136400</v>
       </c>
       <c r="F48" s="3">
-        <v>73800</v>
+        <v>73000</v>
       </c>
       <c r="G48" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="H48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2259,7 +2259,7 @@
         <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="I49" s="3">
         <v>800</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64800</v>
+        <v>64100</v>
       </c>
       <c r="E52" s="3">
-        <v>76200</v>
+        <v>75400</v>
       </c>
       <c r="F52" s="3">
-        <v>82500</v>
+        <v>81600</v>
       </c>
       <c r="G52" s="3">
-        <v>44200</v>
+        <v>43800</v>
       </c>
       <c r="H52" s="3">
-        <v>37400</v>
+        <v>37000</v>
       </c>
       <c r="I52" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="J52" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K52" s="3">
         <v>7000</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1830600</v>
+        <v>1811900</v>
       </c>
       <c r="E54" s="3">
-        <v>2023800</v>
+        <v>2003100</v>
       </c>
       <c r="F54" s="3">
-        <v>1924200</v>
+        <v>1904500</v>
       </c>
       <c r="G54" s="3">
-        <v>2637100</v>
+        <v>2610100</v>
       </c>
       <c r="H54" s="3">
-        <v>2334300</v>
+        <v>2310400</v>
       </c>
       <c r="I54" s="3">
-        <v>2783400</v>
+        <v>2754900</v>
       </c>
       <c r="J54" s="3">
-        <v>1022200</v>
+        <v>1011800</v>
       </c>
       <c r="K54" s="3">
         <v>372400</v>
@@ -2577,7 +2577,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2586,16 +2586,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>150700</v>
+        <v>149200</v>
       </c>
       <c r="H58" s="3">
-        <v>554400</v>
+        <v>548800</v>
       </c>
       <c r="I58" s="3">
-        <v>1146000</v>
+        <v>1134300</v>
       </c>
       <c r="J58" s="3">
-        <v>600800</v>
+        <v>594600</v>
       </c>
       <c r="K58" s="3">
         <v>217600</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79800</v>
+        <v>79000</v>
       </c>
       <c r="E59" s="3">
-        <v>70900</v>
+        <v>70200</v>
       </c>
       <c r="F59" s="3">
-        <v>67900</v>
+        <v>67200</v>
       </c>
       <c r="G59" s="3">
-        <v>409000</v>
+        <v>404800</v>
       </c>
       <c r="H59" s="3">
-        <v>166400</v>
+        <v>164700</v>
       </c>
       <c r="I59" s="3">
-        <v>194000</v>
+        <v>192000</v>
       </c>
       <c r="J59" s="3">
-        <v>49500</v>
+        <v>49000</v>
       </c>
       <c r="K59" s="3">
         <v>230300</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>84000</v>
+        <v>83100</v>
       </c>
       <c r="E60" s="3">
-        <v>70900</v>
+        <v>70200</v>
       </c>
       <c r="F60" s="3">
-        <v>67900</v>
+        <v>67200</v>
       </c>
       <c r="G60" s="3">
-        <v>559700</v>
+        <v>554000</v>
       </c>
       <c r="H60" s="3">
-        <v>720900</v>
+        <v>713500</v>
       </c>
       <c r="I60" s="3">
-        <v>1340000</v>
+        <v>1326300</v>
       </c>
       <c r="J60" s="3">
-        <v>650300</v>
+        <v>643600</v>
       </c>
       <c r="K60" s="3">
         <v>447900</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E61" s="3">
-        <v>118700</v>
+        <v>117500</v>
       </c>
       <c r="F61" s="3">
-        <v>132800</v>
+        <v>131400</v>
       </c>
       <c r="G61" s="3">
-        <v>336000</v>
+        <v>332600</v>
       </c>
       <c r="H61" s="3">
-        <v>59400</v>
+        <v>58800</v>
       </c>
       <c r="I61" s="3">
-        <v>73200</v>
+        <v>72500</v>
       </c>
       <c r="J61" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="K61" s="3">
         <v>12400</v>
@@ -2748,13 +2748,13 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="F62" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="G62" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101100</v>
+        <v>100000</v>
       </c>
       <c r="E66" s="3">
-        <v>226100</v>
+        <v>223800</v>
       </c>
       <c r="F66" s="3">
-        <v>215200</v>
+        <v>213000</v>
       </c>
       <c r="G66" s="3">
-        <v>924600</v>
+        <v>915100</v>
       </c>
       <c r="H66" s="3">
-        <v>780300</v>
+        <v>772300</v>
       </c>
       <c r="I66" s="3">
-        <v>1413200</v>
+        <v>1398800</v>
       </c>
       <c r="J66" s="3">
-        <v>661200</v>
+        <v>654500</v>
       </c>
       <c r="K66" s="3">
         <v>460300</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>853700</v>
+        <v>844900</v>
       </c>
       <c r="K70" s="3">
         <v>827400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1226400</v>
+        <v>1213900</v>
       </c>
       <c r="E72" s="3">
-        <v>1278900</v>
+        <v>1265800</v>
       </c>
       <c r="F72" s="3">
-        <v>1194300</v>
+        <v>1182000</v>
       </c>
       <c r="G72" s="3">
-        <v>1196500</v>
+        <v>1184300</v>
       </c>
       <c r="H72" s="3">
-        <v>727700</v>
+        <v>720300</v>
       </c>
       <c r="I72" s="3">
-        <v>354400</v>
+        <v>350800</v>
       </c>
       <c r="J72" s="3">
-        <v>-504200</v>
+        <v>-499100</v>
       </c>
       <c r="K72" s="3">
         <v>-923400</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1729600</v>
+        <v>1711900</v>
       </c>
       <c r="E76" s="3">
-        <v>1797600</v>
+        <v>1779200</v>
       </c>
       <c r="F76" s="3">
-        <v>1709100</v>
+        <v>1691600</v>
       </c>
       <c r="G76" s="3">
-        <v>1712500</v>
+        <v>1695000</v>
       </c>
       <c r="H76" s="3">
-        <v>1554100</v>
+        <v>1538200</v>
       </c>
       <c r="I76" s="3">
-        <v>1370200</v>
+        <v>1356200</v>
       </c>
       <c r="J76" s="3">
-        <v>-492700</v>
+        <v>-487600</v>
       </c>
       <c r="K76" s="3">
         <v>-915300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="E81" s="3">
-        <v>84600</v>
+        <v>83700</v>
       </c>
       <c r="F81" s="3">
-        <v>137700</v>
+        <v>136300</v>
       </c>
       <c r="G81" s="3">
-        <v>468800</v>
+        <v>464000</v>
       </c>
       <c r="H81" s="3">
-        <v>357800</v>
+        <v>354100</v>
       </c>
       <c r="I81" s="3">
-        <v>310900</v>
+        <v>307700</v>
       </c>
       <c r="J81" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="K81" s="3">
         <v>-32500</v>
@@ -3499,8 +3499,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
         <v>3100</v>
@@ -3509,7 +3509,7 @@
         <v>1500</v>
       </c>
       <c r="G83" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26500</v>
+        <v>37100</v>
       </c>
       <c r="E89" s="3">
-        <v>132400</v>
+        <v>131100</v>
       </c>
       <c r="F89" s="3">
-        <v>355000</v>
+        <v>351400</v>
       </c>
       <c r="G89" s="3">
-        <v>790400</v>
+        <v>782300</v>
       </c>
       <c r="H89" s="3">
-        <v>478600</v>
+        <v>473700</v>
       </c>
       <c r="I89" s="3">
-        <v>401800</v>
+        <v>397700</v>
       </c>
       <c r="J89" s="3">
-        <v>114000</v>
+        <v>112900</v>
       </c>
       <c r="K89" s="3">
         <v>-14200</v>
@@ -3811,20 +3811,20 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-38900</v>
       </c>
       <c r="E91" s="3">
-        <v>-68700</v>
+        <v>-68000</v>
       </c>
       <c r="F91" s="3">
-        <v>-31900</v>
+        <v>-31500</v>
       </c>
       <c r="G91" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="H91" s="3">
-        <v>-20200</v>
+        <v>-20000</v>
       </c>
       <c r="I91" s="3">
         <v>-1600</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>334700</v>
+        <v>267900</v>
       </c>
       <c r="E94" s="3">
-        <v>-35400</v>
+        <v>-35100</v>
       </c>
       <c r="F94" s="3">
-        <v>-469600</v>
+        <v>-464800</v>
       </c>
       <c r="G94" s="3">
-        <v>-133500</v>
+        <v>-132100</v>
       </c>
       <c r="H94" s="3">
-        <v>-400800</v>
+        <v>-396700</v>
       </c>
       <c r="I94" s="3">
-        <v>-635100</v>
+        <v>-628600</v>
       </c>
       <c r="J94" s="3">
-        <v>-516800</v>
+        <v>-511500</v>
       </c>
       <c r="K94" s="3">
         <v>-259600</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>119900</v>
+        <v>-118700</v>
       </c>
       <c r="E100" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="F100" s="3">
-        <v>-228500</v>
+        <v>-226200</v>
       </c>
       <c r="G100" s="3">
-        <v>-484300</v>
+        <v>-479400</v>
       </c>
       <c r="H100" s="3">
-        <v>-966300</v>
+        <v>-956400</v>
       </c>
       <c r="I100" s="3">
-        <v>1436400</v>
+        <v>1421700</v>
       </c>
       <c r="J100" s="3">
-        <v>485400</v>
+        <v>480400</v>
       </c>
       <c r="K100" s="3">
         <v>302800</v>
@@ -4207,23 +4207,23 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>2600</v>
       </c>
       <c r="E101" s="3">
         <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="G101" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H101" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="I101" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4249,26 +4249,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>189000</v>
       </c>
       <c r="E102" s="3">
-        <v>81900</v>
+        <v>81100</v>
       </c>
       <c r="F102" s="3">
-        <v>-351200</v>
+        <v>-347600</v>
       </c>
       <c r="G102" s="3">
-        <v>183500</v>
+        <v>181600</v>
       </c>
       <c r="H102" s="3">
-        <v>-896800</v>
+        <v>-887600</v>
       </c>
       <c r="I102" s="3">
-        <v>1191900</v>
+        <v>1179700</v>
       </c>
       <c r="J102" s="3">
-        <v>82700</v>
+        <v>81800</v>
       </c>
       <c r="K102" s="3">
         <v>29000</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>82100</v>
+        <v>79600</v>
       </c>
       <c r="E8" s="3">
-        <v>235100</v>
+        <v>227900</v>
       </c>
       <c r="F8" s="3">
-        <v>524200</v>
+        <v>508100</v>
       </c>
       <c r="G8" s="3">
-        <v>1256600</v>
+        <v>1218000</v>
       </c>
       <c r="H8" s="3">
-        <v>1093500</v>
+        <v>1059900</v>
       </c>
       <c r="I8" s="3">
-        <v>678800</v>
+        <v>657900</v>
       </c>
       <c r="J8" s="3">
-        <v>205100</v>
+        <v>198800</v>
       </c>
       <c r="K8" s="3">
         <v>32700</v>
@@ -769,22 +769,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>46500</v>
+        <v>45000</v>
       </c>
       <c r="E9" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="F9" s="3">
-        <v>91700</v>
+        <v>88900</v>
       </c>
       <c r="G9" s="3">
-        <v>52000</v>
+        <v>50400</v>
       </c>
       <c r="H9" s="3">
-        <v>284800</v>
+        <v>276100</v>
       </c>
       <c r="I9" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -811,22 +811,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>35600</v>
+        <v>34500</v>
       </c>
       <c r="E10" s="3">
-        <v>224000</v>
+        <v>217100</v>
       </c>
       <c r="F10" s="3">
-        <v>432500</v>
+        <v>419200</v>
       </c>
       <c r="G10" s="3">
-        <v>1204600</v>
+        <v>1167600</v>
       </c>
       <c r="H10" s="3">
-        <v>808600</v>
+        <v>783800</v>
       </c>
       <c r="I10" s="3">
-        <v>675400</v>
+        <v>654700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="F12" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="G12" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="H12" s="3">
-        <v>28400</v>
+        <v>27500</v>
       </c>
       <c r="I12" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="J12" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="K12" s="3">
         <v>5200</v>
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>38200</v>
+        <v>37100</v>
       </c>
       <c r="E14" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>128900</v>
+        <v>125000</v>
       </c>
       <c r="E17" s="3">
-        <v>104000</v>
+        <v>100800</v>
       </c>
       <c r="F17" s="3">
-        <v>401200</v>
+        <v>388900</v>
       </c>
       <c r="G17" s="3">
-        <v>709500</v>
+        <v>687700</v>
       </c>
       <c r="H17" s="3">
-        <v>711200</v>
+        <v>689300</v>
       </c>
       <c r="I17" s="3">
-        <v>334600</v>
+        <v>324400</v>
       </c>
       <c r="J17" s="3">
-        <v>103700</v>
+        <v>100500</v>
       </c>
       <c r="K17" s="3">
         <v>64900</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-46800</v>
+        <v>-45400</v>
       </c>
       <c r="E18" s="3">
-        <v>131200</v>
+        <v>127100</v>
       </c>
       <c r="F18" s="3">
-        <v>123000</v>
+        <v>119300</v>
       </c>
       <c r="G18" s="3">
-        <v>547100</v>
+        <v>530300</v>
       </c>
       <c r="H18" s="3">
-        <v>382300</v>
+        <v>370500</v>
       </c>
       <c r="I18" s="3">
-        <v>344200</v>
+        <v>333600</v>
       </c>
       <c r="J18" s="3">
-        <v>101400</v>
+        <v>98200</v>
       </c>
       <c r="K18" s="3">
         <v>-32200</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E20" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="F20" s="3">
-        <v>54300</v>
+        <v>52700</v>
       </c>
       <c r="G20" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="H20" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="I20" s="3">
         <v>-200</v>
       </c>
       <c r="J20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K20" s="3">
         <v>-300</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-36700</v>
+        <v>-35600</v>
       </c>
       <c r="E21" s="3">
-        <v>125700</v>
+        <v>121800</v>
       </c>
       <c r="F21" s="3">
-        <v>178900</v>
+        <v>173400</v>
       </c>
       <c r="G21" s="3">
-        <v>559600</v>
+        <v>542400</v>
       </c>
       <c r="H21" s="3">
-        <v>378300</v>
+        <v>366600</v>
       </c>
       <c r="I21" s="3">
-        <v>344800</v>
+        <v>334200</v>
       </c>
       <c r="J21" s="3">
-        <v>100200</v>
+        <v>97100</v>
       </c>
       <c r="K21" s="3">
         <v>-32400</v>
@@ -1243,13 +1243,13 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F22" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G22" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38300</v>
+        <v>-37100</v>
       </c>
       <c r="E23" s="3">
-        <v>120300</v>
+        <v>116600</v>
       </c>
       <c r="F23" s="3">
-        <v>173500</v>
+        <v>168200</v>
       </c>
       <c r="G23" s="3">
-        <v>553000</v>
+        <v>536000</v>
       </c>
       <c r="H23" s="3">
-        <v>376600</v>
+        <v>365000</v>
       </c>
       <c r="I23" s="3">
-        <v>344000</v>
+        <v>333400</v>
       </c>
       <c r="J23" s="3">
-        <v>100000</v>
+        <v>96900</v>
       </c>
       <c r="K23" s="3">
         <v>-32500</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="E24" s="3">
-        <v>37000</v>
+        <v>35900</v>
       </c>
       <c r="F24" s="3">
-        <v>37200</v>
+        <v>36100</v>
       </c>
       <c r="G24" s="3">
-        <v>89000</v>
+        <v>86300</v>
       </c>
       <c r="H24" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="I24" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="J24" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-51500</v>
+        <v>-49900</v>
       </c>
       <c r="E26" s="3">
-        <v>83300</v>
+        <v>80700</v>
       </c>
       <c r="F26" s="3">
-        <v>136300</v>
+        <v>132100</v>
       </c>
       <c r="G26" s="3">
-        <v>464000</v>
+        <v>449800</v>
       </c>
       <c r="H26" s="3">
-        <v>354100</v>
+        <v>343300</v>
       </c>
       <c r="I26" s="3">
-        <v>307700</v>
+        <v>298200</v>
       </c>
       <c r="J26" s="3">
-        <v>82000</v>
+        <v>79500</v>
       </c>
       <c r="K26" s="3">
         <v>-32500</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-51500</v>
+        <v>-49900</v>
       </c>
       <c r="E27" s="3">
-        <v>83700</v>
+        <v>81200</v>
       </c>
       <c r="F27" s="3">
-        <v>136300</v>
+        <v>132100</v>
       </c>
       <c r="G27" s="3">
-        <v>464000</v>
+        <v>449800</v>
       </c>
       <c r="H27" s="3">
-        <v>354100</v>
+        <v>343300</v>
       </c>
       <c r="I27" s="3">
-        <v>307700</v>
+        <v>298200</v>
       </c>
       <c r="J27" s="3">
-        <v>82000</v>
+        <v>79500</v>
       </c>
       <c r="K27" s="3">
         <v>-32500</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="E32" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="F32" s="3">
-        <v>-54300</v>
+        <v>-52700</v>
       </c>
       <c r="G32" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="H32" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="I32" s="3">
         <v>200</v>
       </c>
       <c r="J32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K32" s="3">
         <v>300</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-51500</v>
+        <v>-49900</v>
       </c>
       <c r="E33" s="3">
-        <v>83700</v>
+        <v>81200</v>
       </c>
       <c r="F33" s="3">
-        <v>136300</v>
+        <v>132100</v>
       </c>
       <c r="G33" s="3">
-        <v>464000</v>
+        <v>449800</v>
       </c>
       <c r="H33" s="3">
-        <v>354100</v>
+        <v>343300</v>
       </c>
       <c r="I33" s="3">
-        <v>307700</v>
+        <v>298200</v>
       </c>
       <c r="J33" s="3">
-        <v>82000</v>
+        <v>79500</v>
       </c>
       <c r="K33" s="3">
         <v>-32500</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-51500</v>
+        <v>-49900</v>
       </c>
       <c r="E35" s="3">
-        <v>83700</v>
+        <v>81200</v>
       </c>
       <c r="F35" s="3">
-        <v>136300</v>
+        <v>132100</v>
       </c>
       <c r="G35" s="3">
-        <v>464000</v>
+        <v>449800</v>
       </c>
       <c r="H35" s="3">
-        <v>354100</v>
+        <v>343300</v>
       </c>
       <c r="I35" s="3">
-        <v>307700</v>
+        <v>298200</v>
       </c>
       <c r="J35" s="3">
-        <v>82000</v>
+        <v>79500</v>
       </c>
       <c r="K35" s="3">
         <v>-32500</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>495600</v>
+        <v>480400</v>
       </c>
       <c r="E41" s="3">
-        <v>293600</v>
+        <v>284600</v>
       </c>
       <c r="F41" s="3">
-        <v>218600</v>
+        <v>211800</v>
       </c>
       <c r="G41" s="3">
-        <v>406700</v>
+        <v>394200</v>
       </c>
       <c r="H41" s="3">
-        <v>355500</v>
+        <v>344600</v>
       </c>
       <c r="I41" s="3">
-        <v>971200</v>
+        <v>941400</v>
       </c>
       <c r="J41" s="3">
-        <v>111700</v>
+        <v>108300</v>
       </c>
       <c r="K41" s="3">
         <v>29200</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>764500</v>
+        <v>741000</v>
       </c>
       <c r="E42" s="3">
-        <v>842500</v>
+        <v>816600</v>
       </c>
       <c r="F42" s="3">
-        <v>716800</v>
+        <v>694700</v>
       </c>
       <c r="G42" s="3">
-        <v>32900</v>
+        <v>31800</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="J42" s="3">
-        <v>61200</v>
+        <v>59300</v>
       </c>
       <c r="K42" s="3">
         <v>6800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>280800</v>
+        <v>272200</v>
       </c>
       <c r="E43" s="3">
-        <v>565700</v>
+        <v>548300</v>
       </c>
       <c r="F43" s="3">
-        <v>687500</v>
+        <v>666400</v>
       </c>
       <c r="G43" s="3">
-        <v>1795600</v>
+        <v>1740400</v>
       </c>
       <c r="H43" s="3">
-        <v>1623400</v>
+        <v>1573500</v>
       </c>
       <c r="I43" s="3">
-        <v>1276900</v>
+        <v>1237700</v>
       </c>
       <c r="J43" s="3">
-        <v>728800</v>
+        <v>706400</v>
       </c>
       <c r="K43" s="3">
         <v>299300</v>
@@ -2037,22 +2037,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="E44" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F44" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="G44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H44" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="I44" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="E45" s="3">
-        <v>32900</v>
+        <v>31900</v>
       </c>
       <c r="F45" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="G45" s="3">
-        <v>183500</v>
+        <v>177800</v>
       </c>
       <c r="H45" s="3">
-        <v>62500</v>
+        <v>60500</v>
       </c>
       <c r="I45" s="3">
-        <v>426200</v>
+        <v>413100</v>
       </c>
       <c r="J45" s="3">
-        <v>83300</v>
+        <v>80700</v>
       </c>
       <c r="K45" s="3">
         <v>4900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1572000</v>
+        <v>1523600</v>
       </c>
       <c r="E46" s="3">
-        <v>1736800</v>
+        <v>1683400</v>
       </c>
       <c r="F46" s="3">
-        <v>1661800</v>
+        <v>1610700</v>
       </c>
       <c r="G46" s="3">
-        <v>2419900</v>
+        <v>2345500</v>
       </c>
       <c r="H46" s="3">
-        <v>2059600</v>
+        <v>1996300</v>
       </c>
       <c r="I46" s="3">
-        <v>2727200</v>
+        <v>2643400</v>
       </c>
       <c r="J46" s="3">
-        <v>984900</v>
+        <v>954700</v>
       </c>
       <c r="K46" s="3">
         <v>340300</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="E47" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="F47" s="3">
-        <v>86900</v>
+        <v>84200</v>
       </c>
       <c r="G47" s="3">
-        <v>111100</v>
+        <v>107700</v>
       </c>
       <c r="H47" s="3">
-        <v>193800</v>
+        <v>187900</v>
       </c>
       <c r="I47" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="J47" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="K47" s="3">
         <v>24900</v>
@@ -2205,22 +2205,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>124700</v>
+        <v>120800</v>
       </c>
       <c r="E48" s="3">
-        <v>136400</v>
+        <v>132200</v>
       </c>
       <c r="F48" s="3">
-        <v>73000</v>
+        <v>70800</v>
       </c>
       <c r="G48" s="3">
-        <v>34400</v>
+        <v>33300</v>
       </c>
       <c r="H48" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
@@ -2247,19 +2247,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
       </c>
       <c r="G49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="I49" s="3">
         <v>800</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64100</v>
+        <v>62100</v>
       </c>
       <c r="E52" s="3">
-        <v>75400</v>
+        <v>73100</v>
       </c>
       <c r="F52" s="3">
-        <v>81600</v>
+        <v>79100</v>
       </c>
       <c r="G52" s="3">
-        <v>43800</v>
+        <v>42400</v>
       </c>
       <c r="H52" s="3">
-        <v>37000</v>
+        <v>35900</v>
       </c>
       <c r="I52" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="J52" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K52" s="3">
         <v>7000</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1811900</v>
+        <v>1756200</v>
       </c>
       <c r="E54" s="3">
-        <v>2003100</v>
+        <v>1941500</v>
       </c>
       <c r="F54" s="3">
-        <v>1904500</v>
+        <v>1846000</v>
       </c>
       <c r="G54" s="3">
-        <v>2610100</v>
+        <v>2529900</v>
       </c>
       <c r="H54" s="3">
-        <v>2310400</v>
+        <v>2239400</v>
       </c>
       <c r="I54" s="3">
-        <v>2754900</v>
+        <v>2670200</v>
       </c>
       <c r="J54" s="3">
-        <v>1011800</v>
+        <v>980700</v>
       </c>
       <c r="K54" s="3">
         <v>372400</v>
@@ -2577,7 +2577,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2586,16 +2586,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>149200</v>
+        <v>144600</v>
       </c>
       <c r="H58" s="3">
-        <v>548800</v>
+        <v>531900</v>
       </c>
       <c r="I58" s="3">
-        <v>1134300</v>
+        <v>1099400</v>
       </c>
       <c r="J58" s="3">
-        <v>594600</v>
+        <v>576400</v>
       </c>
       <c r="K58" s="3">
         <v>217600</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79000</v>
+        <v>76600</v>
       </c>
       <c r="E59" s="3">
-        <v>70200</v>
+        <v>68000</v>
       </c>
       <c r="F59" s="3">
-        <v>67200</v>
+        <v>65100</v>
       </c>
       <c r="G59" s="3">
-        <v>404800</v>
+        <v>392400</v>
       </c>
       <c r="H59" s="3">
-        <v>164700</v>
+        <v>159700</v>
       </c>
       <c r="I59" s="3">
-        <v>192000</v>
+        <v>186100</v>
       </c>
       <c r="J59" s="3">
-        <v>49000</v>
+        <v>47500</v>
       </c>
       <c r="K59" s="3">
         <v>230300</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>83100</v>
+        <v>80600</v>
       </c>
       <c r="E60" s="3">
-        <v>70200</v>
+        <v>68000</v>
       </c>
       <c r="F60" s="3">
-        <v>67200</v>
+        <v>65100</v>
       </c>
       <c r="G60" s="3">
-        <v>554000</v>
+        <v>537000</v>
       </c>
       <c r="H60" s="3">
-        <v>713500</v>
+        <v>691600</v>
       </c>
       <c r="I60" s="3">
-        <v>1326300</v>
+        <v>1285500</v>
       </c>
       <c r="J60" s="3">
-        <v>643600</v>
+        <v>623900</v>
       </c>
       <c r="K60" s="3">
         <v>447900</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="E61" s="3">
-        <v>117500</v>
+        <v>113900</v>
       </c>
       <c r="F61" s="3">
-        <v>131400</v>
+        <v>127400</v>
       </c>
       <c r="G61" s="3">
-        <v>332600</v>
+        <v>322300</v>
       </c>
       <c r="H61" s="3">
-        <v>58800</v>
+        <v>57000</v>
       </c>
       <c r="I61" s="3">
-        <v>72500</v>
+        <v>70300</v>
       </c>
       <c r="J61" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="K61" s="3">
         <v>12400</v>
@@ -2748,13 +2748,13 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="F62" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="G62" s="3">
-        <v>28500</v>
+        <v>27600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100000</v>
+        <v>97000</v>
       </c>
       <c r="E66" s="3">
-        <v>223800</v>
+        <v>216900</v>
       </c>
       <c r="F66" s="3">
-        <v>213000</v>
+        <v>206400</v>
       </c>
       <c r="G66" s="3">
-        <v>915100</v>
+        <v>887000</v>
       </c>
       <c r="H66" s="3">
-        <v>772300</v>
+        <v>748500</v>
       </c>
       <c r="I66" s="3">
-        <v>1398800</v>
+        <v>1355800</v>
       </c>
       <c r="J66" s="3">
-        <v>654500</v>
+        <v>634300</v>
       </c>
       <c r="K66" s="3">
         <v>460300</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>844900</v>
+        <v>819000</v>
       </c>
       <c r="K70" s="3">
         <v>827400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1213900</v>
+        <v>1176500</v>
       </c>
       <c r="E72" s="3">
-        <v>1265800</v>
+        <v>1226900</v>
       </c>
       <c r="F72" s="3">
-        <v>1182000</v>
+        <v>1145700</v>
       </c>
       <c r="G72" s="3">
-        <v>1184300</v>
+        <v>1147900</v>
       </c>
       <c r="H72" s="3">
-        <v>720300</v>
+        <v>698100</v>
       </c>
       <c r="I72" s="3">
-        <v>350800</v>
+        <v>340000</v>
       </c>
       <c r="J72" s="3">
-        <v>-499100</v>
+        <v>-483700</v>
       </c>
       <c r="K72" s="3">
         <v>-923400</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1711900</v>
+        <v>1659200</v>
       </c>
       <c r="E76" s="3">
-        <v>1779200</v>
+        <v>1724500</v>
       </c>
       <c r="F76" s="3">
-        <v>1691600</v>
+        <v>1639600</v>
       </c>
       <c r="G76" s="3">
-        <v>1695000</v>
+        <v>1642900</v>
       </c>
       <c r="H76" s="3">
-        <v>1538200</v>
+        <v>1490900</v>
       </c>
       <c r="I76" s="3">
-        <v>1356200</v>
+        <v>1314500</v>
       </c>
       <c r="J76" s="3">
-        <v>-487600</v>
+        <v>-472700</v>
       </c>
       <c r="K76" s="3">
         <v>-915300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-51500</v>
+        <v>-49900</v>
       </c>
       <c r="E81" s="3">
-        <v>83700</v>
+        <v>81200</v>
       </c>
       <c r="F81" s="3">
-        <v>136300</v>
+        <v>132100</v>
       </c>
       <c r="G81" s="3">
-        <v>464000</v>
+        <v>449800</v>
       </c>
       <c r="H81" s="3">
-        <v>354100</v>
+        <v>343300</v>
       </c>
       <c r="I81" s="3">
-        <v>307700</v>
+        <v>298200</v>
       </c>
       <c r="J81" s="3">
-        <v>82000</v>
+        <v>79500</v>
       </c>
       <c r="K81" s="3">
         <v>-32500</v>
@@ -3503,13 +3503,13 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="F83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G83" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37100</v>
+        <v>35900</v>
       </c>
       <c r="E89" s="3">
-        <v>131100</v>
+        <v>127000</v>
       </c>
       <c r="F89" s="3">
-        <v>351400</v>
+        <v>340600</v>
       </c>
       <c r="G89" s="3">
-        <v>782300</v>
+        <v>758300</v>
       </c>
       <c r="H89" s="3">
-        <v>473700</v>
+        <v>459100</v>
       </c>
       <c r="I89" s="3">
-        <v>397700</v>
+        <v>385500</v>
       </c>
       <c r="J89" s="3">
-        <v>112900</v>
+        <v>109400</v>
       </c>
       <c r="K89" s="3">
         <v>-14200</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38900</v>
+        <v>-37700</v>
       </c>
       <c r="E91" s="3">
-        <v>-68000</v>
+        <v>-65900</v>
       </c>
       <c r="F91" s="3">
-        <v>-31500</v>
+        <v>-30600</v>
       </c>
       <c r="G91" s="3">
-        <v>-10900</v>
+        <v>-10500</v>
       </c>
       <c r="H91" s="3">
-        <v>-20000</v>
+        <v>-19300</v>
       </c>
       <c r="I91" s="3">
         <v>-1600</v>
       </c>
       <c r="J91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>267900</v>
+        <v>259700</v>
       </c>
       <c r="E94" s="3">
-        <v>-35100</v>
+        <v>-34000</v>
       </c>
       <c r="F94" s="3">
-        <v>-464800</v>
+        <v>-450500</v>
       </c>
       <c r="G94" s="3">
-        <v>-132100</v>
+        <v>-128100</v>
       </c>
       <c r="H94" s="3">
-        <v>-396700</v>
+        <v>-384500</v>
       </c>
       <c r="I94" s="3">
-        <v>-628600</v>
+        <v>-609300</v>
       </c>
       <c r="J94" s="3">
-        <v>-511500</v>
+        <v>-495800</v>
       </c>
       <c r="K94" s="3">
         <v>-259600</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-118700</v>
+        <v>-115000</v>
       </c>
       <c r="E100" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="F100" s="3">
-        <v>-226200</v>
+        <v>-219200</v>
       </c>
       <c r="G100" s="3">
-        <v>-479400</v>
+        <v>-464600</v>
       </c>
       <c r="H100" s="3">
-        <v>-956400</v>
+        <v>-927000</v>
       </c>
       <c r="I100" s="3">
-        <v>1421700</v>
+        <v>1378000</v>
       </c>
       <c r="J100" s="3">
-        <v>480400</v>
+        <v>465700</v>
       </c>
       <c r="K100" s="3">
         <v>302800</v>
@@ -4211,19 +4211,19 @@
         <v>2600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="G101" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="H101" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="I101" s="3">
-        <v>-11100</v>
+        <v>-10700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>189000</v>
+        <v>183200</v>
       </c>
       <c r="E102" s="3">
-        <v>81100</v>
+        <v>78600</v>
       </c>
       <c r="F102" s="3">
-        <v>-347600</v>
+        <v>-337000</v>
       </c>
       <c r="G102" s="3">
-        <v>181600</v>
+        <v>176000</v>
       </c>
       <c r="H102" s="3">
-        <v>-887600</v>
+        <v>-860300</v>
       </c>
       <c r="I102" s="3">
-        <v>1179700</v>
+        <v>1143500</v>
       </c>
       <c r="J102" s="3">
-        <v>81800</v>
+        <v>79300</v>
       </c>
       <c r="K102" s="3">
         <v>29000</v>

--- a/AAII_Financials/Yearly/QD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QD_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>79600</v>
+        <v>79700</v>
       </c>
       <c r="E8" s="3">
-        <v>227900</v>
+        <v>228400</v>
       </c>
       <c r="F8" s="3">
-        <v>508100</v>
+        <v>509200</v>
       </c>
       <c r="G8" s="3">
-        <v>1218000</v>
+        <v>1220600</v>
       </c>
       <c r="H8" s="3">
-        <v>1059900</v>
+        <v>1062200</v>
       </c>
       <c r="I8" s="3">
-        <v>657900</v>
+        <v>659400</v>
       </c>
       <c r="J8" s="3">
-        <v>198800</v>
+        <v>199200</v>
       </c>
       <c r="K8" s="3">
         <v>32700</v>
@@ -769,19 +769,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45000</v>
+        <v>45100</v>
       </c>
       <c r="E9" s="3">
         <v>10800</v>
       </c>
       <c r="F9" s="3">
-        <v>88900</v>
+        <v>89100</v>
       </c>
       <c r="G9" s="3">
-        <v>50400</v>
+        <v>50500</v>
       </c>
       <c r="H9" s="3">
-        <v>276100</v>
+        <v>276700</v>
       </c>
       <c r="I9" s="3">
         <v>3300</v>
@@ -811,22 +811,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>34500</v>
+        <v>34600</v>
       </c>
       <c r="E10" s="3">
-        <v>217100</v>
+        <v>217500</v>
       </c>
       <c r="F10" s="3">
-        <v>419200</v>
+        <v>420200</v>
       </c>
       <c r="G10" s="3">
-        <v>1167600</v>
+        <v>1170100</v>
       </c>
       <c r="H10" s="3">
-        <v>783800</v>
+        <v>785500</v>
       </c>
       <c r="I10" s="3">
-        <v>654700</v>
+        <v>656100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -877,16 +877,16 @@
         <v>19500</v>
       </c>
       <c r="F12" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="G12" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="H12" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="I12" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="J12" s="3">
         <v>7200</v>
@@ -958,7 +958,7 @@
         <v>37100</v>
       </c>
       <c r="E14" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>125000</v>
+        <v>125200</v>
       </c>
       <c r="E17" s="3">
+        <v>101000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>389700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>689200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>690800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>325100</v>
+      </c>
+      <c r="J17" s="3">
         <v>100800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>388900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>687700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>689300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>324400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100500</v>
       </c>
       <c r="K17" s="3">
         <v>64900</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-45400</v>
+        <v>-45500</v>
       </c>
       <c r="E18" s="3">
-        <v>127100</v>
+        <v>127400</v>
       </c>
       <c r="F18" s="3">
-        <v>119300</v>
+        <v>119500</v>
       </c>
       <c r="G18" s="3">
-        <v>530300</v>
+        <v>531400</v>
       </c>
       <c r="H18" s="3">
-        <v>370500</v>
+        <v>371300</v>
       </c>
       <c r="I18" s="3">
-        <v>333600</v>
+        <v>334300</v>
       </c>
       <c r="J18" s="3">
-        <v>98200</v>
+        <v>98500</v>
       </c>
       <c r="K18" s="3">
         <v>-32200</v>
@@ -1162,7 +1162,7 @@
         <v>-8300</v>
       </c>
       <c r="F20" s="3">
-        <v>52700</v>
+        <v>52800</v>
       </c>
       <c r="G20" s="3">
         <v>9100</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-35600</v>
+        <v>-35700</v>
       </c>
       <c r="E21" s="3">
-        <v>121800</v>
+        <v>122100</v>
       </c>
       <c r="F21" s="3">
-        <v>173400</v>
+        <v>173700</v>
       </c>
       <c r="G21" s="3">
-        <v>542400</v>
+        <v>543600</v>
       </c>
       <c r="H21" s="3">
-        <v>366600</v>
+        <v>367400</v>
       </c>
       <c r="I21" s="3">
-        <v>334200</v>
+        <v>335000</v>
       </c>
       <c r="J21" s="3">
-        <v>97100</v>
+        <v>97300</v>
       </c>
       <c r="K21" s="3">
         <v>-32400</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37100</v>
+        <v>-37200</v>
       </c>
       <c r="E23" s="3">
-        <v>116600</v>
+        <v>116900</v>
       </c>
       <c r="F23" s="3">
-        <v>168200</v>
+        <v>168600</v>
       </c>
       <c r="G23" s="3">
-        <v>536000</v>
+        <v>537200</v>
       </c>
       <c r="H23" s="3">
-        <v>365000</v>
+        <v>365800</v>
       </c>
       <c r="I23" s="3">
-        <v>333400</v>
+        <v>334200</v>
       </c>
       <c r="J23" s="3">
-        <v>96900</v>
+        <v>97100</v>
       </c>
       <c r="K23" s="3">
         <v>-32500</v>
@@ -1324,22 +1324,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="E24" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="F24" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="G24" s="3">
-        <v>86300</v>
+        <v>86500</v>
       </c>
       <c r="H24" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="I24" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="J24" s="3">
         <v>17500</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-49900</v>
+        <v>-50000</v>
       </c>
       <c r="E26" s="3">
-        <v>80700</v>
+        <v>80900</v>
       </c>
       <c r="F26" s="3">
-        <v>132100</v>
+        <v>132400</v>
       </c>
       <c r="G26" s="3">
-        <v>449800</v>
+        <v>450700</v>
       </c>
       <c r="H26" s="3">
-        <v>343300</v>
+        <v>344000</v>
       </c>
       <c r="I26" s="3">
-        <v>298200</v>
+        <v>298900</v>
       </c>
       <c r="J26" s="3">
-        <v>79500</v>
+        <v>79600</v>
       </c>
       <c r="K26" s="3">
         <v>-32500</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-49900</v>
+        <v>-50000</v>
       </c>
       <c r="E27" s="3">
-        <v>81200</v>
+        <v>81300</v>
       </c>
       <c r="F27" s="3">
-        <v>132100</v>
+        <v>132400</v>
       </c>
       <c r="G27" s="3">
-        <v>449800</v>
+        <v>450700</v>
       </c>
       <c r="H27" s="3">
-        <v>343300</v>
+        <v>344000</v>
       </c>
       <c r="I27" s="3">
-        <v>298200</v>
+        <v>298900</v>
       </c>
       <c r="J27" s="3">
-        <v>79500</v>
+        <v>79600</v>
       </c>
       <c r="K27" s="3">
         <v>-32500</v>
@@ -1666,7 +1666,7 @@
         <v>8300</v>
       </c>
       <c r="F32" s="3">
-        <v>-52700</v>
+        <v>-52800</v>
       </c>
       <c r="G32" s="3">
         <v>-9100</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-49900</v>
+        <v>-50000</v>
       </c>
       <c r="E33" s="3">
-        <v>81200</v>
+        <v>81300</v>
       </c>
       <c r="F33" s="3">
-        <v>132100</v>
+        <v>132400</v>
       </c>
       <c r="G33" s="3">
-        <v>449800</v>
+        <v>450700</v>
       </c>
       <c r="H33" s="3">
-        <v>343300</v>
+        <v>344000</v>
       </c>
       <c r="I33" s="3">
-        <v>298200</v>
+        <v>298900</v>
       </c>
       <c r="J33" s="3">
-        <v>79500</v>
+        <v>79600</v>
       </c>
       <c r="K33" s="3">
         <v>-32500</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-49900</v>
+        <v>-50000</v>
       </c>
       <c r="E35" s="3">
-        <v>81200</v>
+        <v>81300</v>
       </c>
       <c r="F35" s="3">
-        <v>132100</v>
+        <v>132400</v>
       </c>
       <c r="G35" s="3">
-        <v>449800</v>
+        <v>450700</v>
       </c>
       <c r="H35" s="3">
-        <v>343300</v>
+        <v>344000</v>
       </c>
       <c r="I35" s="3">
-        <v>298200</v>
+        <v>298900</v>
       </c>
       <c r="J35" s="3">
-        <v>79500</v>
+        <v>79600</v>
       </c>
       <c r="K35" s="3">
         <v>-32500</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>480400</v>
+        <v>481400</v>
       </c>
       <c r="E41" s="3">
-        <v>284600</v>
+        <v>285200</v>
       </c>
       <c r="F41" s="3">
-        <v>211800</v>
+        <v>212300</v>
       </c>
       <c r="G41" s="3">
-        <v>394200</v>
+        <v>395000</v>
       </c>
       <c r="H41" s="3">
-        <v>344600</v>
+        <v>345400</v>
       </c>
       <c r="I41" s="3">
-        <v>941400</v>
+        <v>943400</v>
       </c>
       <c r="J41" s="3">
-        <v>108300</v>
+        <v>108500</v>
       </c>
       <c r="K41" s="3">
         <v>29200</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>741000</v>
+        <v>742600</v>
       </c>
       <c r="E42" s="3">
-        <v>816600</v>
+        <v>818300</v>
       </c>
       <c r="F42" s="3">
-        <v>694700</v>
+        <v>696200</v>
       </c>
       <c r="G42" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="J42" s="3">
-        <v>59300</v>
+        <v>59400</v>
       </c>
       <c r="K42" s="3">
         <v>6800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>272200</v>
+        <v>272800</v>
       </c>
       <c r="E43" s="3">
-        <v>548300</v>
+        <v>549500</v>
       </c>
       <c r="F43" s="3">
-        <v>666400</v>
+        <v>667800</v>
       </c>
       <c r="G43" s="3">
-        <v>1740400</v>
+        <v>1744200</v>
       </c>
       <c r="H43" s="3">
-        <v>1573500</v>
+        <v>1576900</v>
       </c>
       <c r="I43" s="3">
-        <v>1237700</v>
+        <v>1240400</v>
       </c>
       <c r="J43" s="3">
-        <v>706400</v>
+        <v>707900</v>
       </c>
       <c r="K43" s="3">
         <v>299300</v>
@@ -2049,7 +2049,7 @@
         <v>1200</v>
       </c>
       <c r="H44" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I44" s="3">
         <v>10000</v>
@@ -2082,22 +2082,22 @@
         <v>14000</v>
       </c>
       <c r="E45" s="3">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="F45" s="3">
         <v>25100</v>
       </c>
       <c r="G45" s="3">
-        <v>177800</v>
+        <v>178200</v>
       </c>
       <c r="H45" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="I45" s="3">
-        <v>413100</v>
+        <v>414000</v>
       </c>
       <c r="J45" s="3">
-        <v>80700</v>
+        <v>80900</v>
       </c>
       <c r="K45" s="3">
         <v>4900</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1523600</v>
+        <v>1527000</v>
       </c>
       <c r="E46" s="3">
-        <v>1683400</v>
+        <v>1687100</v>
       </c>
       <c r="F46" s="3">
-        <v>1610700</v>
+        <v>1614200</v>
       </c>
       <c r="G46" s="3">
-        <v>2345500</v>
+        <v>2350600</v>
       </c>
       <c r="H46" s="3">
-        <v>1996300</v>
+        <v>2000700</v>
       </c>
       <c r="I46" s="3">
-        <v>2643400</v>
+        <v>2649100</v>
       </c>
       <c r="J46" s="3">
-        <v>954700</v>
+        <v>956700</v>
       </c>
       <c r="K46" s="3">
         <v>340300</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>48200</v>
+        <v>48300</v>
       </c>
       <c r="E47" s="3">
-        <v>51300</v>
+        <v>51400</v>
       </c>
       <c r="F47" s="3">
-        <v>84200</v>
+        <v>84400</v>
       </c>
       <c r="G47" s="3">
-        <v>107700</v>
+        <v>107900</v>
       </c>
       <c r="H47" s="3">
-        <v>187900</v>
+        <v>188300</v>
       </c>
       <c r="I47" s="3">
         <v>8600</v>
       </c>
       <c r="J47" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="K47" s="3">
         <v>24900</v>
@@ -2205,16 +2205,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>120800</v>
+        <v>121100</v>
       </c>
       <c r="E48" s="3">
-        <v>132200</v>
+        <v>132500</v>
       </c>
       <c r="F48" s="3">
-        <v>70800</v>
+        <v>71000</v>
       </c>
       <c r="G48" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="H48" s="3">
         <v>3600</v>
@@ -2373,19 +2373,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="E52" s="3">
-        <v>73100</v>
+        <v>73200</v>
       </c>
       <c r="F52" s="3">
-        <v>79100</v>
+        <v>79300</v>
       </c>
       <c r="G52" s="3">
-        <v>42400</v>
+        <v>42500</v>
       </c>
       <c r="H52" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="I52" s="3">
         <v>16800</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1756200</v>
+        <v>1760000</v>
       </c>
       <c r="E54" s="3">
-        <v>1941500</v>
+        <v>1945700</v>
       </c>
       <c r="F54" s="3">
-        <v>1846000</v>
+        <v>1850000</v>
       </c>
       <c r="G54" s="3">
-        <v>2529900</v>
+        <v>2535400</v>
       </c>
       <c r="H54" s="3">
-        <v>2239400</v>
+        <v>2244300</v>
       </c>
       <c r="I54" s="3">
-        <v>2670200</v>
+        <v>2676000</v>
       </c>
       <c r="J54" s="3">
-        <v>980700</v>
+        <v>982800</v>
       </c>
       <c r="K54" s="3">
         <v>372400</v>
@@ -2586,16 +2586,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>144600</v>
+        <v>144900</v>
       </c>
       <c r="H58" s="3">
-        <v>531900</v>
+        <v>533000</v>
       </c>
       <c r="I58" s="3">
-        <v>1099400</v>
+        <v>1101800</v>
       </c>
       <c r="J58" s="3">
-        <v>576400</v>
+        <v>577600</v>
       </c>
       <c r="K58" s="3">
         <v>217600</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76600</v>
+        <v>76800</v>
       </c>
       <c r="E59" s="3">
-        <v>68000</v>
+        <v>68100</v>
       </c>
       <c r="F59" s="3">
-        <v>65100</v>
+        <v>65300</v>
       </c>
       <c r="G59" s="3">
-        <v>392400</v>
+        <v>393200</v>
       </c>
       <c r="H59" s="3">
-        <v>159700</v>
+        <v>160000</v>
       </c>
       <c r="I59" s="3">
-        <v>186100</v>
+        <v>186500</v>
       </c>
       <c r="J59" s="3">
-        <v>47500</v>
+        <v>47600</v>
       </c>
       <c r="K59" s="3">
         <v>230300</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>80600</v>
+        <v>80800</v>
       </c>
       <c r="E60" s="3">
-        <v>68000</v>
+        <v>68100</v>
       </c>
       <c r="F60" s="3">
-        <v>65100</v>
+        <v>65300</v>
       </c>
       <c r="G60" s="3">
-        <v>537000</v>
+        <v>538100</v>
       </c>
       <c r="H60" s="3">
-        <v>691600</v>
+        <v>693100</v>
       </c>
       <c r="I60" s="3">
-        <v>1285500</v>
+        <v>1288300</v>
       </c>
       <c r="J60" s="3">
-        <v>623900</v>
+        <v>625200</v>
       </c>
       <c r="K60" s="3">
         <v>447900</v>
@@ -2703,22 +2703,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="E61" s="3">
-        <v>113900</v>
+        <v>114200</v>
       </c>
       <c r="F61" s="3">
-        <v>127400</v>
+        <v>127600</v>
       </c>
       <c r="G61" s="3">
-        <v>322300</v>
+        <v>323000</v>
       </c>
       <c r="H61" s="3">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="I61" s="3">
-        <v>70300</v>
+        <v>70400</v>
       </c>
       <c r="J61" s="3">
         <v>10500</v>
@@ -2748,13 +2748,13 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="F62" s="3">
         <v>12600</v>
       </c>
       <c r="G62" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97000</v>
+        <v>97200</v>
       </c>
       <c r="E66" s="3">
-        <v>216900</v>
+        <v>217400</v>
       </c>
       <c r="F66" s="3">
-        <v>206400</v>
+        <v>206900</v>
       </c>
       <c r="G66" s="3">
-        <v>887000</v>
+        <v>888900</v>
       </c>
       <c r="H66" s="3">
-        <v>748500</v>
+        <v>750200</v>
       </c>
       <c r="I66" s="3">
-        <v>1355800</v>
+        <v>1358700</v>
       </c>
       <c r="J66" s="3">
-        <v>634300</v>
+        <v>635700</v>
       </c>
       <c r="K66" s="3">
         <v>460300</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>819000</v>
+        <v>820700</v>
       </c>
       <c r="K70" s="3">
         <v>827400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1176500</v>
+        <v>1179100</v>
       </c>
       <c r="E72" s="3">
-        <v>1226900</v>
+        <v>1229500</v>
       </c>
       <c r="F72" s="3">
-        <v>1145700</v>
+        <v>1148200</v>
       </c>
       <c r="G72" s="3">
-        <v>1147900</v>
+        <v>1150400</v>
       </c>
       <c r="H72" s="3">
-        <v>698100</v>
+        <v>699600</v>
       </c>
       <c r="I72" s="3">
-        <v>340000</v>
+        <v>340700</v>
       </c>
       <c r="J72" s="3">
-        <v>-483700</v>
+        <v>-484800</v>
       </c>
       <c r="K72" s="3">
         <v>-923400</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1659200</v>
+        <v>1662900</v>
       </c>
       <c r="E76" s="3">
-        <v>1724500</v>
+        <v>1728300</v>
       </c>
       <c r="F76" s="3">
-        <v>1639600</v>
+        <v>1643100</v>
       </c>
       <c r="G76" s="3">
-        <v>1642900</v>
+        <v>1646500</v>
       </c>
       <c r="H76" s="3">
-        <v>1490900</v>
+        <v>1494100</v>
       </c>
       <c r="I76" s="3">
-        <v>1314500</v>
+        <v>1317300</v>
       </c>
       <c r="J76" s="3">
-        <v>-472700</v>
+        <v>-473600</v>
       </c>
       <c r="K76" s="3">
         <v>-915300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-49900</v>
+        <v>-50000</v>
       </c>
       <c r="E81" s="3">
-        <v>81200</v>
+        <v>81300</v>
       </c>
       <c r="F81" s="3">
-        <v>132100</v>
+        <v>132400</v>
       </c>
       <c r="G81" s="3">
-        <v>449800</v>
+        <v>450700</v>
       </c>
       <c r="H81" s="3">
-        <v>343300</v>
+        <v>344000</v>
       </c>
       <c r="I81" s="3">
-        <v>298200</v>
+        <v>298900</v>
       </c>
       <c r="J81" s="3">
-        <v>79500</v>
+        <v>79600</v>
       </c>
       <c r="K81" s="3">
         <v>-32500</v>
@@ -3509,7 +3509,7 @@
         <v>1400</v>
       </c>
       <c r="G83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="E89" s="3">
-        <v>127000</v>
+        <v>127300</v>
       </c>
       <c r="F89" s="3">
-        <v>340600</v>
+        <v>341300</v>
       </c>
       <c r="G89" s="3">
-        <v>758300</v>
+        <v>759900</v>
       </c>
       <c r="H89" s="3">
-        <v>459100</v>
+        <v>460100</v>
       </c>
       <c r="I89" s="3">
-        <v>385500</v>
+        <v>386300</v>
       </c>
       <c r="J89" s="3">
-        <v>109400</v>
+        <v>109600</v>
       </c>
       <c r="K89" s="3">
         <v>-14200</v>
@@ -3812,10 +3812,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37700</v>
+        <v>-37800</v>
       </c>
       <c r="E91" s="3">
-        <v>-65900</v>
+        <v>-66100</v>
       </c>
       <c r="F91" s="3">
         <v>-30600</v>
@@ -3824,7 +3824,7 @@
         <v>-10500</v>
       </c>
       <c r="H91" s="3">
-        <v>-19300</v>
+        <v>-19400</v>
       </c>
       <c r="I91" s="3">
         <v>-1600</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>259700</v>
+        <v>260300</v>
       </c>
       <c r="E94" s="3">
         <v>-34000</v>
       </c>
       <c r="F94" s="3">
-        <v>-450500</v>
+        <v>-451500</v>
       </c>
       <c r="G94" s="3">
-        <v>-128100</v>
+        <v>-128400</v>
       </c>
       <c r="H94" s="3">
-        <v>-384500</v>
+        <v>-385300</v>
       </c>
       <c r="I94" s="3">
-        <v>-609300</v>
+        <v>-610600</v>
       </c>
       <c r="J94" s="3">
-        <v>-495800</v>
+        <v>-496800</v>
       </c>
       <c r="K94" s="3">
         <v>-259600</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-115000</v>
+        <v>-115300</v>
       </c>
       <c r="E100" s="3">
         <v>-11600</v>
       </c>
       <c r="F100" s="3">
-        <v>-219200</v>
+        <v>-219700</v>
       </c>
       <c r="G100" s="3">
-        <v>-464600</v>
+        <v>-465700</v>
       </c>
       <c r="H100" s="3">
-        <v>-927000</v>
+        <v>-929000</v>
       </c>
       <c r="I100" s="3">
-        <v>1378000</v>
+        <v>1381000</v>
       </c>
       <c r="J100" s="3">
-        <v>465700</v>
+        <v>466700</v>
       </c>
       <c r="K100" s="3">
         <v>302800</v>
@@ -4214,16 +4214,16 @@
         <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="G101" s="3">
         <v>10500</v>
       </c>
       <c r="H101" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="I101" s="3">
-        <v>-10700</v>
+        <v>-10800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>183200</v>
+        <v>183600</v>
       </c>
       <c r="E102" s="3">
-        <v>78600</v>
+        <v>78800</v>
       </c>
       <c r="F102" s="3">
-        <v>-337000</v>
+        <v>-337700</v>
       </c>
       <c r="G102" s="3">
-        <v>176000</v>
+        <v>176400</v>
       </c>
       <c r="H102" s="3">
-        <v>-860300</v>
+        <v>-862200</v>
       </c>
       <c r="I102" s="3">
-        <v>1143500</v>
+        <v>1146000</v>
       </c>
       <c r="J102" s="3">
-        <v>79300</v>
+        <v>79500</v>
       </c>
       <c r="K102" s="3">
         <v>29000</v>
